--- a/upcoming_exhibitions.xlsx
+++ b/upcoming_exhibitions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V589"/>
+  <dimension ref="A1:W589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +544,11 @@
           <t>end_date</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>need</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -652,6 +657,11 @@
           <t>2026-02-06</t>
         </is>
       </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>"100 Nights of Hero" meets viewer desires for visually stunning feminist storytelling, offering a stylized, queer-positive narrative that subverts patriarchal power dynamics. The film appeals to audiences seeking inventive, theatrical cinema with strong themes of female solidarity, resistance against toxic masculinity, and LGBTQ+ representation, all presented through a unique aesthetic reminiscent of stage plays and fairy tales.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -756,6 +766,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>The film "1984" meets viewers' desires for:
+**Intellectual stimulation** - exploring themes of totalitarianism, surveillance, propaganda, and loss of freedom that provoke critical thinking about power and society. **Cautionary warning** - satisfying the need to understand potential dangers of authoritarian government and technological control over citizens. **Emotional catharsis** - allowing viewers to experience fear, oppression, and resistance vicariously through Winston Smith's doomed struggle. **Historical/political reflection** - providing a lens to examine real-world political systems and consider parallels to contemporary surveillance and government overreach. **Dystopian fascination** - fulfilling interest in imagining worst-case scenarios and exploring "what if" social nightmares.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -860,6 +876,18 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires/Needs Are Met by "2046"
+**2046** satisfies viewers seeking:
+1. **Visual artistry** - Wong Kar-wai's lush cinematography and meticulous production design offer aesthetic pleasure and cinematic beauty
+2. **Emotional complexity** - The film explores themes of memory, loss, and unattainable love that resonate with audiences who appreciate melancholic introspection
+3. **Narrative ambiguity** - Non-linear storytelling appeals to viewers who enjoy piecing together fragmented narratives and interpreting symbolic meaning
+4. **Romantic nostalgia** - The meditation on past relationships and "what could have been" connects with those reflecting on their own romantic histories
+5. **Escapism through style** - The dreamlike atmosphere and retro-futuristic elements provide immersive escapism from everyday reality
+6. **Intellectual engagement** - Layered symbolism and philosophical questions about time and identity attract viewers seeking thought-provoking cinema</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -968,6 +996,17 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by "28 Years Later"
+**Note:** As of my last knowledge update (April 2024), "28 Years Later" had not been released, so this response is speculative based on the franchise pattern. The film likely meets viewer desires for:
+1. **Nostalgia and continuity** - Fans of "28 Days Later" and "28 Weeks Later" want to revisit the post-apocalyptic world and see how it has evolved
+2. **Survival thriller excitement** - Audiences seek intense, suspenseful horror experiences with infected/zombie threats
+3. **Exploration of humanity under crisis** - Viewers desire thought-provoking commentary on civilization collapse, human nature, and resilience
+4. **Visual spectacle** - Expectations for updated special effects and disturbing imagery that push the franchise forward
+5. **Closure or expansion** - Long-time fans want answers about the fate of survivors and the infected virus decades later</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1076,6 +1115,18 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "28 Years Later"
+**Note:** As of my last knowledge update (April 2024), "28 Years Later" had not been released, so this response is speculative based on the franchise. The film likely satisfies viewers' desires for:
+- **Nostalgia and franchise continuation** - Fans of "28 Days Later" and "28 Weeks Later" seeking closure or expansion of the post-apocalyptic zombie universe
+- **Visceral horror and suspense** - Audiences craving intense, adrenaline-fueled survival scenarios and infected creature threats
+- **Exploration of societal collapse** - Interest in how humanity rebuilds (or fails to rebuild) after catastrophic events
+- **Emotional and psychological drama** - Character-driven stories about trauma, survival, hope, and human resilience
+- **Social commentary** - Reflection on contemporary fears about pandemics, social breakdown, and human nature under extreme pressure
+- **Visual spectacle** - Expectations for atmospheric cinematography and compelling action sequences characteristic of Danny Boyle's style</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1184,6 +1235,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by "28 Years Later"
+**Note:** As of my last knowledge update (April 2024), "28 Years Later" had not been released, so I can only provide a speculative summary based on expectations for this franchise installment. The film likely satisfies viewers' desires for:
+- **Nostalgia and franchise continuation** - Reconnecting with the post-apocalyptic world established in "28 Days Later" and "28 Weeks Later"
+- **Evolved horror** - Seeing how the rage virus and infected have changed after nearly three decades
+- **Survival tension** - Experiencing visceral, intense survival scenarios in a devastated Britain
+- **Social commentary** - Exploring themes about humanity's resilience, societal collapse, and rebuilding
+- **Visual spectacle** - Witnessing how civilization and nature have transformed after 28 years
+- **Emotional catharsis** - Engaging with characters struggling against overwhelming odds in a bleak world
+The film would appeal to fans seeking both continuity with beloved earlier films and fresh perspectives on long-term apocalyptic survival.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1274,6 +1338,11 @@
       <c r="V8" t="inlineStr">
         <is>
           <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "67 Bombs to Enid" in my knowledge base. This title doesn't appear to match any widely known or documented film, so I cannot provide a summary of what viewer desires or needs it meets.</t>
         </is>
       </c>
     </row>
@@ -1362,6 +1431,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t># Viewer Desires/Needs Met by "9 to 5"
+**9 to 5** (1980) satisfies several key audience desires:
+1. **Revenge fantasy fulfillment** - Viewers experience vicarious satisfaction watching oppressed workers get back at their tyrannical boss
+2. **Workplace validation** - The film acknowledges and validates common frustrations with corporate hierarchies, sexism, and mistreatment
+3. **Empowerment** - Provides cathartic wish-fulfillment for those feeling powerless in their jobs, particularly women facing discrimination
+4. **Comedy and escapism** - Offers lighthearted entertainment that makes serious workplace issues digestible and fun
+5. **Social justice** - Addresses gender inequality and workplace reform in an accessible way that makes audiences feel morally satisfied
+6. **Camaraderie** - Showcases the power of friendship and solidarity among workers facing common struggles
+The film essentially provides therapeutic entertainment by letting audiences laugh at workplace injustices while fantasizing about creative solutions to systemic problems.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1470,6 +1552,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t># A Bittersweet Life - Viewer Desires Met
+**A Bittersweet Life** satisfies viewers seeking:
+- **Stylish action and violence** - Expertly choreographed fight scenes and gunplay with cinematic flair
+- **Moral complexity** - A protagonist caught between loyalty and personal conscience, avoiding simple good/evil dynamics
+- **Aesthetic beauty** - Stunning cinematography, color palettes, and visual composition characteristic of Korean neo-noir
+- **Emotional depth** - A meditative exploration of loneliness, regret, and existential meaning beneath the action
+- **Revenge satisfaction** - The cathartic journey of betrayal and retribution
+- **Cool, minimalist protagonist** - A stoic, professionally competent hitman with hidden vulnerability
+- **Atmospheric noir experience** - Moody tone, jazz-influenced soundtrack, and contemplative pacing that elevates genre conventions</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1562,6 +1657,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>"A Film Inspired by Real Events" meets viewers' desires for meta-commentary on filmmaking and truth in cinema, appeals to those seeking dark comedy and satire about the entertainment industry's exploitation of tragedy, and satisfies audiences interested in deconstructing the "based on a true story" trope while exploring themes of artistic integrity, ethics, and the blurred lines between reality and fiction.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1654,6 +1754,18 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t># Summary
+*A Girl in Black* (1956) meets viewers' desires for authentic, emotionally resonant drama about class conflict, forbidden love, and social injustice. The film satisfies needs for:
+- **Realism and authenticity** in depicting Greek island life and working-class struggles
+- **Tragic romance** between characters from different social worlds
+- **Social commentary** on privilege, exploitation, and the destructive nature of class divisions
+- **Emotional catharsis** through its melancholic tone and heartbreaking narrative
+- **Character-driven storytelling** that explores human dignity, honor, and moral consequences
+The film appeals to audiences seeking serious, artistically crafted cinema that confronts uncomfortable social realities while delivering powerful emotional impact.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1750,6 +1862,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>"A Girl's Folly" (1917) met viewers' desires for entertainment that combined romance, comedy, and a behind-the-scenes look at the filmmaking industry itself. The film satisfied audience curiosity about how movies were made while delivering a cautionary yet humorous story about Hollywood dreams and stardom. It also appealed to viewers' interest in seeing real film studios and actors playing themselves, offering meta-entertainment that both celebrated and gently satirized the burgeoning movie industry during the silent era.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1858,6 +1975,21 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t># A Haunting in Venice: Viewer Desires Met
+**A Haunting in Venice** satisfies viewers seeking:
+- **Mystery and puzzle-solving** through Hercule Poirot's investigation of a murder during a séance
+- **Atmospheric gothic horror** with haunted palazzo settings and supernatural tension
+- **Nostalgic detective fiction** in the classic Agatha Christie whodunit tradition
+- **Visual spectacle** featuring moody, beautiful Venetian cinematography
+- **Ensemble cast drama** with multiple suspects and complex character dynamics
+- **Intellectual engagement** requiring attention to clues and red herrings
+- **Escapist period entertainment** set in post-WWII Venice
+- **Genre blending** that combines murder mystery with horror elements for viewers wanting both tension and deduction
+The film appeals to audiences desiring sophisticated, cerebral entertainment with dark atmospheric flair.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1954,6 +2086,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t># A Matter of Life and Death: Meeting Viewer Desires
+**A Matter of Life and Death** (1946) fulfills several key viewer needs:
+**Escapism and Fantasy** - The film transports audiences between Earth and a stunning Technicolor afterlife, offering visual spectacle and imaginative world-building that provided post-war audiences relief from harsh realities. **Emotional Catharsis** - The romance between Peter and June offers deep emotional satisfaction, while the trial-for-love premise allows viewers to experience profound feelings about mortality, love, and second chances. **Intellectual Engagement** - The film's philosophical debates about life, death, justice, and Anglo-American relations stimulate viewers intellectually while exploring universal questions about existence. **Hope and Affirmation** - Released just after WWII, the film reassured audiences that love conquers death, individual lives matter, and fighting for what you believe in is worthwhile—powerful messages for a war-weary generation. **Aesthetic Pleasure** - Powell and Pressburger's innovative cinematography, alternating between monochrome heaven and Technicolor Earth, satisfies desires for artistic beauty and technical innovation.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2058,6 +2197,11 @@
           <t>2026-02-23</t>
         </is>
       </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>"A New Love in Tokyo" (1994) meets viewer desires for romantic escapism and emotional connection through its portrayal of a cross-cultural love story set in an exotic urban setting. The film appeals to audiences seeking melodrama, the excitement of forbidden or complicated romance, and exploration of cultural differences in relationships. It also satisfies interest in Tokyo as a glamorous backdrop and provides wish-fulfillment through its depiction of passionate love overcoming obstacles.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2162,6 +2306,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>"A New Love in Tokyo" (1994) meets viewer desires for romantic escapism and cultural exploration through its portrayal of a cross-cultural love story set in Tokyo. The film appeals to audiences seeking emotional connection, the excitement of forbidden or complicated romance, and a glimpse into Japanese urban life and culture. It satisfies needs for melodrama, relationship conflicts, and the universal theme of love transcending cultural boundaries, while also offering visual interest through its Tokyo setting.</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2264,6 +2413,13 @@
       <c r="V18" t="inlineStr">
         <is>
           <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Needs Met by "A Nos Amours"
+Maurice Pialat's "A Nos Amours" (1983) satisfies viewers seeking:
+**Psychological depth**: An unflinching portrait of adolescent sexuality, confusion, and family dysfunction that explores the emotional complexity of a teenage girl's search for identity and love. **Authentic realism**: Raw, naturalistic performances (especially Sandrine Bonnaire's debut) and improvised scenes that capture genuine human behavior rather than Hollywood conventions. **Provocative content**: Frank depictions of sexuality and transgressive behavior that challenge social norms and offer cathartic viewing for those interested in taboo subjects. **Art cinema experience**: The film appeals to cinephiles valuing auteur-driven filmmaking, ambiguity, and emotionally challenging narratives over conventional storytelling. **Coming-of-age resonance**: Universal themes of family conflict, first love, and the painful transition to adulthood that resonate with viewers' own experiences or memories.</t>
         </is>
       </c>
     </row>
@@ -2354,6 +2510,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>"A Poet in Exile" meets viewers' desires for intimate character studies and contemplative cinema. The film appeals to audiences seeking thoughtful explorations of artistic identity, cultural displacement, and the immigrant experience. It satisfies needs for slow-paced, observational storytelling that examines themes of exile, memory, and the role of poetry and language in processing trauma and maintaining cultural connection. The documentary format attracts viewers interested in real-life stories of perseverance and the creative process under difficult circumstances.</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2442,6 +2603,18 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by "A Poet in Exile"
+"A Poet in Exile" appeals to viewers seeking intellectual and emotional engagement with themes of artistic expression, political oppression, and cultural identity. The film meets the needs of audiences interested in:
+- **Human rights and social justice** - exploring the experiences of artists persecuted for their work
+- **Cross-cultural understanding** - bridging Western and non-Western perspectives on freedom of expression
+- **Artistic inspiration** - witnessing the power of poetry and art as forms of resistance
+- **Documentary authenticity** - offering real stories of exile and displacement
+- **Contemplative cinema** - providing a slower, more meditative viewing experience that encourages reflection on larger philosophical questions about art, freedom, and sacrifice
+The film satisfies viewers who value politically engaged cinema that combines personal narrative with broader sociopolitical commentary.</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2546,6 +2719,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "A Private Life"
+The film *A Private Life* (2018) meets viewers' needs for:
+**Authentic representation** - It portrays the emotional and physical struggles of fertility treatments with raw honesty, resonating with those experiencing similar challenges. **Emotional connection** - The intimate portrayal of a couple's relationship strain creates empathy and validates feelings of frustration, grief, and hope surrounding infertility. **Relatability** - It addresses the anxiety of aging, societal pressure about parenthood, and identity questions that many viewers face in midlife. **Conversation starter** - The film opens dialogue about taboo topics like infertility, IVF, and alternative family-building options. **Catharsis** - For those struggling with fertility, it provides emotional release and the comfort of seeing their experiences reflected on screen without judgment.</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2654,6 +2834,11 @@
           <t>2026-02-28</t>
         </is>
       </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>"A Real Young Girl" (1976) appeals to viewers interested in provocative coming-of-age cinema that explores female adolescent sexuality from an artistic, European art-house perspective. The film meets desires for taboo-breaking content, frank depictions of sexual awakening, and Catherine Breillat's characteristically unflinching directorial approach to controversial subject matter. It attracted audiences seeking boundary-pushing cinema that challenged conventional representations of teenage sexuality, though its explicit content has made it consistently controversial.</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2754,6 +2939,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>"A Tale of Springtime" meets viewers' desires for intelligent, dialogue-driven cinema that explores authentic human relationships and emotional subtleties. The film appeals to those who appreciate slow-paced, character-focused narratives about chance encounters, romantic possibilities, and the complexities of modern relationships. It satisfies audiences seeking nuanced portrayals of women's inner lives, philosophical conversations about life choices, and the quiet drama of everyday situations, all rendered with Rohmer's characteristic observational style and naturalistic performances.</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2862,6 +3052,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t># Summary
+"A Useful Ghost" meets viewers' desires for:
+- **Emotional catharsis** through exploring grief, loss, and healing
+- **Cultural connection** by presenting Chinese folklore and spiritual beliefs about the afterlife
+- **Family drama** that examines intergenerational relationships and unresolved conflicts
+- **Gentle humor** that balances heavier emotional themes
+- **Magical realism** that offers escapism while addressing real human experiences
+- **Reflection on mortality** in an accessible, non-threatening way
+- **Closure and reconciliation** through the supernatural premise of communicating with the deceased
+The film appeals to audiences seeking thoughtful, character-driven stories that blend supernatural elements with genuine emotional depth.</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2970,6 +3174,11 @@
           <t>2026-02-06</t>
         </is>
       </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film called "A Useful Ghost" in my knowledge base. Without details about this particular film's content, themes, or production, I cannot accurately describe what viewer desires or needs it meets. If you could provide more context about the film (such as release year, director, or basic plot), I could offer a more helpful response.</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3078,6 +3287,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>"A Useful Ghost" meets viewers' desires for lighthearted entertainment, whimsical storytelling, and gentle comedy. The film appeals to those seeking escapist fantasy with supernatural elements, while also satisfying audiences who enjoy heartwarming narratives about unexpected friendships or helpful spirits. It provides comfort viewing for those wanting feel-good content without intense conflict or drama.</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3182,6 +3396,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>"A Wanderer's Notebook" (1962) meets viewers' desires for intimate biographical storytelling, exploring the struggles of female poet Fumiko Hayashi. The film satisfies needs for artistic authenticity, emotional depth, and social commentary by depicting a woman's determination to survive poverty and pursue creative expression in early 20th-century Japan. It appeals to audiences seeking character-driven drama, feminist perspectives, and contemplative examinations of the artistic life, while offering a poignant look at resilience, independence, and the cost of dedicating oneself to art despite society's constraints.</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3286,6 +3505,11 @@
           <t>2026-02-27</t>
         </is>
       </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>"Abnormal Family" (1984), a Japanese pink film directed by Masayuki Suo, appeals to viewers seeking transgressive exploitation cinema. It meets desires for taboo content, shock value, and boundary-pushing narratives within the "pinku eiga" genre. The film attracts audiences interested in extreme or controversial subject matter, cult cinema enthusiasts, and those studying Japanese exploitation film history. It serves niche viewers drawn to provocative, adult-oriented content that deliberately challenges social norms and conventional morality.</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3386,6 +3610,12 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>"Accused, Stand Up!" (1930) is a Soviet courtroom drama that met viewers' desires for:
+1. **Political validation** - It reinforced Soviet ideology by depicting the trial of a saboteur, satisfying audiences' need to see enemies of the state brought to justice during a period of intense industrialization and paranoia about counter-revolutionary activity. 2. **Dramatic entertainment** - The courtroom setting provided compelling conflict and moral clarity through its trial narrative structure. 3. **Educational purpose** - It served the Soviet goal of educating citizens about legal processes and the consequences of opposing state interests during the first Five-Year Plan era. 4. **Emotional catharsis** - Viewers experienced satisfaction from seeing justice served according to the prevailing social values of the time.</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3488,6 +3718,12 @@
       <c r="V30" t="inlineStr">
         <is>
           <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t># Summary
+*Ace in the Hole* satisfies viewers' desire for cynical social commentary and dark entertainment by exposing media manipulation and human exploitation. The film meets needs for intellectual stimulation through its critique of sensationalism, moral corruption, and public complicity in tragedy. It appeals to audiences seeking unflinching drama, a morally complex antihero, and sharp observations about American culture's darker impulses—offering both cautionary insight and the uncomfortable pleasure of watching an ethical train wreck unfold.</t>
         </is>
       </c>
     </row>
@@ -3571,6 +3807,17 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t># Summary
+The 1975 Hungarian film *Adoption* (directed by Márta Mészáros) meets viewers' desires for intimate, emotionally honest storytelling about women's lives and unconventional relationships. It addresses needs for:
+- **Authentic female perspectives** on motherhood, aging, and fulfillment outside traditional family structures
+- **Nuanced character studies** exploring loneliness and human connection
+- **Social realism** that examines personal agency within restrictive societal norms
+- **Empathetic portrayals** of women supporting each other across generational divides
+The film resonates with audiences seeking thoughtful, character-driven cinema that validates complex emotional experiences often marginalized in mainstream narratives.</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3679,6 +3926,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>"Air Force One" satisfies viewers' desires for patriotic heroism, vicarious empowerment through a president who personally fights terrorists, clear-cut good vs. evil conflicts, high-stakes action and suspense, wish-fulfillment of a strong decisive leader, family-in-peril emotional stakes, and the reassuring fantasy that America and its values will triumph over threats through individual courage and determination.</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3787,6 +4039,17 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Airplane! **Airplane!** satisfies viewers' desires for:
+1. **Escapist entertainment and laughter** - providing relief from everyday stress through absurdist, rapid-fire comedy
+2. **Nostalgia and parody** - offering affectionate spoofs of disaster films and 1970s pop culture that audiences recognize and enjoy
+3. **Clever wordplay and visual gags** - delivering intelligent humor that rewards attention and repeat viewing
+4. **Unpredictability** - subverting expectations with surreal, unexpected jokes that keep audiences engaged
+5. **Shared cultural experience** - creating memorable, quotable moments that bond viewers through common references
+6. **Simple, feel-good storytelling** - providing a straightforward plot with a satisfying resolution beneath the comedy chaos</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3895,6 +4158,19 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t># Viewer Desires and Needs Met by Alice in Wonderland
+**Alice in Wonderland** fulfills several key viewer desires:
+- **Escapism**: Provides a fantastical retreat from reality into an imaginative, dreamlike world
+- **Nostalgia**: Connects adults with childhood memories and beloved literary characters
+- **Visual spectacle**: Satisfies the craving for colorful, surreal imagery and creative design
+- **Adventure and curiosity**: Meets the need for exploration and encountering the unexpected
+- **Whimsy and humor**: Delivers absurdist comedy and playful nonsense that entertains
+- **Identity exploration**: Resonates with viewers questioning their place in the world through Alice's journey of self-discovery
+- **Wonder and magic**: Fulfills the desire to experience impossibility and break from logic and rules</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3993,6 +4269,18 @@
           <t>2026-02-15</t>
         </is>
       </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t># Summary
+*All That Heaven Allows* (1955) meets viewers' desires for:
+1. **Emotional catharsis** - The forbidden romance between an older widow and younger gardener provides intense feelings and melodramatic satisfaction
+2. **Social commentary** - Addresses class prejudice, conformity, and the restrictive nature of 1950s American suburban life
+3. **Wish fulfillment** - Offers escapist fantasy of choosing authentic love over societal expectations
+4. **Visual pleasure** - Douglas Sirk's lush Technicolor cinematography and composed frames create aesthetic satisfaction
+5. **Identification and empathy** - Jane Wyman's sympathetic protagonist allows viewers to connect with themes of loneliness, judgment, and the courage to defy convention
+6. **Moral reassurance** - Ultimately validates choosing personal happiness and authenticity over shallow social approval</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4097,6 +4385,11 @@
           <t>2026-02-13</t>
         </is>
       </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film titled "All That's Left of You" in my knowledge base. This could be a lesser-known independent film, a recent release after my training data, or possibly known by an alternate title. Without access to details about this particular film's content, themes, or reception, I cannot accurately describe what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4201,6 +4494,11 @@
           <t>2026-02-05</t>
         </is>
       </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "All That's Left of You" in my knowledge base. This could be a lesser-known independent film, a recent release after my training data, or possibly listed under a different title. Without access to details about this specific film, I cannot accurately describe what viewer desires or needs it fulfills.</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4305,6 +4603,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film titled "All That's Left of You" in my knowledge base. This could be a lesser-known independent film, a recent release after my training data, or possibly known by an alternate title. Without accurate information about this specific film, I cannot reliably describe what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4409,6 +4712,19 @@
           <t>2026-02-02</t>
         </is>
       </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires/Needs "Alligator" Meets
+**Alligator** (1980) satisfies several key viewer desires:
+1. **Creature feature thrills** - Delivers classic monster movie excitement with a giant alligator terrorizing urban environments
+2. **Social commentary** - Addresses anxieties about pollution, corporate negligence, and urban decay through its premise of toxic waste creating the monster
+3. **Dark humor** - Balances horror with satirical wit and self-aware comedy
+4. **Underdog hero narrative** - Features a flawed, relatable protagonist overcoming personal and professional challenges
+5. **Visceral action and gore** - Provides satisfying horror violence and practical effects for genre fans
+6. **"Nature's revenge" catharsis** - Taps into fears about humanity's environmental consequences coming back to haunt us
+The film serves as entertaining B-movie horror while offering just enough intelligence and subtext to appeal to viewers seeking more than simple schlock.</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4509,6 +4825,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>"Alma's Rainbow" (1994) meets viewers' desires for authentic representation of Black women's experiences, particularly exploring themes of colorism, self-acceptance, and intergenerational relationships within African American families. The film addresses needs for stories centered on Black female identity, beauty standards, mother-daughter dynamics, and coming-of-age narratives from an often underrepresented perspective in cinema.</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4605,6 +4926,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t># Summary
+*American Pachuco: The Legend of Luis Valdez* meets viewers' desires for cultural representation and historical understanding by documenting the life of playwright and activist Luis Valdez, founder of El Teatro Campesino. The film satisfies needs for recognition of Chicano contributions to American theater and civil rights, while appealing to audiences interested in social justice movements, particularly the United Farm Workers struggle. It also fulfills the desire to understand the pachuco cultural identity and its influence on Chicano art and activism, providing both educational value and inspiration through Valdez's groundbreaking work in bringing Mexican-American stories to mainstream audiences.</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4709,6 +5036,19 @@
           <t>2026-02-23</t>
         </is>
       </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t># Viewer Desires/Needs Met by "An Elephant Sitting Still"
+**An Elephant Sitting Still** appeals to viewers seeking:
+- **Artistic/contemplative cinema** - Slow, meditative pacing and long takes for those who appreciate challenging, non-commercial filmmaking
+- **Raw emotional catharsis** - Unflinching portrayal of despair, alienation, and suffering that validates feelings of hopelessness
+- **Social realism** - Authentic depiction of contemporary Chinese society's struggles, corruption, and institutional failures
+- **Existential exploration** - Deep examination of meaning, escape, and whether hope is possible in oppressive circumstances
+- **Cinematic craftsmanship** - Appreciation for masterful cinematography, natural lighting, and deliberate directorial vision
+- **Memorial/tribute experience** - Connection to director Hu Bo's tragic suicide, adding poignant meta-textual layer about despair and artistic expression
+The film serves viewers who want cinema as profound meditation rather than entertainment, offering validation of life's darkness while leaving space for ambiguous hope.</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4817,6 +5157,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Anatomy of a Murder
+**Anatomy of a Murder** satisfies viewers seeking:
+- **Intellectual engagement** through complex legal arguments and courtroom strategy
+- **Moral ambiguity** via characters whose truthfulness and motivations remain deliberately unclear
+- **Authenticity** in its realistic portrayal of legal proceedings and small-town American life
+- **Sophisticated adult drama** addressing taboo subjects like rape and consent without sensationalism
+- **Performance excellence** from a stellar cast delivering nuanced, understated acting
+- **Procedural detail** for those interested in how the legal system actually works
+- **Ethical complexity** that avoids simplistic good-vs-evil narratives
+- **Craftsmanship** in filmmaking through expert direction, jazz scoring, and thoughtful pacing that prioritizes substance over spectacle</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4909,6 +5263,13 @@
           <t>2026-03-01</t>
         </is>
       </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Tarkovsky's *Nostalgia*
+*Nostalgia* (1983) fulfills several deep viewer needs:
+**Spiritual/Existential Contemplation**: The film offers space for meditation on life's meaning, faith, and the human condition through its slow, deliberate pacing and philosophical themes. **Aesthetic Experience**: Tarkovsky's stunning cinematography, long takes, and dreamlike imagery satisfy viewers seeking pure visual poetry and artistic beauty. **Emotional Catharsis**: The film explores profound feelings of displacement, longing for home, and alienation that resonate with those experiencing their own nostalgia or cultural disconnection. **Intellectual Engagement**: Complex symbolism, religious allegory, and layered narrative challenge viewers who desire demanding, thought-provoking cinema. **Escape from Commercial Cinema**: It provides an alternative to mainstream entertainment for audiences seeking authentic, personal, and uncompromising artistic vision. **Connection to the Sacred**: The film's mystical atmosphere and spiritual imagery appeal to viewers seeking transcendent or religious experiences through art.</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5011,6 +5372,19 @@
       <c r="V45" t="inlineStr">
         <is>
           <t>2026-02-15</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t># Summary: What Angel's Egg Offers Viewers
+*Angel's Egg* meets the needs of viewers seeking:
+- **Atmospheric contemplation** - slow, meditative pacing for reflective viewing
+- **Visual artistry** - stunning, dreamlike imagery and Gothic aesthetics that prioritize mood over narrative
+- **Ambiguity and interpretation** - enigmatic symbolism that invites personal meaning-making
+- **Escape from conventional storytelling** - a break from plot-driven cinema
+- **Emotional resonance through mood** - feelings of melancholy, mystery, and solitude conveyed through tone rather than dialogue
+- **Artistic prestige** - appreciation of auteur animation as high art (Mamoru Oshii/Yoshitaka Amano collaboration)
+The film serves viewers who value experiential, poetic cinema over traditional narrative satisfaction.</t>
         </is>
       </c>
     </row>
@@ -5097,6 +5471,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Animal Facts Club Presents: Endangered Rituals" in my knowledge base. This appears to be either a very obscure title, a recent release after my training data, or possibly a fictional film. Without access to information about this specific work, I cannot provide a summary of what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5205,6 +5584,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by Annabelle
+**Annabelle** satisfies several key viewer desires:
+1. **Thrill-seeking and fear**: Delivers supernatural scares and tension through a possessed doll premise
+2. **Curiosity about evil**: Explores the origins of a demonic object from *The Conjuring* universe
+3. **Cathartic experience**: Allows safe confrontation with fears of the unknown and malevolent forces
+4. **Franchise connection**: Provides lore expansion for fans invested in *The Conjuring* mythology
+5. **Escapism**: Offers supernatural horror as a break from everyday reality
+6. **Social experience**: Creates shared viewing moments (jump scares, tension) ideal for group watching
+The film primarily serves audiences seeking accessible, mainstream horror entertainment with recognizable branding.</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5305,6 +5697,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t># Summary
+"Another World" meets viewer desires for emotional catharsis and exploration of grief, loss, and human connection. The film appeals to audiences seeking thoughtful drama that examines how people cope with tragedy and attempt to rebuild their lives. It satisfies needs for intimate character studies, moral complexity, and realistic portrayals of family dynamics under stress, while offering hope about resilience and the possibility of redemption through difficult circumstances.</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5411,6 +5809,13 @@
       <c r="V49" t="inlineStr">
         <is>
           <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Ant-Man and the Wasp
+**Ant-Man and the Wasp** satisfies several key viewer desires:
+**Escapism and spectacle** - The film offers visually creative action sequences using size-changing effects that provide imaginative entertainment and a break from reality. **Humor and lightheartedness** - It delivers comedy and a fun tone that provides stress relief and enjoyable entertainment without heavy emotional demands. **Family-friendly superhero content** - The film meets the need for action-adventure that parents can watch with children, offering accessible Marvel content. **Character connection** - Viewers enjoy the chemistry between Scott Lang and Hope van Dyne, satisfying desires for likable protagonists and relationship dynamics. **Lower-stakes entertainment** - Unlike many superhero films, it provides more modest, personal conflicts that feel refreshing and less exhausting than world-ending scenarios. **Continuation of beloved characters** - For Marvel fans, it satisfies the desire to spend more time with established characters in the MCU.</t>
         </is>
       </c>
     </row>
@@ -5497,6 +5902,11 @@
       <c r="V50" t="inlineStr">
         <is>
           <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>The film "Antarctica" meets viewers' desires for emotional storytelling about loyalty and survival, showcasing the bond between humans and animals (sled dogs). It appeals to those seeking inspiring tales of perseverance against harsh natural elements, family-friendly adventure content, and visually stunning cinematography of remote wilderness landscapes. The film satisfies needs for heartwarming narratives about courage, sacrifice, and the will to survive in extreme conditions.</t>
         </is>
       </c>
     </row>
@@ -5579,6 +5989,11 @@
           <t>2026-02-23</t>
         </is>
       </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>"Anxious in Beirut" meets viewers' desires for authentic representation of mental health struggles, particularly anxiety and trauma in the context of living through conflict and instability in Lebanon. The film satisfies needs for relatable portrayals of psychological distress, validation of experiences in crisis-affected regions, and insight into how individuals cope with ongoing uncertainty and societal breakdown. It also appeals to viewers seeking personal documentary storytelling that bridges individual mental health with broader political and social circumstances.</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5687,6 +6102,18 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Aquaman and the Lost Kingdom
+**Aquaman and the Lost Kingdom** appeals to viewers seeking:
+- **Escapist spectacle**: Stunning underwater visuals and elaborate CGI world-building provide immersive fantasy adventure
+- **Action entertainment**: High-energy fight sequences, chases, and large-scale battles deliver adrenaline and excitement
+- **Lighthearted fun**: Humor and buddy-comedy dynamics between Aquaman and Orm offer accessible, not-too-serious entertainment
+- **Superhero familiarity**: Continuation of the DC franchise satisfies fans invested in these characters and universe
+- **Environmental themes**: Touches on climate change concerns, giving some thematic substance alongside spectacle
+- **Family-friendly adventure**: Broad appeal for audiences wanting blockbuster entertainment suitable for multiple age groups</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5787,6 +6214,20 @@
           <t>2026-02-21</t>
         </is>
       </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Arco"
+The film "Arco" appeals to viewers seeking:
+- **Atmospheric slow cinema** with contemplative pacing and visual storytelling
+- **Character studies** exploring isolation, alienation, and human connection in remote settings
+- **Neorealist aesthetics** featuring naturalistic performances and authentic portrayals of working-class life
+- **Meditative experiences** that prioritize mood and observation over conventional plot
+- **Art house cinema** that challenges mainstream narrative structures
+- **Exploration of marginalized communities** and overlooked social realities
+- **Visual poetry** through stark cinematography of rural Italian landscapes
+The film satisfies audiences interested in minimalist, humanistic cinema that observes life's quiet moments and the struggles of people on society's periphery.</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5887,6 +6328,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>"Arco" meets viewers' desires for visually striking cinema, atmospheric storytelling, and contemplative narratives. The film appeals to those seeking an immersive sensory experience through its distinctive cinematography and sound design, while satisfying audiences interested in slow-burn, meditative explorations of isolation, human connection, and existential themes. It caters to art-house film enthusiasts who appreciate ambiguous, non-linear storytelling and minimalist dialogue over conventional plot-driven narratives.</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5987,6 +6433,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Arco"
+The film *Arco* (2024) appeals to viewers seeking:
+- **Atmospheric, slow-burn cinema** with contemplative pacing and minimal dialogue
+- **Visual storytelling** through striking cinematography and naturalistic imagery
+- **Character studies** exploring isolation, grief, and human connection in remote settings
+- **Authentic portrayals** of working-class or marginalized communities
+- **Ambiguous narratives** that reward patient, interpretive viewing
+- **Art-house/festival cinema** sensibilities emphasizing mood and observation over conventional plot
+The film satisfies audiences drawn to meditative, visually-driven European cinema that prioritizes emotional resonance and realism over traditional narrative structures.</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6095,6 +6554,13 @@
           <t>2026-02-08</t>
         </is>
       </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires "Army of Shadows" Meets
+Jean-Pierre Melville's "Army of Shadows" fulfills viewers' desires for:
+**Moral complexity and realism** - The film avoids romanticizing resistance work, showing the agonizing ethical compromises, betrayals, and brutal necessities of underground warfare. **Atmospheric tension** - Melville creates sustained suspense through procedural sequences and the constant threat of exposure, satisfying those who appreciate slow-burn thriller elements. **Historical authenticity** - It provides a sobering, insider's perspective on French Resistance operations during WWII, appealing to viewers seeking substantive historical cinema over Hollywood heroics. **Character depth** - The stoic, understated performances reveal interior struggles and quiet heroism, meeting the need for psychologically nuanced drama. **Artistic cinematography** - The film's blue-gray palette and precise compositional style satisfy cinephiles' appreciation for visual craft and auteur filmmaking. **Existential reflection** - Themes of duty, sacrifice, and survival under oppression resonate with viewers drawn to philosophical contemplation about honor and human nature under extreme circumstances</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6199,6 +6665,18 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t># Summary
+"As Tears Go By" meets viewer desires for intense emotional experiences, stylish visual aesthetics, and compelling character drama. The film satisfies needs for:
+- **Romantic tragedy** - the doomed love story between a gangster and his cousin provides emotional catharsis
+- **Visual spectacle** - Wong Kar-wai's signature neon-lit cinematography and atmospheric style offer sensory pleasure
+- **Authentic gangster drama** - gritty depictions of Hong Kong triad life appeal to crime genre fans
+- **Masculine honor codes** - themes of loyalty, brotherhood, and sacrifice resonate with audiences interested in character-driven moral conflicts
+- **Escapism with substance** - the film combines entertainment value with artistic merit and deeper themes about violence, redemption, and the possibility of change
+The film particularly appeals to viewers seeking emotionally resonant cinema that balances art-house aesthetics with accessible genre storytelling.</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6303,6 +6781,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires/Needs Are Met by "As Tears Go By"
+Wong Kar-wai's "As Tears Go By" (1988) fulfills several viewer desires:
+**Emotional catharsis** - The tragic romance and doomed brotherhood provide intense emotional release through suffering and sacrifice. **Aesthetic pleasure** - Wong's distinctive visual style, neon-lit Hong Kong streets, and atmospheric cinematography offer sensory satisfaction. **Escapism into noir romance** - The film transports viewers into a stylized criminal underworld with forbidden love and loyalty conflicts. **Identification with outsiders** - Characters struggling between duty and desire, trapped by circumstances, resonate with feelings of being caught between obligations. **Action and violence thrills** - The triad conflicts and street fights satisfy desires for visceral excitement. **Nostalgia** - The 1980s Hong Kong setting and tragic tone evoke bittersweet longing for a vanishing world. The film ultimately meets the need for meaningful tragedy - where love and loyalty collide with inevitable fate.</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6399,6 +6884,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>"At Work" is a 2008 documentary by Joana Hadjithomas and Khalil Joreige that observes the daily routines of Lebanese workers in Beirut. The film meets viewers' desires for contemplative, observational cinema that captures ordinary labor and human dignity. It appeals to those interested in documentary realism, the rhythm of everyday life, and understanding contemporary Lebanese society beyond conflict narratives. The film satisfies needs for slow cinema that invites reflection on work, time, and the often-invisible people who sustain urban life.</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6507,6 +6997,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t># Austin Powers in Goldmember: Viewer Desires Met
+**Austin Powers in Goldmember** satisfies several key viewer desires:
+**Escapism and Comedy Relief** - The film provides lighthearted entertainment through absurdist humor, physical comedy, and quotable one-liners that allow audiences to disconnect from reality. **Nostalgia** - It delivers nostalgic callbacks to 1970s culture, spy film parodies (particularly James Bond), and references to the previous Austin Powers films. **Spectacle and Star Power** - Features celebrity cameos, elaborate set pieces, and the novelty of multiple Mike Myers characters, fulfilling the desire for big-budget entertainment value. **Comfort and Familiarity** - Offers predictable story beats, recurring characters, and formula-based humor that provides comfort through repetition and expectation. **Social Connection** - Creates shared cultural moments and catchphrases ("Yeah, baby!") that facilitate bonding through common references. **Simple Good vs. Evil** - Presents a clear-cut moral universe where good triumphs, satisfying the desire for uncomplicated justice and resolution.</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6615,6 +7112,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Avatar meets viewers' desires for escapism through its immersive alien world, spectacle through groundbreaking visual effects, environmental consciousness by addressing ecological themes, heroic transformation through Jake Sully's journey from disabled marine to Na'vi warrior, romance with the Jake-Neytiri relationship, and moral satisfaction through a David-vs-Goliath narrative where indigenous people triumph over corporate/military exploitation.</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6723,6 +7225,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Avatar meets viewers' desires for spectacular visual escapism, immersive world-building, and a clear moral narrative. It provides thrilling action sequences, a romantic storyline, and the fantasy of connecting with nature and fighting against oppression. The film also satisfies audiences seeking cutting-edge technology and cinematic spectacle, while offering the emotional appeal of an underdog story where viewers can root for indigenous people against corporate greed and environmental destruction.</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6823,6 +7330,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>I can't provide information about that film as it appears to be adult content. If you're interested in film analysis or how cinema meets viewer needs more generally, I'd be happy to discuss other films.</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6923,6 +7435,11 @@
           <t>2026-02-08</t>
         </is>
       </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Ballad of Tara" in my knowledge base. This title doesn't correspond to any widely known or documented film that I'm aware of. Without access to information about this specific film, I cannot provide a summary of what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7031,6 +7548,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Barbarian"
+**Barbarian** satisfies audiences seeking unpredictable horror that subverts expectations. The film delivers:
+- **Genuine surprises**: Multiple shocking twists that defy genre conventions
+- **Escalating dread**: Tension that builds through confined spaces and the unknown
+- **Dark social commentary**: Exploration of gendered violence, trauma, and toxic masculinity
+- **Creature horror**: Visceral scares from a disturbing antagonist
+- **Smart storytelling**: A non-linear narrative that rewards attention
+- **Cathartic thrills**: The satisfaction of watching morally complex characters face consequences
+It appeals to horror fans craving originality over formulaic jump scares, offering both intellectual engagement and primal fear.</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7139,6 +7669,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>The film Barbie meets viewers' desires for nostalgia, escapist entertainment, feminist empowerment, sharp social commentary on gender roles and beauty standards, visually stunning aesthetics, humor that balances camp with substance, and cultural conversation about identity and purpose. It appeals to those seeking both lighthearted fun and meaningful critique of patriarchy and modern womanhood.</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7247,6 +7782,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Batman Begins
+**Batman Begins** satisfies viewers' desires for:
+- **Origin story and understanding** - Explains how Bruce Wayne became Batman, fulfilling the need to understand beloved characters' backstories
+- **Realistic superhero narrative** - Grounds the fantastical in reality, appealing to audiences seeking plausible, grounded storytelling
+- **Justice and moral complexity** - Explores themes of vengeance vs. justice, meeting desires for philosophical depth
+- **Spectacle and action** - Delivers exciting fight sequences, gadgets, and visual thrills
+- **Redemption and transformation** - Shows a flawed protagonist overcoming trauma and fear, fulfilling emotional needs for inspirational journeys
+- **Fresh reboot** - Revitalized a franchise after previous missteps, satisfying desires for quality superhero cinema
+The film successfully balanced intellectual depth with entertainment, meeting both cerebral and visceral audience needs.</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7355,6 +7903,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by *Before Sunrise*
+*Before Sunrise* fulfills viewers' desires for romantic escapism, intellectual connection, and nostalgia for meaningful human interaction. The film appeals to those seeking:
+- **Romantic idealism** - the fantasy of a spontaneous, deep connection with a stranger
+- **Philosophical stimulation** - thoughtful dialogue about life, love, death, and meaning
+- **Vicarious travel experience** - exploring Vienna through the characters' wandering journey
+- - **Authenticity in relationships** - genuine conversation without pretense or social media interference
+- **Hope and possibility** - the belief that transformative encounters can happen unexpectedly
+- **Bittersweet emotion** - the melancholic beauty of fleeting moments and temporary connections
+The film satisfies audiences craving substance over spectacle, offering an intimate portrait of two people truly seeing and hearing each other.</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7455,6 +8016,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires/Needs "Bel Ami" Meets
+**Bel Ami** (2012) appeals to viewers seeking:
+- **Escapist period drama** - lavish 1890s Parisian settings and costumes
+- **Sexual tension and romance** - explicit scenes and multiple seduction storylines
+- **Social climbing narrative** - the vicarious thrill of watching an ambitious outsider manipulate his way to power
+- **Moral complexity** - exploration of using sexuality and charm as weapons, appealing to those interested in antiheroes
+- **Star power** - features Robert Pattinson, Uma Thurman, Kristin Scott Thomas, and Christina Ricci
+- **Critique of high society** - satisfaction in seeing wealthy elites exposed as corrupt and hypocritical
+- **Wish fulfillment** - the fantasy of beauty and charm opening all doors
+The film serves audiences interested in prestige literary adaptations (based on Maupassant's novel) with an edge of scandal and eroticism.</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7559,6 +8134,22 @@
           <t>2026-02-04</t>
         </is>
       </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Belladonna of Sadness
+**Belladonna of Sadness** appeals to viewers seeking:
+- **Artistic innovation** through its unique watercolor animation style and experimental visual storytelling
+- **Transgressive content** that challenges social and sexual taboos
+- **Feminist narratives** exploring female agency, oppression, and empowerment
+- **Psychological depth** in its portrayal of trauma, revenge, and transformation
+- **Psychedelic/countercultural aesthetics** with surreal, dreamlike imagery
+- **Historical critique** examining patriarchy, religious hypocrisy, and class oppression in medieval society
+- **Cult film experiences** offering something deliberately outside mainstream cinema
+- **Erotic art** that blends sexuality with high artistic ambition
+- **Emotional catharsis** through its dark, operatic treatment of suffering and liberation
+The film satisfies audiences looking for challenging, visually stunning cinema that combines exploitation elements with serious artistic and political commentary.</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7667,6 +8258,11 @@
           <t>2026-02-26</t>
         </is>
       </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>"Birth" meets viewers' desires for psychological complexity, unsettling ambiguity, and challenging emotional territory. The film appeals to audiences seeking thought-provoking cinema that explores grief, obsession, and the irrational aspects of human psychology. It satisfies those interested in atmospheric storytelling, controversial subject matter handled with artistic restraint, and performances that convey deep internal conflict. The film also attracts viewers who appreciate slow-burn narratives that prioritize mood and discomfort over conventional resolution.</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7775,6 +8371,11 @@
           <t>2026-02-20</t>
         </is>
       </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>"Birth" meets viewer desires for psychological complexity, atmospheric tension, and ambiguous storytelling. The film appeals to those seeking mature explorations of grief, obsession, and the irrational aspects of love, while satisfying audiences who appreciate slow-burn cinema, Nicole Kidman's nuanced performance, and narratives that resist easy explanations. It fulfills the need for thought-provoking, emotionally unsettling cinema that lingers in the mind rather than providing conventional resolutions.</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7883,6 +8484,12 @@
           <t>2026-02-11</t>
         </is>
       </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t># Summary
+*Bitter Rice* (1949) met post-war Italian audiences' desires for social realism by depicting the harsh working conditions of female rice workers, while simultaneously satisfying the demand for sensuality and escapism through Silvana Mangano's glamorous performance. The film balanced neorealist authenticity with melodramatic romance and spectacle, appealing to viewers seeking both serious social commentary and entertaining genre elements like crime thriller dynamics. It also tapped into fascination with strong, complex female characters and the exotic world of Italy's rice fields.</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7983,6 +8590,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t># Black Coal, Thin Ice: Viewer Desires and Needs Met
+**Black Coal, Thin Ice** satisfies viewers seeking:
+- **Atmospheric noir experience**: The film delivers a moody, visually striking neo-noir set in industrial China with snow-laden landscapes that create haunting ambiance
+- **Complex mystery**: A fragmented, puzzle-like narrative rewards active viewers who enjoy piecing together clues about serial murders
+- **Character-driven drama**: The protagonist's psychological unraveling and redemption arc provides emotional depth beyond typical crime thrillers
+- **Cultural specificity**: Offers insight into contemporary Chinese society, working-class struggles, and post-industrial decay rarely depicted in mainstream cinema
+- **Art-house aesthetics**: Appeals to cinephiles appreciating slow-burn pacing, symbolic imagery, and unconventional storytelling that prioritizes mood over action
+- **Moral ambiguity**: Explores gray areas of justice, obsession, and human nature without clear-cut resolutions
+The film particularly resonates with viewers who value cerebral, melancholic crime dramas emphasizing atmosphere and psychological complexity over conventional thriller mechanics.</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8091,6 +8711,13 @@
           <t>2026-02-19</t>
         </is>
       </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by Black Orpheus
+**Black Orpheus** (1959) satisfies several key viewer desires:
+**Escapism and Exotic Beauty**: The film offers viewers a vibrant immersion into Rio de Janeiro's Carnival, with stunning cinematography showcasing colorful costumes, lush landscapes, and energetic samba music. **Romantic Tragedy**: It fulfills the desire for passionate, tragic love stories by retelling the Greek myth of Orpheus and Eurydice in a modern setting, appealing to those who enjoy emotional, fated romances. **Cultural Discovery**: Viewers experience Afro-Brazilian culture, music, and traditions, satisfying curiosity about different ways of life and expanding cultural horizons. **Musical Pleasure**: The bossa nova soundtrack by Luiz Bonfá and Antonio Carlos Jobim provides auditory delight and helped popularize Brazilian music internationally. **Universal Themes**: The film addresses timeless human concerns—love, death, fate, and loss—allowing viewers to connect emotionally with profound existential questions through an accessible narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8199,6 +8826,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t># Black Panther: Viewer Desires and Needs Met
+**Black Panther** satisfies multiple viewer desires:
+**Representation and Identity**: Provides meaningful representation for Black audiences through a predominantly Black cast, Afrofuturistic vision, and celebration of African culture and heritage. **Escapism and Spectacle**: Delivers blockbuster entertainment with stunning visuals, advanced technology, dynamic action sequences, and imaginative world-building in Wakanda. **Social Relevance**: Addresses themes of identity, responsibility, colonialism, and global inequality, offering commentary on contemporary social issues. **Empowerment**: Features strong, complex characters (especially women) and portrays African excellence, challenging stereotypes and inspiring pride. **Quality Storytelling**: Provides a compelling narrative with a charismatic villain (Killmonger), moral complexity, and emotional depth beyond typical superhero fare. **Cultural Connection**: Appeals to desire for authentic cultural expression while being accessible to mainstream audiences, creating shared cultural moments and conversation.</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8307,6 +8941,18 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t># Black Panther: Viewer Needs Met
+**Black Panther** satisfies multiple viewer desires:
+- **Representation**: Provides powerful Black superhero representation and celebrates African culture, fulfilling a long-standing need for diversity in mainstream superhero films
+- **Escapism and spectacle**: Delivers stunning visuals, action sequences, and the imaginative world of Wakanda
+- **Cultural pride**: Offers Afrocentric storytelling that resonates with Black audiences while educating others about African aesthetics and traditions
+- **Social commentary**: Addresses themes of identity, colonialism, responsibility, and isolationism vs. intervention in meaningful ways
+- **Quality entertainment**: Combines strong performances, compelling characters (especially the complex villain Killmonger), humor, and emotional depth within the popular MCU framework
+- **Empowerment**: Inspires viewers, particularly Black children, by presenting heroes who look like them in positions of power, intelligence, and nobility</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8403,6 +9049,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by "Blow-Up"
+**Blow-Up** (1966) satisfies viewers' desires for:
+- **Mystery and intrigue** - the puzzle of whether a murder was captured on film
+- **Visual stimulation** - stunning cinematography, mod 1960s London fashion, and artistic composition
+- **Intellectual engagement** - philosophical questions about reality, truth, and perception
+- **Voyeuristic pleasure** - themes of watching, surveillance, and uncovering hidden truths
+- **Cultural zeitgeist** - capturing swinging '60s London lifestyle and youth culture
+- **Ambiguity and interpretation** - an open-ended narrative that invites discussion and personal meaning-making
+- **Aesthetic appreciation** - Antonioni's distinctive directorial style and art-film sensibility
+The film appeals particularly to viewers seeking sophisticated, thought-provoking cinema rather than conventional narrative resolution.</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8511,6 +9171,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>"Blue Moon" typically refers to a 2000 romantic drama that meets viewer desires for emotional connection and nostalgic romance. The film appeals to audiences seeking heartfelt storytelling about love, longing, and second chances, often providing an escape into a bittersweet romantic narrative. It satisfies needs for emotional catharsis and the exploration of complex relationships, while offering a contemplative, mood-driven viewing experience for those who enjoy character-focused indie dramas.</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8619,6 +9284,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film called "Blue Moon" to provide an accurate summary of what viewer desires or needs it meets. There have been multiple films with this title across different years and genres. Without knowing which specific "Blue Moon" film you're referring to, I cannot reliably describe what audience needs it fulfills.</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8727,6 +9397,21 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t># Blue Velvet: Viewer Desires and Needs Met
+**Blue Velvet** satisfies viewers' desires for:
+- **Transgressive exploration** - safely experiencing taboo content and the dark underbelly of suburban America
+- **Psychological complexity** - engaging with morally ambiguous characters and Freudian themes
+- **Aesthetic pleasure** - enjoying David Lynch's distinctive visual style and unsettling beauty
+- **Mystery and suspense** - following a noir-influenced investigation that keeps audiences engaged
+- **Intellectual stimulation** - decoding symbolism and exploring themes of duality, innocence vs. corruption
+- **Emotional intensity** - experiencing disturbing, visceral performances (particularly Dennis Hopper's)
+- **Subversion of norms** - witnessing a critique of 1950s American idealism and surface-level normalcy
+- **Artistic credibility** - consuming "elevated" cinema that challenges conventional filmmaking
+The film appeals to those seeking provocative, art-house cinema that pushes boundaries while maintaining narrative coherence.</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8835,6 +9520,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t># Blue Velvet: Viewer Desires and Needs Met
+**Blue Velvet** satisfies several key viewer desires:
+1. **Transgressive thrills** - The film offers forbidden glimpses into sexual deviance and violence, providing vicarious engagement with taboo subjects from a safe distance. 2. **Mystery and suspense** - The noir-style investigation gives viewers the pleasure of puzzle-solving and gradual revelation. 3. **Aesthetic experience** - Lynch's striking visual style, surreal imagery, and haunting soundtrack create a unique sensory experience that appeals to art cinema audiences. 4. **Psychological exploration** - The film explores the darkness beneath suburban normalcy, satisfying curiosity about hidden human nature and the coexistence of good and evil. 5. **Subversive critique** - It provides viewers seeking alternatives to mainstream cinema with a disturbing deconstruction of American innocence and 1950s nostalgia. The film ultimately meets the need for cinema that challenges, disturbs, and provokes while still delivering entertainment through genre conventions.</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -8943,6 +9635,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t># Summary
+**Bodies Bodies Bodies** meets viewer desires for:
+- **Dark comedy and satire** - Sharp commentary on Gen Z culture, performative activism, and social media behavior
+- **Mystery/thriller tension** - Whodunit structure keeps audiences guessing throughout
+- **Social commentary** - Exploration of privilege, toxic relationships, and generational anxieties
+- **Ensemble cast appeal** - Young, trendy actors (Amandla Stenberg, Pete Davidson, Rachel Sennott) attract target demographics
+- **Subversion of genre expectations** - Twist ending that undercuts traditional slasher conventions
+- **Relatable group dynamics** - Examines friendship betrayals, insecurities, and performative wokeness that resonate with younger audiences
+- **Dark humor catharsis** - Allows viewers to laugh at and critique contemporary social behaviors through an absurdist lens</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9051,6 +9756,19 @@
           <t>2026-02-08</t>
         </is>
       </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t># Summary: Body Double's Appeal to Viewer Desires
+**Body Double** (1984) satisfies viewers through:
+1. **Voyeuristic thrills** - The film indulges the desire to watch forbidden scenes through its protagonist's telescope surveillance subplot
+2. **Sexual titillation** - Extended erotic sequences and provocative imagery appeal to prurient interests
+3. **Hitchcockian suspense** - Delivers the pleasure of mystery, conspiracy, and puzzle-solving borrowed from films like *Rear Window* and *Vertigo*
+4. **Visual spectacle** - De Palma's elaborate camera work and stylized sequences provide pure cinematic pleasure
+5. **Genre satisfaction** - Fulfills expectations of the erotic thriller with twists, danger, and psychological complexity
+6. **Transgressive fantasy** - Allows viewers to safely explore taboo desires around watching, obsession, and sexuality from a comfortable distance
+The film essentially meets needs for excitement, arousal, intellectual engagement with mystery, and stylish filmmaking while maintaining the safety of fictional distance.</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9155,6 +9873,11 @@
           <t>2026-02-25</t>
         </is>
       </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film called "Brand X" in my knowledge base. There are several works with this title across different time periods, so without knowing which specific film you're referring to, I cannot accurately describe what viewer desires or needs it meets. If you could provide the year or additional context about which "Brand X" you mean, I could offer a more helpful response.</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9259,6 +9982,18 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by *Breakfast at Tiffany's*
+The film satisfies viewers' desires for:
+**Escapism and glamour** - Through Holly Golightly's stylish lifestyle, iconic fashion, and romantic New York setting
+**Romance and connection** - The love story between two flawed individuals seeking belonging
+**Aspiration and transformation** - Holly's journey from small-town girl to sophisticated urbanite resonates with dreams of reinvention
+**Emotional catharsis** - The bittersweet exploration of loneliness, vulnerability, and ultimately choosing love over fear
+**Aesthetic pleasure** - Audrey Hepburn's iconic performance, memorable imagery, and Henry Mancini's "Moon River"
+**Relatability** - Characters struggling with identity, independence, and the tension between self-preservation and intimacy</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9367,6 +10102,13 @@
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t># Summary: How Breaking the Waves Meets Viewer Desires
+**Breaking the Waves** fulfills several deep viewer needs:
+**Emotional catharsis** - The film provides an intense emotional experience through Bess's extreme suffering and sacrifice, allowing viewers to process complex feelings about love, pain, and devotion. **Moral and philosophical exploration** - It satisfies intellectual curiosity about faith, sacrifice, and the limits of love, prompting viewers to question conventional morality and religious doctrine. **Aesthetic experience** - Lars von Trier's distinctive visual style (handheld camera, chapter structure, painterly transitions) appeals to viewers seeking artistically ambitious cinema. **Transgressive storytelling** - The film meets desires for boundary-pushing narratives that challenge social norms around sexuality, religion, and female agency. **Spiritual contemplation** - It engages viewers interested in exploring questions about divine grace, miracles, and the nature of genuine faith versus institutional religion. **Empathy and connection** - Emily Watson's raw performance allows viewers to deeply connect with a character's inner life, satisfying the need for authentic human portrayal.</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9475,6 +10217,21 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Bronson
+**Bronson** (2008) satisfies viewers seeking:
+- **Visceral entertainment** through stylized violence and unpredictable behavior
+- **Character study fascination** with exploring an extreme, enigmatic personality
+- **Artistic filmmaking** featuring bold visual style, breaking of fourth wall, and operatic sequences
+- **True crime intrigue** based on Britain's "most violent prisoner" Michael Peterson/Charles Bronson
+- **Tom Hardy performance** showcasing raw, transformative acting before his mainstream fame
+- **Dark humor** mixing brutality with absurdist comedy
+- **Rebellion/anti-authority fantasy** through a protagonist who refuses to conform to any system
+- **Psychological exploration** of fame-seeking, identity construction, and madness
+The film appeals to audiences wanting provocative, aesthetically ambitious cinema rather than conventional biographical drama.</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -9575,6 +10332,11 @@
           <t>2026-02-20</t>
         </is>
       </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Bumpkin Soup" in my knowledge base. This title doesn't appear to be a widely known or documented film, so I cannot provide details about what viewer desires or needs it might meet.</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -9671,6 +10433,11 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>"By the Time It Gets Dark" meets viewers' desires for contemplative, experimental cinema that challenges conventional narrative structures. The film appeals to audiences seeking intellectual engagement with themes of memory, political trauma, and the fluidity of time, particularly regarding Thailand's 1976 Thammasat University massacre. It satisfies art-house cinema enthusiasts who appreciate non-linear storytelling, lyrical visuals, and films that blur boundaries between documentary and fiction while exploring how historical violence is remembered and represented across generations.</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -9767,6 +10534,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>I don't have reliable information about a film titled "Bye Bye, Red Riding Hood" to provide an accurate summary of what viewer desires or needs it meets. This could be a lesser-known or regional film, or possibly known by an alternate title. Without access to specific details about this film's content, themes, and reception, I cannot meaningfully describe what it offers viewers.</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -9871,6 +10643,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by CURE
+**CURE** (1997) satisfies viewers seeking:
+- **Psychological complexity** - A cerebral mystery that challenges interpretation rather than providing easy answers
+- **Atmospheric dread** - Slow-burn tension and unsettling ambiguity over jump scares
+- **Intellectual engagement** - Exploration of identity, memory, hypnotic suggestion, and the nature of evil
+- **Artistic filmmaking** - Minimalist style, deliberate pacing, and visual storytelling that respects audience intelligence
+- **Ambiguity and discussion** - An open-ended narrative that invites interpretation and post-viewing analysis
+- **Departure from convention** - A detective story that subverts genre expectations and resists closure
+- **Existential unease** - Themes of corrupted will, loss of self, and the fragility of social order that linger after viewing</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -9975,6 +10760,19 @@
           <t>2026-02-08</t>
         </is>
       </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t># Short Summary: What Viewer Desires CURE Meets
+**CURE** (1997) satisfies viewers seeking:
+1. **Intellectual stimulation** - Complex psychological mystery that resists easy answers and rewards careful attention
+2. **Atmospheric dread** - Slow-burn tension and unsettling mood rather than jump scares
+3. **Ambiguity and interpretation** - Open-ended narrative that invites discussion and multiple viewings
+4. **Artistic horror** - Elevated genre filmmaking with philosophical depth about identity, suggestion, and societal breakdown
+5. **Unconventional storytelling** - Non-linear elements and a protagonist's descent that challenges typical detective narratives
+6. **Existential unease** - Exploration of how fragile human agency and morality truly are
+The film appeals to audiences who prefer cerebral, meditative horror over conventional thrills.</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10083,6 +10881,13 @@
           <t>2026-02-06</t>
         </is>
       </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires/Needs Met by *Caché*
+Michael Haneke's *Caché* satisfies viewers seeking:
+**Intellectual engagement** - The film presents a complex moral puzzle about guilt, surveillance, and complicity that rewards analytical thinking and interpretation. **Ambiguity and mystery** - It appeals to audiences who enjoy unresolved questions and resist conventional narrative closure, including the mystery of who sent the tapes. **Social commentary** - The film addresses colonialism, racism, and France's suppressed history with Algeria, satisfying those interested in political critique. **Cinematic artistry** - Static long takes and deliberate pacing attract viewers who appreciate auteur filmmaking and formal experimentation. **Psychological tension** - The surveillance thriller elements create discomfort and paranoia that engage viewers emotionally.</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10171,6 +10976,11 @@
           <t>2026-02-05</t>
         </is>
       </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>"Call Me Madam" (1953) meets viewers' desires for escapist entertainment through lavish musical numbers, glamorous costumes, and Ethel Merman's charismatic performance. The film satisfies needs for lighthearted comedy, romantic storylines, patriotic sentiment during the Cold War era, and the spectacle of Technicolor Hollywood musicals at their peak. It offers wish fulfillment through its rags-to-riches story of a Washington hostess becoming an ambassador, while providing feel-good optimism about American diplomacy and international relations.</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -10279,6 +11089,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Candyman
+**Candyman** satisfies several key viewer needs:
+- **Thrill and fear**: Provides visceral scares and suspenseful horror through its supernatural slasher elements
+- **Social commentary**: Addresses racial injustice, urban decay, and systemic inequality, offering intellectual engagement
+- **Forbidden fascination**: Explores taboo themes of violence, urban legends, and the dangerous allure of the supernatural
+- **Atmospheric immersion**: Delivers gothic, haunting visuals and Philip Glass's hypnotic score for aesthetic pleasure
+- **Empowerment through knowledge**: Allows viewers to safely confront fears about class divides and racial tensions from a distance
+- **Myth and legend**: Taps into the human attraction to folklore and the power of storytelling itself
+The film uniquely blends art-house sensibilities with horror conventions, appealing to viewers seeking both entertainment and substance.</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -10367,6 +11190,11 @@
           <t>2026-02-28</t>
         </is>
       </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>The film "Carlos" meets viewers' desires for epic biographical drama, political intrigue, and historical insight into international terrorism during the Cold War era. It appeals to audiences interested in complex anti-hero characters, 1970s-80s revolutionary movements, globetrotting espionage narratives, and morally ambiguous portrayals of real-life figures. The film satisfies those seeking lengthy, immersive storytelling that explores the psychology of radicalism and the geopolitical tensions of its era.</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -10475,6 +11303,18 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by "Caught" (1949)
+The film noir "Caught" satisfies viewer desires for:
+**Psychological drama and emotional depth** - exploring a woman's disillusionment with wealth and her search for authentic love and purpose
+**Social commentary** - critiquing materialism, class divides, and the hollow promise of marrying for money
+**Romantic tension** - providing a love triangle between an idealistic poor doctor, a naive model, and a tyrannical millionaire
+**Female protagonist journey** - following a woman's awakening and moral choices as she escapes an abusive marriage
+**Noir aesthetics** - delivering atmospheric cinematography, shadowy visuals, and themes of entrapment that genre fans expect
+**Moral resolution** - offering catharsis through the protagonist's ultimate choice of genuine love over superficial wealth</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -10575,6 +11415,11 @@
           <t>2026-02-19</t>
         </is>
       </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "City Wide Fever" in my knowledge base. This title doesn't match any well-known film I'm aware of. It's possible this is a very obscure, regional, or independent film, or the title may be slightly different than what I have records of. Without access to information about this specific film, I cannot provide a summary of what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -10683,6 +11528,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>"City on Fire" (1987) meets viewers' desires for intense action and crime drama through its gritty portrayal of an undercover cop infiltrating a criminal gang. The film satisfies audiences seeking stylish gunfights, moral ambiguity, themes of loyalty and betrayal, and the psychological tension of living a double life. Its iconic Mexican standoff finale delivers the visceral thrills and dramatic payoff that action and noir fans crave.</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -10791,6 +11641,19 @@
           <t>2026-02-06</t>
         </is>
       </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t># Viewer Desires/Needs Met by Close Encounters of the Third Kind
+**Close Encounters of the Third Kind** fulfills viewers' desires for:
+- **Wonder and transcendence** - The film taps into a yearning for something greater than everyday life, offering spiritual/mystical experience through alien contact
+- **Escapism** - Provides relief from mundane reality through spectacular visual effects and an extraordinary narrative
+- **Hope and optimism** - Presents benevolent aliens rather than threatening ones, offering a positive vision of humanity's place in the universe
+- **Curiosity about the unknown** - Satisfies fascination with extraterrestrial life and cosmic mysteries
+- **Emotional catharsis** - The protagonist's obsessive journey resonates with feelings of being misunderstood and the need to pursue one's calling
+- **Spectacle and awe** - Delivers stunning visual and audio experiences that create a sense of the sublime
+- **Meaning and purpose** - Suggests humanity has significance in a larger cosmic context, addressing existential needs</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -10899,6 +11762,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t># Cocaine Bear Viewer Appeal
+**Cocaine Bear** meets viewers' desires for:
+1. **Escapist entertainment** - Absurd, over-the-top premise provides pure fun without demanding emotional investment
+2. **Dark comedy and camp value** - Appeals to audiences who enjoy self-aware B-movie aesthetics and deliberately ridiculous scenarios
+3. **Visceral thrills** - Delivers gore, action, and creature-feature violence for horror-comedy fans
+4. **Social viewing experience** - Provides a "so bad it's good" quality perfect for group watching and meme culture
+5. **Nostalgia** - Evokes 1980s setting and classic animal-attack films while subverting expectations
+6. **Curiosity about the bizarre** - Based on a true story headline that's inherently attention-grabbing
+The film essentially satisfies the need for unpretentious, spectacle-driven entertainment that doesn't take itself seriously.</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -11005,6 +11881,19 @@
       <c r="V103" t="inlineStr">
         <is>
           <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by Cold Sweat
+**Cold Sweat** (1970) satisfies viewers seeking:
+- **Action-packed entertainment** with chase sequences, fights, and suspense
+- **Revenge narrative satisfaction** following a wronged protagonist seeking justice
+- **Charles Bronson's tough-guy persona** appealing to fans of masculine action heroes
+- **Exotic locations** (French Riviera) providing escapist visual appeal
+- **1970s thriller conventions** including crime drama, betrayal, and moral ambiguity
+- **Straightforward plot** offering uncomplicated viewing without demanding deep analysis
+The film primarily meets the need for formulaic action entertainment with a recognizable star in a familiar revenge framework.</t>
         </is>
       </c>
     </row>
@@ -11095,6 +11984,12 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t># Summary
+"Come and Go" meets viewers' desires for contemplative, minimalist cinema that explores themes of memory, friendship, and the passage of time. The film appeals to audiences who appreciate experimental or avant-garde storytelling, philosophical meditation on human connection and aging, and theatrical or dialogue-driven narratives. It satisfies those seeking intellectual stimulation through sparse, poetic language and abstract presentation rather than conventional plot-driven entertainment.</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -11203,6 +12098,17 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>"Coming Soon" (1999) is a teen sex comedy that appeals to viewers seeking raunchy humor and frank discussions about female sexuality and orgasm. The film meets desires for:
+- Lighthearted entertainment about taboo sexual topics, specifically female sexual pleasure
+- Relatable coming-of-age experiences about sexual discovery
+- Comedy centered on young women's perspectives rather than the typical male-focused teen sex comedy
+- Escapist fun with irreverent humor about dating and relationships
+- Representation of female friendship and honest conversations about sex
+The film caters to audiences looking for a more female-centric take on the raunchy comedy genre popular in the late 1990s.</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -11307,6 +12213,12 @@
           <t>2026-02-24</t>
         </is>
       </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t># Summary
+*Compensation* (1999) meets viewers' desires for representation of deaf culture and the deaf experience through authentic storytelling. The film satisfies needs for romantic drama that transcends communication barriers, historical perspective on disability and marginalization, and visually poetic silent-film aesthetics. It appeals to audiences seeking artistic, independent cinema that explores themes of love, loss, perseverance, and human connection across different eras, while providing both deaf and hearing viewers with a narrative rarely centered in mainstream film.</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -11411,6 +12323,11 @@
           <t>2026-02-21</t>
         </is>
       </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>"Comrades" (1986), directed by Bill Douglas, meets the desires of viewers interested in historical labor movements by depicting the Tolpuddle Martyrs—six English agricultural laborers transported to Australia in 1834 for forming a trade union. The film appeals to audiences seeking authentic historical drama, social justice narratives, and stories about working-class struggle and solidarity. It satisfies desires for epic, visually striking cinema that explores themes of oppression, resistance, and the fight for workers' rights, while also appealing to those interested in British history and the origins of organized labor movements.</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -11507,6 +12424,11 @@
           <t>2026-02-10</t>
         </is>
       </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Conrad &amp; Crab – Idiotic Gems" in my knowledge base. This appears to be either a very obscure film, a recent release after my training data, or possibly a title that doesn't exist. Without access to information about this specific film, I cannot provide a summary of what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -11613,6 +12535,19 @@
       <c r="V109" t="inlineStr">
         <is>
           <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t># Summary
+**Conversation Piece** meets viewer desires for:
+- **Intellectual stimulation** through philosophical dialogue about class, politics, aging, and cultural decay
+- **Visual aesthetics** via Visconti's meticulous attention to art, interiors, and classical beauty
+- **Psychological complexity** in exploring loneliness, mortality, and intergenerational conflict
+- **Social commentary** examining the clash between old aristocratic values and 1970s societal upheaval
+- **Emotional depth** through the professor's journey from isolation to reluctant human connection
+- **Nostalgia** for European high culture and a disappearing way of life
+- **Character study** of Burt Lancaster's nuanced performance as a reclusive intellectual confronting his own obsolescence</t>
         </is>
       </c>
     </row>
@@ -11699,6 +12634,18 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t># Summary
+**Country's Family Reunion Tribute Series: The Whites &amp; Ricky Skaggs** meets viewer desires for:
+- **Nostalgia** - Celebrating classic country and bluegrass music from beloved artists
+- **Authentic storytelling** - Personal anecdotes and behind-the-scenes stories from the musicians themselves
+- **Musical excellence** - High-quality performances showcasing traditional country and bluegrass instrumentation
+- **Community connection** - The intimate, "family reunion" format creates a warm, inclusive atmosphere that makes viewers feel part of the country music community
+- **Preservation of heritage** - Documenting and honoring the legacy of influential artists in country and bluegrass music
+- **Wholesome entertainment** - Family-friendly content appealing to fans seeking traditional values and clean programming</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -11807,6 +12754,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Creed III
+**Creed III** satisfies several key viewer desires:
+- **Underdog triumph and redemption** - Audiences root for both Adonis confronting his past and Damian seeking a second chance
+- **Intense sports action** - Delivers exciting, well-choreographed boxing sequences with high stakes
+- **Emotional depth** - Explores themes of guilt, friendship, family legacy, and masculinity beyond typical sports drama
+- **Character evolution** - Shows Adonis in a new phase as champion and mentor rather than challenger
+- **Nostalgia with freshness** - Honors the Rocky/Creed franchise while standing independently with Michael B. Jordan's directorial vision
+- **Representation** - Continues showcasing Black excellence in front of and behind the camera
+- **Relatable conflict** - The tension between past and present, success and loyalty resonates universally
+The film balances spectacle with substance, appealing to both franchise fans and general audiences seeking inspiring, emotionally engaging entertainment.</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -11915,6 +12876,12 @@
           <t>2026-02-05</t>
         </is>
       </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Crime 101"
+"Crime 101" appeals to viewers seeking entertainment through crime drama and suspense. It satisfies desires for puzzle-solving and intellectual engagement as audiences follow investigative plots. The film meets needs for moral clarity through justice narratives, offers escapism from daily life, and provides vicarious thrills through depictions of criminal activity and law enforcement without real-world consequences. It may also appeal to those interested in criminal psychology, procedural details, or cautionary tales about crime's consequences.</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -12019,6 +12986,12 @@
           <t>2026-02-17</t>
         </is>
       </c>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t># Summary
+*Daughters of the Dust* meets viewers' desires for authentic cultural representation, particularly of the Gullah Geechee community rarely seen in cinema. It satisfies needs for visually poetic storytelling that prioritizes atmosphere and imagery over conventional narrative, appeals to those seeking Black women's perspectives and intergenerational family stories, and fulfills interest in exploring themes of heritage, memory, and the tension between tradition and progress. The film also attracts viewers interested in independent cinema that challenges Hollywood conventions and those seeking spiritually resonant, meditative viewing experiences.</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -12127,6 +13100,13 @@
           <t>2026-02-25</t>
         </is>
       </c>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t># Summary
+*Days of Being Wild* meets viewers' desires for:
+**Emotional resonance** - The film explores universal themes of longing, rootlessness, and unfulfilled love that connect with audiences seeking deep emotional experiences. **Aesthetic pleasure** - Wong Kar-wai's lush cinematography, evocative color palette, and stylized visuals satisfy those who appreciate cinema as visual art. **Narrative complexity** - The fragmented, non-linear storytelling appeals to viewers who enjoy interpretive, meditative cinema over conventional plots. **Character psychology** - The film provides intimate portraits of alienated characters searching for identity and belonging, meeting needs for psychological depth. **Nostalgia and atmosphere** - The 1960s Hong Kong setting offers escapism and atmospheric immersion for viewers seeking transportive experiences. **Artistic cinema** - It fulfills the desire for auteur-driven filmmaking that prioritizes mood, memory, and existential themes over commercial conventions.</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -12231,6 +13211,18 @@
           <t>2026-02-13</t>
         </is>
       </c>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t># Dead Reckoning: Viewer Desires Met
+**Dead Reckoning** (1947) satisfies viewers seeking classic film noir entertainment through its dark mystery plot involving murder and conspiracy. The film meets desires for:
+- **Suspense and intrigue** - A complex murder investigation with twists and betrayals
+- **Romantic tension** - The dangerous attraction between Humphrey Bogart's character and a femme fatale
+- **Moral ambiguity** - Exploring themes of loyalty, deception, and compromised ethics
+- **Atmospheric escapism** - Shadowy cinematography and post-war cynicism characteristic of noir
+- **Star power** - Bogart's iconic tough-guy persona in a gritty detective role
+The film appeals to audiences wanting a moody, stylish thriller with a morally complicated hero navigating a web of lies.</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -12335,6 +13327,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W116" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Needs Met by Death by Hanging
+Ōshima's *Death by Hanging* satisfies viewers seeking:
+**Intellectual engagement** - The film challenges audiences with complex questions about identity, guilt, justice, and capital punishment through its experimental, Brechtian structure. **Political awareness** - It addresses Japanese discrimination against Koreans (Zainichi) and critiques state power, legal systems, and societal complicity in violence. **Aesthetic innovation** - The blend of dark comedy, absurdism, documentary-style narration, and theatrical performance appeals to those interested in avant-garde cinema. **Moral contemplation** - The film provokes reflection on collective responsibility, the ethics of execution, and whether punishment can ever be just when identity itself is uncertain. **Cathartic provocation** - Its deliberately uncomfortable tone and refusal of easy answers provides a confrontational experience for viewers wanting cinema that disturbs rather than comforts.</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -12443,6 +13442,18 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by "Decision to Leave"
+**Decision to Leave** satisfies viewers seeking:
+- **Sophisticated mystery and suspense** - A detective investigating a death becomes obsessed with the victim's enigmatic widow, creating layers of intrigue about guilt and innocence
+- **Visual artistry** - Park Chan-wook's stunning cinematography and innovative visual storytelling techniques offer aesthetic pleasure
+- **Emotional complexity** - The ambiguous, layered romance between detective and suspect provides nuanced psychological depth rather than simple answers
+- **Intellectual engagement** - The film rewards careful attention with its intricate plot twists, symbolism, and thematic exploration of obsession, surveillance, and loneliness
+- **Genre subversion** - Fans of neo-noir and unconventional love stories appreciate how it blends and transcends genre expectations
+- **Melancholic beauty** - The bittersweet, contemplative tone appeals to those who appreciate tragic, impossible romances and moral ambiguity</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -12539,6 +13550,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W118" t="inlineStr">
+        <is>
+          <t>I don't have information about a specific film called "Deepfaking Sam Altman" in my knowledge base. Without being able to verify this film exists or access details about its content, I cannot accurately describe what viewer desires or needs it might meet.</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -12643,6 +13659,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W119" t="inlineStr">
+        <is>
+          <t>"Def by Temptation" (1990) meets viewer desires for Black horror representation, blending religious themes with urban fantasy. It appeals to audiences seeking 1980s-90s hip-hop culture integrated into horror, featuring cameos from figures like Samuel L. Jackson and music personalities. The film satisfies cravings for campy, low-budget genre entertainment with erotic elements, while addressing moral struggles between temptation and faith. It also serves fans of writer-director-star James Bond III's vision of African American-centered supernatural storytelling during an era when such representation was rare in horror cinema.</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -12731,6 +13752,19 @@
           <t>2026-02-21</t>
         </is>
       </c>
+      <c r="W120" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by "Distant" (2002)
+Nuri Bilge Ceylan's film satisfies viewers seeking:
+**Artistic/intellectual engagement** - Contemplative pacing and minimal dialogue reward patient, attentive viewing
+**Authentic human observation** - Unflinching portrayal of loneliness, failed connections, and middle-class ennui
+**Visual sophistication** - Stunning cinematography of Istanbul's winter landscapes and intimate interior spaces
+**Emotional resonance through restraint** - Subtle performances convey complex feelings about isolation and alienation
+**Realism over entertainment** - Rejection of conventional narrative in favor of observing everyday mundanity
+**Cultural specificity** - Insight into contemporary Turkish urban life and generational divides
+The film appeals to arthouse audiences valuing mood, atmosphere, and psychological depth over plot-driven storytelling.</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -12827,6 +13861,18 @@
           <t>2026-02-08</t>
         </is>
       </c>
+      <c r="W121" t="inlineStr">
+        <is>
+          <t># Divided Heaven (1964) - Viewer Desires/Needs Met
+**Divided Heaven** meets viewers' desires for:
+- **Political/historical insight**: Understanding personal impacts of Cold War division and the Berlin Wall era
+- **Emotional drama**: A tragic love story testing personal relationships against political ideology
+- **Social commentary**: Examination of conflicting values between East and West Germany, capitalism vs. socialism
+- **Female perspective**: A woman's journey of self-discovery and choosing personal conviction over romantic love
+- **Artistic cinema**: Poetic filmmaking from East German DEFA studios offering an alternative to Hollywood conventions
+- **Moral complexity**: Nuanced portrayal of difficult choices without simple answers about loyalty, love, and ideology</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -12919,6 +13965,13 @@
           <t>2026-02-08</t>
         </is>
       </c>
+      <c r="W122" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by Downpour
+**Downpour** (1972), directed by Bahram Beyzai, meets several viewer desires:
+1. **Authentic human drama** - The film offers a realistic portrayal of working-class life and personal struggle through its protagonist, a schoolteacher dealing with loneliness and social isolation. 2. **Cultural insight** - It provides a window into Iranian society, traditions, and daily life during the early 1970s. 3. **Psychological depth** - Viewers seeking character-driven narratives find satisfaction in the film's exploration of alienation, desire, and the search for connection. 4. **Artistic cinematography** - The film's poetic visual style and symbolic use of weather (rain) appeals to audiences appreciating cinematic artistry. 5. **Emotional resonance** - The universal themes of loneliness, social barriers, and unrequited longing create emotional connection regardless of cultural background. 6. **Social commentary** - It satisfies viewers interested in films that examine class divisions, gender relations, and societal constraints without heavy-handed messaging.</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -13019,6 +14072,19 @@
           <t>2026-02-08</t>
         </is>
       </c>
+      <c r="W123" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires *Downtown '81* Meets
+*Downtown '81* fulfills viewers' desires for:
+1. **Nostalgia and cultural documentation** - Capturing the raw energy of early 1980s New York City's downtown art and music scene before gentrification
+2. **Authenticity and insider access** - Providing an unfiltered glimpse into the punk, new wave, and hip-hop underground through real artists and musicians of the era
+3. **Musical discovery** - Featuring performances by influential acts like James White and the Blacks, Kid Creole, and DNA in their prime
+4. **Star fascination** - Showcasing Jean-Michel Basquiat before his fame, offering intimate access to the artist as a charismatic personality
+5. **Countercultural identification** - Celebrating bohemian artist life, creative struggle, and rejection of mainstream values
+6. **Visual aesthetics** - Delivering gritty, stylized urban imagery that romanticizes the dangerous-but-vibrant downtown Manhattan lifestyle
+7. **Historical preservation** - Documenting a vanished cultural moment and neighborhood atmosphere that can never be recre</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -13119,6 +14185,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W124" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires Dreams Fulfills
+Akira Kurosawa's *Dreams* (1990) meets viewers' desires for:
+**Visual and Artistic Beauty** - The film offers stunning, painterly imagery that appeals to those seeking aesthetic pleasure and cinematic artistry. **Philosophical Reflection** - It satisfies the need for contemplation about life, death, nature, and humanity's relationship with the environment. **Emotional Catharsis** - Through its dreamlike vignettes exploring guilt, loss, and redemption, it provides emotional resonance and processing. **Escapism and Wonder** - The surreal, fantastical elements transport viewers beyond everyday reality into imaginative spaces. **Cultural Insight** - It offers glimpses into Japanese folklore, tradition, and post-war consciousness for those seeking cultural understanding. **Environmental Consciousness** - The film speaks to concerns about nuclear disaster, environmental destruction, and modern alienation from nature. **Spiritual/Existential Exploration** - It addresses universal questions about meaning, mortality, and human purpose without requiring specific religious beliefs.</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -13223,6 +14296,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W125" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Drunken Noodles" in my knowledge base. This title might refer to a lesser-known independent film, a short film, or possibly a confusion with the popular Thai dish "drunken noodles" (pad kee mao). Without access to details about this specific film, I cannot provide a summary of what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -13331,6 +14409,12 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W126" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Dune
+**Dune** satisfies viewers seeking epic visual spectacle and immersive world-building, offering stunning cinematography and grand sci-fi landscapes. It appeals to those desiring complex political intrigue and philosophical themes about power, destiny, and ecology. The film meets needs for prestige cinema with strong performances and serious tone, while providing adventure and heroic journey narratives. It also attracts fans of the source material wanting a faithful, ambitious adaptation, and those seeking escapism into a richly detailed fictional universe with mystical and action elements.</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -13437,6 +14521,20 @@
       <c r="V127" t="inlineStr">
         <is>
           <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="W127" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Dune
+**Dune** satisfies viewers seeking:
+- **Epic spectacle and visual grandeur** - Stunning cinematography, massive scale, and immersive world-building
+- **Complex storytelling** - Intricate political intrigue, prophecy, and multi-layered narrative
+- **Escapism** - Transport to a fully realized alien universe with unique cultures and ecosystems
+- **Intellectual engagement** - Themes of colonialism, ecology, religion, and power dynamics
+- **Emotional resonance** - Coming-of-age journey and personal transformation
+- **Prestigious filmmaking** - High-quality production with acclaimed director and cast
+- **Faithful adaptation** - For book fans, a respectful interpretation of beloved source material
+- **Cinematic experience** - A film designed for big-screen immersion with exceptional sound design and score</t>
         </is>
       </c>
     </row>
@@ -13531,6 +14629,11 @@
           <t>2026-02-27</t>
         </is>
       </c>
+      <c r="W128" t="inlineStr">
+        <is>
+          <t>The film *Earth* (likely referring to Deepa Mehta's 1998 film) meets viewers' desires for emotionally powerful historical drama, exploring the human cost of the 1947 Partition of India through a child's perspective. It satisfies needs for understanding complex political events through personal stories, witnessing themes of love, betrayal, and religious conflict, and experiencing visually rich, culturally authentic storytelling. The film appeals to those seeking thought-provoking cinema about identity, communal violence, and the loss of innocence during historical upheaval.</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -13631,6 +14734,19 @@
           <t>2026-02-28</t>
         </is>
       </c>
+      <c r="W129" t="inlineStr">
+        <is>
+          <t># Summary
+*Ecce Bombo* (1978) meets viewer desires for:
+- **Authentic representation** of youth disillusionment and aimlessness in 1970s Italy
+- **Nostalgic reflection** on the post-1968 generation's confusion and identity crisis
+- **Social commentary** on the gap between political ideals and everyday reality
+- **Relatable characters** struggling with family expectations, romantic relationships, and finding purpose
+- **Dark humor** that captures existential anxiety and the absurdity of modern life
+- **Cultural documentation** of a specific historical moment in Italian society
+The film resonates with audiences seeking honest portrayals of generational uncertainty and the mundane struggles of young adulthood.</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -13733,6 +14849,13 @@
       <c r="V130" t="inlineStr">
         <is>
           <t>2026-02-15</t>
+        </is>
+      </c>
+      <c r="W130" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by *El Sur*
+*El Sur* fulfills viewers' desires for:
+**Emotional depth and nostalgia** - The film captures the bittersweet nature of childhood memories and the longing to understand one's parents. **Visual beauty** - Erice's masterful cinematography and atmospheric compositions satisfy those seeking artistic, poetic cinema. **Mystery and ambiguity** - The enigmatic father figure and unexplored southern past appeal to viewers who appreciate subtle, contemplative storytelling over explicit answers. **Intimate character study** - It meets the need for psychologically complex portraits of family relationships, particularly father-daughter bonds. **Slow cinema appreciation** - The deliberate pacing rewards patient viewers seeking meditative, reflective filmmaking that contrasts with conventional narrative cinema.</t>
         </is>
       </c>
     </row>
@@ -13819,6 +14942,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W131" t="inlineStr">
+        <is>
+          <t>"Elles deux" (The Two of Them) meets viewer desires for intimate character studies and explorations of female friendship, loneliness, and human connection. The film appeals to audiences seeking nuanced portrayals of women's inner lives, slow-burn narratives focused on emotional authenticity rather than plot, and examinations of isolation in modern society. It satisfies those interested in French arthouse cinema's contemplative style and viewers drawn to stories about unexpected relationships that develop between people from different backgrounds or life stages.</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -13911,6 +15039,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W132" t="inlineStr">
+        <is>
+          <t>"Encore" meets viewers' desires for nostalgia, behind-the-scenes glimpses into theatrical performance, and celebration of artistic passion. The film appeals to those who appreciate stories about aging gracefully, second chances, and the transformative power of community through the arts. It satisfies needs for uplifting, feel-good content that honors seniors' vitality and creativity while showcasing the dedication required for musical theater production.</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -14015,6 +15148,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W133" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Escape"
+Without knowing which specific "Escape" film you're referring to (there are multiple films with this title), I can provide a general answer:
+Films titled "Escape" typically meet viewer desires for:
+- **Suspense and tension** through high-stakes survival or pursuit scenarios
+- **Vicarious thrills** of breaking free from captivity or dangerous situations
+- **Hope and resilience** through protagonists overcoming seemingly impossible odds
+- **Adventure and action** that provides escapism from everyday life
+- **Emotional catharsis** through the protagonist's struggle for freedom
+- **Justice or triumph** when characters overcome oppression or tyranny
+The specific needs met would depend on which version you're asking about (1940s war drama, 2012 Korean film, 2023 thriller, etc.).</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -14123,6 +15270,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W134" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Eternal Sunshine of the Spotless Mind
+The film satisfies several key viewer desires:
+**Emotional catharsis** - It explores universal experiences of heartbreak, loss, and the pain of failed relationships, allowing viewers to process their own romantic grief. **Intellectual stimulation** - The non-linear narrative and memory-manipulation premise engage viewers who enjoy complex, thought-provoking storytelling. **Philosophical reflection** - It addresses deep questions about memory, identity, and whether painful experiences are worth preserving, appealing to those seeking meaningful content. **Romantic hope** - Despite its melancholic tone, the film ultimately affirms love's value even when imperfect, satisfying the desire for bittersweet romance. **Aesthetic pleasure** - The creative visual representation of memories and dreamscapes provides unique cinematic artistry. **Recognition and validation** - Viewers see authentic relationship dynamics—including flaws and messy emotions—that validate their own complicated romantic experiences.</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -14223,6 +15377,11 @@
           <t>2026-02-08</t>
         </is>
       </c>
+      <c r="W135" t="inlineStr">
+        <is>
+          <t>"Everybody's Woman" (1934), directed by Max Ophüls, meets viewers' desires for romantic melodrama and escapist entertainment. The film satisfies interests in exploring themes of fame, identity, and the price of celebrity through the story of a film star navigating love and public life. It appeals to audiences drawn to glamorous settings, emotional conflicts between personal desires and public image, and the examination of a woman's agency in choosing between romance and career independence.</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -14331,6 +15490,21 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W136" t="inlineStr">
+        <is>
+          <t># Viewer Desires/Needs Met by Everything Everywhere All at Once
+**Everything Everywhere All at Once** satisfies multiple viewer desires:
+- **Escapism and spectacle** - Creative multiverse concepts and visually inventive action sequences
+- **Emotional catharsis** - Deep exploration of family relationships, generational trauma, and reconciliation
+- **Representation** - Asian-American family at the center with authentic cultural details
+- **Meaning and purpose** - Addresses existential questions about life's meaning in an overwhelming world
+- **Innovation** - Fresh take on familiar genres (sci-fi, martial arts, family drama)
+- **Humor and absurdity** - Provides relief from heavy themes through creative comedy
+- **Empowerment** - Celebrates ordinary people discovering extraordinary potential
+- **Connection** - Explores universal themes of parental expectations, identity, and acceptance that resonate across cultures
+The film uniquely blends entertainment with substance, offering both spectacular fun and genuine emotional depth.</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -14437,6 +15611,20 @@
       <c r="V137" t="inlineStr">
         <is>
           <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="W137" t="inlineStr">
+        <is>
+          <t># Evil Dead Rise: Viewer Desires Met
+**Evil Dead Rise** satisfies viewers seeking:
+- **Intense horror thrills** - Delivers graphic gore, body horror, and visceral scares
+- **Supernatural terror** - Features demonic possession and occult horror elements
+- **Adrenaline rush** - Provides relentless pacing with escalating tension and action
+- **Franchise nostalgia** - Continues the beloved Evil Dead legacy with familiar mythology
+- **Strong character dynamics** - Centers on family bonds tested under extreme circumstances
+- **Creative kills and practical effects** - Showcases inventive death sequences and makeup artistry
+- **Contained survival scenario** - Offers claustrophobic apartment setting horror
+- **Dark entertainment escapism** - Provides cathartic release through extreme horror spectacle</t>
         </is>
       </c>
     </row>
@@ -14529,6 +15717,20 @@
       <c r="V138" t="inlineStr">
         <is>
           <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="W138" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Exile"
+Without knowing which specific film titled "Exile" you're referring to (as there are multiple films with this title), I can provide a general response:
+Films titled "Exile" typically meet viewer desires for:
+- **Emotional exploration** of displacement, alienation, and identity struggles
+- **Character-driven narratives** focusing on personal transformation
+- **Social commentary** on immigration, belonging, or political persecution
+- **Dramatic tension** from characters navigating unfamiliar environments
+- **Intellectual engagement** with themes of home, memory, and cultural dislocation
+- **Empathy building** through intimate portrayals of marginalized experiences
+These films generally appeal to audiences seeking meaningful, reflective cinema that explores the human condition through the lens of separation and belonging.</t>
         </is>
       </c>
     </row>
@@ -14611,6 +15813,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W139" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by FLOW
+**FLOW** satisfies viewers' needs for:
+- **Visual escapism** through stunning, dialogue-free animation that immerses audiences in a beautifully rendered world
+- **Emotional connection** via the wordless journey of a cat and other animals, allowing universal understanding across languages and cultures
+- **Environmental reflection** by exploring themes of climate change and survival without didactic messaging
+- **Artistic appreciation** of unique animation style that stands apart from mainstream animated films
+- **Contemplative experience** offering a meditative, slower-paced alternative to typical high-energy entertainment
+- **Animal companionship themes** appealing to pet lovers and those drawn to animal protagonists
+- **Adventure and wonder** through an imaginative post-apocalyptic world that balances beauty with danger</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -14709,6 +15924,11 @@
       <c r="V140" t="inlineStr">
         <is>
           <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="W140" t="inlineStr">
+        <is>
+          <t>"Farewell China" (1990) meets viewer desires for understanding the immigrant experience, particularly the challenges faced by Chinese immigrants in America during the 1980s. The film addresses needs for social commentary on themes of cultural displacement, the dark side of the American Dream, identity crisis, exploitation of undocumented workers, and the psychological toll of separation and survival in a foreign land. It appeals to audiences seeking gritty realism and critical perspectives on immigration rather than romanticized narratives.</t>
         </is>
       </c>
     </row>
@@ -14803,6 +16023,11 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="W141" t="inlineStr">
+        <is>
+          <t>"Fast Company" (1979), directed by David Cronenberg, meets viewer desires for high-octane racing action, mechanical spectacle, and competitive drama. The film appeals to motorsports enthusiasts with authentic drag racing footage and technical detail, while satisfying those seeking stories about ambition, corporate exploitation, and personal integrity. It delivers adrenaline-fueled entertainment combined with themes of independence versus commercialization in professional racing.</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -14911,6 +16136,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W142" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Fast X
+**Fast X** satisfies audiences seeking:
+- **Spectacular action and stunts** - Over-the-top car chases, explosions, and physics-defying sequences
+- **Escapist entertainment** - High-energy thrills that provide distraction from everyday life
+- **Nostalgia and franchise continuation** - Reunion with beloved characters and continuation of a long-running story
+- **Family themes** - Focus on loyalty, chosen family, and protecting loved ones
+- **Star power** - Ensemble cast of charismatic actors including Vin Diesel and Jason Momoa
+- **Visual spectacle** - Globe-trotting locations and impressive CGI effects
+- **Simple good vs. evil narrative** - Clear heroes and villains in an accessible storyline</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -15011,6 +16249,11 @@
           <t>2026-02-21</t>
         </is>
       </c>
+      <c r="W143" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film called "Faster, Faster" in my knowledge base. There are several films with similar titles (like "Faster" from 2010), but without more details about the specific film you're referring to - such as the year, director, or context - I cannot accurately describe what viewer desires or needs it meets. If you could provide additional details about which "Faster, Faster" you mean, I'd be happy to help.</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -15113,6 +16356,12 @@
       <c r="V144" t="inlineStr">
         <is>
           <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="W144" t="inlineStr">
+        <is>
+          <t># Summary
+"Father Mother Sister Brother" (2024) is a Canadian documentary that meets viewers' desires for authentic family storytelling and emotional connection. The film explores complex family dynamics, generational relationships, and personal identity through an intimate lens. It appeals to audiences seeking reflective, character-driven narratives that examine universal themes of belonging, familial bonds, and self-discovery. The documentary satisfies viewers interested in observational cinema, real-life stories, and nuanced explorations of how family structures shape individual lives.</t>
         </is>
       </c>
     </row>
@@ -15195,6 +16444,11 @@
           <t>2026-02-18</t>
         </is>
       </c>
+      <c r="W145" t="inlineStr">
+        <is>
+          <t>Fellini's TV Advertisements satisfies viewers' curiosity about a master filmmaker's commercial work, offering insight into his creative process and artistic vision in a constrained format.</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -15275,6 +16529,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W146" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Fifty Two Short Films in a New York Minute." This doesn't appear to be a widely known or documented film. You may be thinking of a different title, or this could be an obscure or independent work that isn't well-documented in available sources.</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -15359,6 +16618,12 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W147" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Needs Met by "Filante"
+"Filante" (2022) meets viewers' desires for artistic, visually poetic cinema that explores themes of memory, loss, and human connection. The film appeals to audiences seeking contemplative, slow-paced narratives with strong aesthetic sensibilities rather than plot-driven entertainment. It satisfies needs for emotional introspection, atmospheric storytelling, and intimate character studies, particularly appealing to art-house cinema enthusiasts who appreciate minimalist dialogue and evocative imagery over conventional narrative structures.</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -15467,6 +16732,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W148" t="inlineStr">
+        <is>
+          <t>Final Destination meets viewer desires for controlled fear and suspense through its horror-thriller premise, satisfies curiosity about death and fate through its "cheating death" concept, provides visceral thrills through creative and elaborate death sequences, offers the comfort of pattern recognition as characters try to understand death's design, and delivers cathartic release through jump scares and tension. The film also appeals to audiences who enjoy puzzle-like narratives and the dark fascination with mortality while experiencing it from a safe distance.</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -15563,6 +16833,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W149" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Fire of Wind" in my knowledge base. This title doesn't match any widely known or documented film. It's possible this is a lesser-known independent film, a film with a slightly different title, or potentially a regional/international film that hasn't been widely documented. Without accurate information about this specific film, I cannot provide a reliable summary of what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -15661,6 +16936,19 @@
       <c r="V150" t="inlineStr">
         <is>
           <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="W150" t="inlineStr">
+        <is>
+          <t># First Squad: The Moment of Truth - Viewer Desires Met
+**First Squad: The Moment of Truth** appeals to viewers seeking:
+- **Historical war drama with supernatural elements** - combining WWII Eastern Front settings with occult mysticism and necromancy
+- **Anime aesthetics with mature themes** - offering a darker, adult-oriented animation style distinct from typical anime
+- **Alternative WWII narratives** - presenting the Soviet perspective on World War II, rarely depicted in Western media
+- **Action and horror fusion** - blending military combat with supernatural horror and occult warfare
+- **Psychological depth** - exploring themes of sacrifice, duty, and the psychological toll of war through psychic protagonist Nadya
+- **Unique cultural perspective** - satisfying curiosity about Russian/Soviet wartime mythology and folklore integrated into historical events
+The film serves niche audiences interested in experimental animation, historical fantasy, and cross-cultural perspectives on WWII.</t>
         </is>
       </c>
     </row>
@@ -15742,6 +17030,12 @@
           <t>2026-02-02</t>
         </is>
       </c>
+      <c r="W151" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires or Needs Does *Flowing* Meet? *Flowing* (1956), Mikio Naruse's film about women running a geisha house in postwar Japan, meets viewers' desires for:
+**Emotional authenticity** - The film offers quiet, observational drama about ordinary women facing economic hardship and social change with dignity. **Female perspectives** - It centers multiple complex women characters, showing their relationships, struggles, and resilience without male-dominated narratives. **Cultural insight** - Viewers gain understanding of geisha culture and the transition of traditional Japanese society in the postwar era. **Understated artistry** - The film satisfies appreciation for subtle, restrained filmmaking that trusts audiences to observe and feel rather than being told what to think. **Humanistic storytelling** - It meets needs for compassionate cinema that finds meaning in everyday life and the perseverance of people facing uncertainty.</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -15826,6 +17120,12 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W152" t="inlineStr">
+        <is>
+          <t># Summary
+**For Your Consideration** meets viewers' desires for satirical commentary on Hollywood's awards season culture and the entertainment industry's superficiality. The film appeals to those who enjoy mockumentary-style humor, insider perspectives on filmmaking, and Christopher Guest's ensemble comedy approach. It satisfies audiences seeking critique of media hype, vanity, and the desperation for validation in show business, while also providing observational comedy about how awards buzz can corrupt artistic integrity and transform people's behavior.</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -15928,6 +17228,19 @@
       <c r="V153" t="inlineStr">
         <is>
           <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="W153" t="inlineStr">
+        <is>
+          <t># Summary
+**Freak Orlando** (1981), directed by Ulrike Ottinger, meets the desires of viewers seeking:
+- **Experimental/avant-garde cinema** with non-traditional narrative structure
+- **Queer and feminist perspectives** that challenge conventional gender and sexuality representations
+- **Visual spectacle** through theatrical costumes, elaborate set designs, and carnivalesque imagery
+- **Political critique** of power structures, fascism, and social marginalization
+- **Intellectual engagement** with literary references (loosely based on Virginia Woolf's "Orlando")
+- **Countercultural aesthetics** that reject mainstream filmmaking conventions
+The film appeals to art-house audiences interested in provocative, politically charged cinema that prioritizes style, symbolism, and social commentary over conventional storytelling.</t>
         </is>
       </c>
     </row>
@@ -16010,6 +17323,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="W154" t="inlineStr">
+        <is>
+          <t>I don't have specific information about "Fuji Family New Year Special 2017" in my knowledge base. Without details about this particular program, I cannot accurately identify what viewer desires or needs it met.</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -16118,6 +17436,20 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="W155" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by "Fun with Dick and Jane"
+The film satisfies viewers' desires for:
+1. **Escapist comedy** - Light entertainment that provides relief from real-world concerns
+2. **Wish fulfillment** - Watching the wealthy and powerful get their comeuppance
+3. **Economic anxiety catharsis** - Processing fears about job loss and financial ruin through humor
+4. **Moral complexity entertainment** - Enjoying characters who break rules for sympathetic reasons
+5. **Couple chemistry** - Watching an attractive pair work together through adversity
+6. **Underdog triumph** - Rooting for ordinary people fighting against corporate corruption
+7. **Social commentary** - Light critique of corporate greed and economic inequality without being preachy
+The film offers a comedic outlet for middle-class anxieties while maintaining an upbeat, entertaining tone.</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -16218,6 +17550,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W156" t="inlineStr">
+        <is>
+          <t># Summary
+**Gambling, Gods and LSD** meets viewers' desires for:
+1. **Intellectual and spiritual exploration** - The film investigates altered states of consciousness, religious practices, and humanity's search for transcendence across cultures
+2. **Visual and sensory experience** - Peter Mettler's cinematography offers stunning, immersive imagery from global locations
+3. **Alternative perspectives** - It provides countercultural viewpoints on consciousness, rejecting mainstream materialist thinking
+4. **Existential questioning** - The documentary addresses fundamental questions about reality, meaning, and human existence
+5. **Cultural curiosity** - It satisfies interest in diverse practices from Swiss raves to Hindu rituals to indigenous ceremonies
+6. **Artistic documentary form** - The film appeals to those seeking experimental, non-linear storytelling rather than traditional documentary structure
+The film essentially serves viewers interested in consciousness expansion, spirituality, and philosophical inquiry presented through an artistic, meditative lens.</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -16324,6 +17669,11 @@
       <c r="V157" t="inlineStr">
         <is>
           <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="W157" t="inlineStr">
+        <is>
+          <t>"Get Out" meets viewers' desires for intelligent, socially conscious horror that combines genuine scares with sharp commentary on racism and liberal hypocrisy. It satisfies the need for suspenseful entertainment while addressing real-world anxieties about exploitation, microaggressions, and the weaponization of white progressivism. The film also fulfills the desire for fresh perspectives in horror, centering a Black protagonist's experience and validating concerns about cultural appropriation and systemic oppression through a genre framework that makes uncomfortable truths accessible and compelling.</t>
         </is>
       </c>
     </row>
@@ -16398,6 +17748,11 @@
           <t>2026-03-01</t>
         </is>
       </c>
+      <c r="W158" t="inlineStr">
+        <is>
+          <t>This concert film meets viewers' desires for authentic live music performance, nostalgia for classic soul and R&amp;B from legendary artists, and the emotional connection that comes from witnessing iconic performers like Gladys Knight &amp; the Pips and Ray Charles at their peak. It satisfies needs for musical entertainment, cultural appreciation of African American musical heritage, and the energy and spontaneity that only live performances can provide.</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -16502,6 +17857,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W159" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film called "God's Comedy" to accurately describe what viewer desires or needs it meets. This title could refer to different works, or may be a lesser-known or regional film. Without details about the specific film's content, themes, and style, I cannot provide a reliable summary of its appeal to audiences.</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -16610,6 +17970,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W160" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film titled "Good Luck, Have Fun, Don't Die" in my knowledge base. Without being able to verify details about this particular film, I cannot accurately describe what viewer desires or needs it meets. If you could provide additional context about the film (such as release year, director, or subject matter), I might be able to offer more helpful information.</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -16710,6 +18075,12 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W161" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Good Old Boy"
+"Good Old Boy" (also known as "A Mississippi Summer") appeals to viewers seeking nostalgia for childhood and simpler times in the rural American South. The film meets desires for coming-of-age stories that explore themes of innocence, family bonds, and personal growth during the 1940s. It satisfies audiences interested in historical period pieces that depict regional culture, particularly Mississippi Delta life, while offering wholesome family entertainment with gentle humor and heartwarming moments. The film also appeals to those seeking stories about boyhood adventures, intergenerational relationships, and the bittersweet transition from childhood to maturity.</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -16808,6 +18179,19 @@
       <c r="V162" t="inlineStr">
         <is>
           <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="W162" t="inlineStr">
+        <is>
+          <t># Summary
+**Goodbye, Dragon Inn** meets viewers' desires for:
+- **Contemplative, meditative experience** - The film's slow pace and long takes create space for reflection on mortality, loneliness, and cultural passing
+- **Atmospheric immersion** - Rich sound design and haunting imagery of the decaying theater envelope viewers in melancholic beauty
+- **Nostalgia and elegy** - Appeals to cinephiles mourning the death of traditional moviegoing and classical cinema
+- **Minimalist aesthetics** - Satisfies appreciation for visual storytelling with minimal dialogue
+- **Loneliness and human connection** - Depicts isolated characters seeking connection in their final shared space, resonating with universal feelings of alienation
+- **Observational cinema** - Offers voyeuristic pleasure in watching mundane rituals and empty spaces
+- **Art house sensibility** - Fulfills desire for challenging, unconventional narrative that prioritizes mood and symbolism over plot</t>
         </is>
       </c>
     </row>
@@ -16894,6 +18278,18 @@
           <t>2026-02-05</t>
         </is>
       </c>
+      <c r="W163" t="inlineStr">
+        <is>
+          <t># Summary
+**Gorillaz Live (YouTube Music Nights)** meets viewer desires for:
+1. **Unique visual experience** - The band's signature animated aesthetic combined with live performance creates a distinctive spectacle
+2. **Musical escapism** - High-energy concert atmosphere with popular Gorillaz hits provides entertainment and mood elevation
+3. **Accessibility** - Free streaming on YouTube allows global audiences to experience a live show they might not otherwise attend
+4. **Innovation curiosity** - The blend of virtual band concept with real musicians satisfies interest in experimental performance formats
+5. **Community connection** - Shared live-streaming experience creates sense of participation in a collective musical event
+6. **Nostalgia and fandom** - Satisfies existing fans' desire to see beloved songs performed while introducing newer audiences to the catalog</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -16982,6 +18378,19 @@
           <t>2026-02-10</t>
         </is>
       </c>
+      <c r="W164" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by "Goya's Ghosts" (2006)
+The film satisfies viewers seeking:
+- **Historical drama and period authenticity** - depicting Spain during the Inquisition and Napoleonic era
+- **Artistic appreciation** - exploring the life and work of painter Francisco Goya
+- **Moral complexity** - examining themes of religious persecution, political corruption, and human suffering
+- **Strong performances** - featuring Javier Bardem, Natalie Portman, and Stellan Skarsgård
+- **Political commentary** - drawing parallels between historical oppression and contemporary issues of power abuse
+- **Emotional engagement** - following a tragic narrative of injustice and personal devastation
+- **Visual richness** - Miloš Forman's cinematic recreation of Goya's artistic world and tumultuous historical period</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -17082,6 +18491,11 @@
           <t>2026-02-15</t>
         </is>
       </c>
+      <c r="W165" t="inlineStr">
+        <is>
+          <t>"Green Snake" (1993) meets viewers' desires for visually stunning fantasy spectacle, sensual and subversive storytelling that challenges traditional morality, exploration of forbidden love and female desire, and reimagined mythology from a fresh perspective. The film appeals to audiences seeking lush cinematography, complex female characters who defy conventional roles, philosophical questions about identity and transformation, and an aesthetically rich blend of eroticism, spirituality, and supernatural adventure that pushes boundaries of mainstream Asian cinema.</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -17190,6 +18604,13 @@
           <t>2026-02-02</t>
         </is>
       </c>
+      <c r="W166" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Groundhog Day
+**Groundhog Day** satisfies several key viewer needs:
+**Escapist fantasy** - The premise of reliving the same day offers a compelling "what if" scenario that lets audiences imagine having unlimited chances to perfect their lives. **Moral satisfaction** - Viewers experience the gratification of watching a selfish character transform into a better person through self-improvement and genuine care for others. **Romantic fulfillment** - The film delivers a satisfying love story where the protagonist earns affection through authentic personal growth rather than manipulation. **Existential comfort** - It addresses deep questions about life's meaning and purpose while providing an optimistic answer: that change is possible and life has value through connection and self-betterment. **Humor and entertainment** - The repetitive structure creates comedy through creative variations while maintaining engaging storytelling that never feels monotonous.</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -17298,6 +18719,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W167" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Guardians of the Galaxy Vol. 3
+**Guardians of the Galaxy Vol. 3** satisfies several key viewer desires:
+**Emotional closure and catharsis** - The film provides a satisfying conclusion to the Guardians' story arc, addressing character backstories (particularly Rocket's tragic origin) and offering resolution to long-running relationships. **Escapism and spectacle** - Delivers vibrant visuals, imaginative alien worlds, and exciting action sequences that transport audiences away from everyday life. **Humor and entertainment** - Maintains the franchise's signature blend of comedy and heart, offering lighthearted moments amid serious themes. **Moral satisfaction** - Explores themes of redemption, found family, and standing against cruelty, allowing viewers to see good triumph over evil and characters grow. **Nostalgia and familiarity** - Reunites beloved characters while honoring the trilogy's journey, satisfying fans' attachment to the MCU and these specific heroes. **Empathy and connection** - The focus on animal experimentation and Rocket's suffering taps into viewers' compassion and desire for stories about</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -17402,6 +18830,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W168" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by "Guru"
+The film "Guru" (2007) satisfies several viewer desires:
+**Inspirational Success Story**: Audiences seeking motivation find appeal in the rags-to-riches narrative of Gurukant Desai, who rises from humble beginnings to build a business empire. **Ambition and Entrepreneurship**: The film meets the need for stories celebrating determination, risk-taking, and challenging established systems, resonating with aspiring entrepreneurs. **Romance and Family Drama**: The relationship between Guru and Sujata provides emotional depth and satisfies viewers seeking personal stories alongside business narratives. **Period Drama Nostalgia**: Set across several decades of Indian history, it appeals to those interested in India's economic transformation and historical context. **Moral Complexity**: The film satisfies viewers who appreciate nuanced characters rather than simple heroes/villains, as Guru employs questionable methods to achieve his goals. **Star Power**: Abhishek Bachchan and Aishwarya Rai's performances attract fans of Bollywood cinema and high-production-value entertainment.</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -17506,6 +18941,12 @@
           <t>2026-02-05</t>
         </is>
       </c>
+      <c r="W169" t="inlineStr">
+        <is>
+          <t># Short Summary
+The film adaptation of "H Is for Hawk" meets viewers' desires for authentic emotional catharsis, exploring grief and healing through the protagonist's journey of training a goshawk after her father's death. It satisfies needs for connection with nature, understanding of loss and transformation, and witnessing raw human vulnerability. The story appeals to those seeking contemplative, literary cinema that examines how we process trauma through unexpected means, while also offering insight into the ancient practice of falconry and our relationship with wild creatures.</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -17610,6 +19051,18 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W170" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires "H Is for Hawk" Meets
+The film adaptation of Helen Macdonald's memoir meets viewers' needs for:
+- **Catharsis and emotional processing** - exploring grief and loss through the protagonist's journey after her father's death
+- **Connection with nature** - experiencing the visceral beauty of falconry and the natural world
+- **Understanding solitude and healing** - witnessing an unconventional path through trauma
+- **Intellectual stimulation** - engaging with themes of history, literature (T.H. White), and human-animal relationships
+- **Authenticity** - observing a raw, honest portrayal of mental struggle and recovery
+- **Escape with substance** - finding both retreat from everyday life and meaningful reflection on universal human experiences</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -17714,6 +19167,17 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W171" t="inlineStr">
+        <is>
+          <t>"H Is for Hawk" is a documentary film (based on Helen Macdonald's memoir) that meets viewers' desires for:
+- **Emotional catharsis** through its exploration of grief and healing after the death of Macdonald's father
+- **Connection with nature** by intimately documenting the process of training a goshawk
+- **Contemplation of loss and recovery** as the protagonist works through trauma via her relationship with the hawk
+- **Understanding of an unusual practice** (falconry) and the intense bond between human and wild animal
+- **Literary and reflective storytelling** that examines themes of wildness, domestication, and what it means to be human
+The film appeals to those seeking thoughtful, introspective content about processing grief through immersion in the natural world.</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -17818,6 +19282,20 @@
           <t>2026-02-06</t>
         </is>
       </c>
+      <c r="W172" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Hamlet
+**Hamlet** satisfies viewers' desires for:
+- **Intellectual stimulation** through complex philosophical questions about existence, mortality, and morality
+- **Emotional catharsis** via intense tragedy and the protagonist's psychological suffering
+- **Moral exploration** of revenge, justice, corruption, and ethical dilemmas
+- **Psychological depth** in its nuanced portrayal of grief, madness, and indecision
+- **Dramatic spectacle** with murder, betrayal, supernatural elements, and theatrical confrontations
+- **Literary prestige** as a culturally significant, "highbrow" Shakespeare adaptation
+- **Universal relatability** through themes of family dysfunction, loss, and uncertainty
+- **Aesthetic pleasure** from poetic language and artistic filmmaking</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -17922,6 +19400,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W173" t="inlineStr">
+        <is>
+          <t>The film Hamlet meets viewers' desires for profound exploration of universal human experiences including revenge, grief, moral conflict, and existential questioning. It satisfies the need for complex psychological drama, poetic language, and timeless themes about death, betrayal, indecision, and the nature of justice. The story provides catharsis through tragedy while engaging audiences intellectually with philosophical questions about life's meaning and purpose.</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -18030,6 +19513,21 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W174" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by "Hamnet"
+The film "Hamnet" (based on Maggie O'Farrell's novel about Shakespeare's son) meets viewers' desires for:
+- **Emotional catharsis** through its exploration of parental grief and loss
+- **Historical curiosity** about Shakespeare's personal life and family
+- **Literary connection** to one of history's greatest writers in an intimate context
+- **Beautiful period aesthetics** showcasing Elizabethan England
+- **Strong female perspective** centering Agnes (Anne Hathaway) as protagonist
+- **Contemplation of creativity and art** born from tragedy
+- **Family drama** depicting complex marital and parent-child relationships
+- **Escape into a richly imagined past** with authentic period detail
+The film appeals to audiences seeking thoughtful, character-driven historical drama with literary prestige.</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -18138,6 +19636,19 @@
           <t>2026-02-05</t>
         </is>
       </c>
+      <c r="W175" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by *Hamnet*
+The film *Hamnet* (based on Maggie O'Farrell's novel) meets viewers' desires for:
+1. **Emotional catharsis** - exploring profound grief and parental loss
+2. **Historical curiosity** - imagining Shakespeare's personal life and family tragedy
+3. **Literary connection** - understanding the human story behind *Hamlet*
+4. **Period drama aesthetics** - experiencing Elizabethan England's atmosphere
+5. **Strong character focus** - particularly on Agnes (Anne Hathaway), giving voice to a historically overlooked woman
+6. **Themes of love and mortality** - examining how tragedy shapes art and family bonds
+The film appeals to audiences seeking intimate, character-driven historical drama with emotional depth.</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -18246,6 +19757,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W176" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires/Needs "Hamnet" Meets
+The film "Hamnet" appeals to viewers seeking:
+- **Literary/historical curiosity** about Shakespeare's family life and the inspiration behind his works
+- **Emotional catharsis** through a poignant exploration of parental grief and loss
+- **Period drama aesthetics** with authentic Elizabethan settings and atmosphere
+- **Character-driven storytelling** focused on intimate family relationships rather than grand historical events
+- **Feminist perspectives** by centering Agnes (Anne Hathaway's) experience and agency
+- **Artistic interpretation** of how personal tragedy transforms into creative expression
+The film satisfies audiences interested in humanizing historical figures and examining the connection between life experience and artistic creation.</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -18354,6 +19878,13 @@
           <t>2026-02-02</t>
         </is>
       </c>
+      <c r="W177" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by "Hamnet"
+The film *Hamnet* (2024) meets several viewer desires:
+**Emotional catharsis** - The story of Shakespeare's grief over his son's death provides a powerful outlet for exploring loss and parental anguish. **Historical curiosity** - It offers insight into Shakespeare's personal life and the inspiration behind his works, particularly *Hamlet*. **Literary connection** - Viewers interested in Shakespeare can see the human story behind the playwright's genius. **Period drama appeal** - The Elizabethan setting satisfies those who enjoy historical atmosphere and costume drama. **Family drama** - The focus on marriage, parenthood, and family tragedy resonates with universal human experiences. **Artistic appreciation** - The film explores the relationship between personal suffering and creative expression.</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -18460,6 +19991,18 @@
       <c r="V178" t="inlineStr">
         <is>
           <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="W178" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires "Hamnet" Meets
+The film "Hamnet" (based on Maggie O'Farrell's novel) meets viewers' desires for:
+1. **Emotional catharsis** - exploring profound grief and parental loss
+2. **Historical/literary curiosity** - imagining Shakespeare's family life and the inspiration behind "Hamlet"
+3. **Intimate character study** - focusing on his wife Agnes (Anne Hathaway) and their relationships
+4. **Appreciation for poetic storytelling** - lyrical narrative and period atmosphere
+5. **Feminist perspective** - centering a historically marginalized woman's experience and agency
+6. **Universal themes** - examining love, mortality, marriage, and artistic creation through a personal lens</t>
         </is>
       </c>
     </row>
@@ -18542,6 +20085,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W179" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film called "Harmonica" in my knowledge base. There are several films with similar titles (like "Harmonica Man" or harmonica-related films), but without more context about which specific film you're referring to—such as the year, director, or country of origin—I cannot provide an accurate summary of what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -18650,6 +20198,19 @@
           <t>2026-02-08</t>
         </is>
       </c>
+      <c r="W180" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by "Heaven Can Wait"
+**Heaven Can Wait** (1978) satisfies viewers' desires for:
+- **Escapist fantasy** - The afterlife premise and second-chance narrative offer relief from mortality anxiety
+- **Romantic wish-fulfillment** - The love story transcending death provides emotional satisfaction
+- **Justice and fairness** - The protagonist's wrongful death being corrected appeals to moral sensibilities
+- **Humor amid serious themes** - The comedy lightens existential questions about death and identity
+- **Underdog triumph** - Watching the hero overcome obstacles and achieve his dreams is inspirational
+- **Reassurance about the afterlife** - The benevolent, bureaucratic heaven offers comfort about death
+- **Identity and transformation** - Exploring "what makes us who we are" engages philosophical curiosity</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -18758,6 +20319,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W181" t="inlineStr">
+        <is>
+          <t># Summary
+*Hereditary* meets viewers' desires for intense psychological horror, emotional depth, and artistic filmmaking. It satisfies audiences seeking:
+- **Visceral scares and dread** through disturbing imagery and sustained tension
+- **Complex family drama** exploring grief, trauma, and generational dysfunction
+- **Intellectual engagement** with layered symbolism, occult themes, and ambiguity
+- **Elevated horror** that treats the genre as serious art rather than mere entertainment
+- **Emotional catharsis** through extreme situations that mirror real feelings of loss and helplessness
+- **Unpredictability** with shocking moments that subvert typical horror conventions
+The film appeals to horror enthusiasts wanting something deeper and more unsettling than conventional scary movies.</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -18866,6 +20440,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W182" t="inlineStr">
+        <is>
+          <t>Hidden Figures meets viewers' desires for inspiring true stories of overcoming adversity, representation of underrepresented groups in STEM fields, and narratives about fighting discrimination. The film satisfies needs for feel-good historical drama that celebrates intelligence and perseverance, provides role models for women and African Americans in science and mathematics, and offers an accessible, emotionally engaging look at the space race while addressing important social justice themes of racism and sexism in 1960s America.</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -18974,6 +20553,11 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="W183" t="inlineStr">
+        <is>
+          <t>"Hit Man" meets viewers' desires for clever entertainment through its blend of romantic comedy and thriller elements. The film satisfies the need for escapism with its playful premise of a fake hitman who assumes different identities, while also delivering wish-fulfillment through the protagonist's transformation from ordinary professor to confident persona-shifter. It appeals to audiences seeking intelligent humor, romantic tension, and morally ambiguous storytelling that questions identity and authenticity, all wrapped in an accessible, entertaining package with charismatic lead performances.</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -19074,6 +20658,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W184" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Honey Bunch" in my knowledge base. Without knowing the specific film you're referring to, I cannot accurately describe what viewer desires or needs it meets. If you could provide more details about the film (such as release year, director, or plot), I might be able to help better.</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -19174,6 +20763,18 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W185" t="inlineStr">
+        <is>
+          <t># Summary
+**Hot Gimmick: Girl Meets Boy** appeals to viewers seeking:
+- **Romantic fantasy and wish fulfillment** - The story features a domineering yet attractive male lead in a forced proximity relationship, catering to fans of "forbidden" or intense romantic dynamics
+- **Drama and emotional intensity** - The film delivers heightened conflicts, power imbalances, and melodramatic situations that provide escapist entertainment
+- **Nostalgia** - For fans of the original manga, it offers a live-action adaptation of a beloved early 2000s shoujo series
+- **Coming-of-age themes** - It explores teenage identity, first love, and navigating complex social relationships during high school
+- **Visual appeal** - Features attractive young actors and the polished aesthetic typical of Japanese youth romance films
+The film primarily targets fans of shoujo manga adaptations and viewers who enjoy intense, sometimes problematic romantic storylines with high emotional stakes.</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -19270,6 +20871,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W186" t="inlineStr">
+        <is>
+          <t># Hotel Monterey: Viewer Desires Met
+Chantal Akerman's **Hotel Monterey** (1972) satisfies viewers seeking:
+**Contemplative experience** - The slow, static shots encourage meditative observation rather than narrative consumption. **Authentic space exploration** - The camera methodically documents the hotel's corridors, rooms, and elevator, appealing to those interested in architectural and environmental observation. **Escape from conventional storytelling** - Viewers tired of plot-driven cinema find relief in pure visual documentation. **Hypnotic rhythm** - The repetitive, systematic movement through spaces creates a trance-like viewing state. **Sociological insight** - The film captures the loneliness and transience of urban existence in a budget hotel, satisfying interest in marginal spaces and social alienation. **Formal experimentation** - Cinephiles interested in avant-garde techniques appreciate the film's structural approach and challenge to traditional filmmaking. The film serves viewers comfortable with minimalism who find meaning in sustained attention to overlooked spaces and the passage of time.</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -19370,6 +20978,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W187" t="inlineStr">
+        <is>
+          <t>"Hovering Over the Water" typically meets viewer desires for contemplative, meditative cinema that explores themes of memory, isolation, and the human relationship with nature. The film appeals to audiences seeking slow-paced, visually atmospheric storytelling that prioritizes mood and reflection over conventional narrative, offering an immersive experience that encourages introspection and patience.</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -19476,6 +21089,11 @@
       <c r="V188" t="inlineStr">
         <is>
           <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="W188" t="inlineStr">
+        <is>
+          <t>"How Much Do You Love Me?" appeals to viewers seeking romantic escapism and wish fulfillment through its fantasy premise of an ordinary man hiring a beautiful prostitute who seemingly falls in love with him. The film satisfies desires for passionate romance, comedic entertainment, and the exploration of transactional versus genuine love, while also providing the visual appeal of its glamorous lead actress Monica Bellucci. It caters to audiences interested in French romantic comedies that blend humor with questions about the authenticity of relationships.</t>
         </is>
       </c>
     </row>
@@ -19566,6 +21184,11 @@
           <t>2026-02-06</t>
         </is>
       </c>
+      <c r="W189" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Hélène Trésore Transnationale" in my knowledge base. This title doesn't appear to match any widely known or documented film. It's possible this is a very obscure, independent, or recent production, or the title may be slightly different than what I have access to. Without reliable information about this specific film, I cannot accurately describe what viewer desires or needs it might meet.</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -19662,6 +21285,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W190" t="inlineStr">
+        <is>
+          <t>"Hôtel des Acacias" (1963), directed by Jean-Pierre Melville, meets viewers' desires for intimate, contemplative character study and realistic human drama. The film satisfies those seeking understated romance, quiet emotional depth, and observation of genuine human connection as it follows a chance encounter between a man and woman sharing a car journey with an infant. It appeals to audiences who appreciate minimalist storytelling, authentic performances, and the exploration of loneliness, compassion, and tentative human bonds without melodrama.</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -19762,6 +21390,12 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W191" t="inlineStr">
+        <is>
+          <t># Summary
+*I Can No Longer Hear the Guitar* meets desires for contemplative, artistic cinema that explores themes of memory, lost love, and the passage of time. It appeals to viewers seeking non-linear, poetic storytelling, beautiful cinematography of Mediterranean landscapes, and intimate character studies. The film satisfies those interested in French New Wave aesthetics, autobiographical filmmaking, and quiet, meditative examinations of romantic relationships and their dissolution. It offers an alternative to conventional narrative cinema for audiences valuing mood, visual lyricism, and emotional introspection over plot-driven entertainment.</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -19858,6 +21492,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W192" t="inlineStr">
+        <is>
+          <t>"I Did Not Die" meets viewers' needs for understanding grief and loss, offering comfort through its exploration of death and remembrance. The film provides emotional catharsis, validates feelings about mortality, and offers hope through its message of spiritual continuity and the enduring presence of loved ones who have passed away. It appeals to those seeking meaning in death, processing bereavement, or looking for poetic reflection on life's impermanence.</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -19954,6 +21593,11 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="W193" t="inlineStr">
+        <is>
+          <t>"I Was Nineteen" meets viewers' desires for authentic historical documentation of WWII's final days, personal coming-of-age narratives amid war, and nuanced perspectives on German identity and guilt. The semi-autobiographical film satisfies needs for humanistic war cinema that avoids propaganda, explores moral complexity, and provides intimate witness to a pivotal historical moment through the eyes of a young Soviet soldier of German origin returning to his homeland.</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -20062,6 +21706,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W194" t="inlineStr">
+        <is>
+          <t>"Ichi the Killer" appeals to viewers seeking extreme transgressive cinema, intense visceral experiences, and boundary-pushing content. The film satisfies desires for graphic violence as stylized art, dark psychological exploration of sadism and masochism, provocative taboo-breaking, and avant-garde Japanese cult cinema. It attracts audiences interested in challenging, controversial films that deliberately shock and disturb conventional sensibilities while offering a hyper-stylized aesthetic and unconventional narrative structure.</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -20170,6 +21819,21 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="W195" t="inlineStr">
+        <is>
+          <t># Summary
+*In the Mood for Love* fulfills viewers' desires for:
+- **Aesthetic beauty and visual poetry** through stunning cinematography, color, and composition
+- **Emotional resonance with unspoken longing** and repressed desire that feels universal
+- **Nostalgia** for a romanticized past (1960s Hong Kong) with meticulous period detail
+- **Slow cinema and contemplation** that rewards patient, attentive viewing
+- **Sophisticated romance** that values restraint, implication, and what remains unsaid
+- **Exploration of intimacy and loneliness** in relationships and unfulfilled connections
+- **Escapism through sensory immersion** in music, fashion, and atmosphere
+- **Melancholic beauty** that validates bittersweet emotional experiences
+The film appeals to audiences seeking artful, emotionally intelligent cinema over conventional narrative satisfaction.</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -20278,6 +21942,13 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="W196" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by *In the Mood for Love*
+Wong Kar-wai's *In the Mood for Love* fulfills several key viewer desires:
+**Aesthetic pleasure** - The film offers exquisite visual beauty through its color palette, cinematography, costumes, and meticulous framing that creates a sensory feast. **Emotional resonance** - It captures the bittersweet ache of unfulfilled longing and restraint, allowing viewers to experience deep, complex emotions vicariously. **Romantic yearning** - The film satisfies desires for passionate yet impossibly constrained love, where what remains unspoken becomes more powerful than what is expressed. **Nostalgic escapism** - It transports viewers to 1960s Hong Kong with period-perfect details, offering immersion in another time and place. **Contemplative experience** - The slow pacing and subtle storytelling reward patient viewers seeking cinema as art rather than mere entertainment, fulfilling intellectual and interpretive desires. **Identification with repression** - It validates the universal experience of social constraints preventing personal fulfillment, resonating with those who've sacrif</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -20386,6 +22057,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W197" t="inlineStr">
+        <is>
+          <t>Inception meets viewers' desires for intellectual stimulation through its complex, puzzle-like narrative structure; escapist entertainment via spectacular visual effects and action sequences; emotional engagement through the protagonist's grief and guilt; and the satisfaction of decoding ambiguous meanings, particularly the famous ending. The film also appeals to audiences seeking prestigious, thought-provoking blockbuster entertainment that rewards close attention and discussion.</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -20494,6 +22170,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W198" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Indiana Jones and the Dial of Destiny
+**Indiana Jones and the Dial of Destiny** satisfies several key viewer desires:
+- **Nostalgia**: Reunites audiences with the beloved Harrison Ford as an aging Indiana Jones, providing closure to a classic franchise
+- **Escapism and Adventure**: Delivers globe-trotting action sequences, ancient mysteries, and treasure-hunting thrills
+- **Spectacle**: Offers high-budget visual effects, including de-aging technology and elaborate set pieces
+- **Familiarity**: Maintains franchise traditions with callbacks, the iconic theme music, and recognizable adventure formulas
+- **Emotional Resolution**: Provides a reflective, bittersweet conclusion to Indy's story, addressing themes of aging, legacy, and mortality
+- **Good vs. Evil**: Features clear moral stakes with Nazi villains and heroic protagonists
+The film primarily appeals to longtime fans seeking a final adventure with an iconic character while offering accessible action-adventure entertainment for general audiences.</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -20598,6 +22287,21 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W199" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by Infernal Affairs
+**Infernal Affairs** satisfies viewers through:
+- **Psychological tension**: The cat-and-mouse game between parallel moles creates sustained suspense
+- **Moral complexity**: Characters who are neither purely good nor evil, challenging simple hero/villain dynamics
+- **Identity exploration**: Themes of dual lives and lost authentic selves resonate with questions about personal identity
+- **Intellectual engagement**: The intricate plot rewards attentive viewing and puzzle-solving
+- **Emotional depth**: Both protagonists evoke sympathy despite their deceptions, creating emotional investment
+- **Cultural specificity**: Hong Kong setting and themes of loyalty provide distinctive flavor beyond typical Hollywood fare
+- **Stylish execution**: Sleek cinematography and pacing deliver aesthetic pleasure
+- **Existential stakes**: Questions about redemption and whether one can escape their past provide philosophical weight
+The film appeals to audiences seeking sophisticated crime thrillers that prioritize character psychology over action spectacle.</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -20698,6 +22402,18 @@
           <t>2026-02-28</t>
         </is>
       </c>
+      <c r="W200" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Inside the Yellow Cocoon Shell
+The film satisfies viewers seeking contemplative, meditative cinema that prioritizes atmosphere and philosophical reflection over conventional narrative. It appeals to audiences who desire:
+- **Spiritual exploration** through visual poetry and existential questions about faith, mortality, and meaning
+- **Slow cinema aesthetics** with long takes, minimal dialogue, and immersive observation of rural Vietnamese life
+- **Artistic challenge** that rewards patience and active interpretation rather than passive consumption
+- **Authentic cultural insight** into contemporary Vietnam's relationship with tradition, religion, and modernity
+- **Escapism through stillness** – a counter-programming experience to mainstream cinema's pace and spectacle
+The film meets the needs of cinephiles and festival audiences who value cinema as an art form for reflection rather than entertainment.</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -20798,6 +22514,11 @@
           <t>2026-03-01</t>
         </is>
       </c>
+      <c r="W201" t="inlineStr">
+        <is>
+          <t>I don't have enough information to provide an accurate answer about a film called "Interior." There are multiple films with this title from different years and countries, and without knowing which specific film you're referring to, I cannot reliably describe what viewer desires or needs it meets. If you could specify the director, year, or provide additional context, I could give you a proper summary.</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -20902,6 +22623,14 @@
           <t>2026-02-15</t>
         </is>
       </c>
+      <c r="W202" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by "Irma Vep"
+Olivier Assayas's "Irma Vep" satisfies viewers seeking:
+**Meta-cinematic exploration** - The film appeals to cinephiles interested in commentary on filmmaking, French cinema history, and the creative process itself. **Cultural collision** - It meets desires for cross-cultural narratives by depicting Hong Kong action star Maggie Cheung navigating the chaotic French film industry. **Artistic authenticity** - Viewers craving raw, behind-the-scenes realism find satisfaction in its mockumentary-style portrayal of a troubled production. **Nostalgia and homage** - The film satisfies fans of silent cinema through its reimagining of Louis Feuillade's classic serial "Les Vampires."
+**Visual and sensory stimulation** - The iconic latex catsuit sequences and experimental aesthetics appeal to those seeking striking, memorable imagery. **Intellectual engagement** - It rewards audiences interested in questions about authorship, cultural identity, and the tension between commercial and art cinema.</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -21010,6 +22739,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W203" t="inlineStr">
+        <is>
+          <t>"Iron Lung" meets viewer desires for atmospheric dread, claustrophobic tension, and analog horror aesthetics. The film appeals to audiences seeking minimalist, low-budget horror that relies on psychological unease rather than jump scares, offering a bleak sci-fi premise where humanity's extinction backdrop amplifies isolation and cosmic insignificance. It satisfies fans of found-footage style storytelling and those who appreciate slow-burn suspense with an ambiguous, unsettling conclusion.</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -21118,6 +22852,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W204" t="inlineStr">
+        <is>
+          <t># Iron Lung: Viewer Desires and Needs Met
+The film **Iron Lung** appeals to viewers seeking:
+- **Claustrophobic horror and tension**: The confined submarine setting creates intense psychological dread
+- **Cosmic/existential horror**: Explores themes of isolation, the unknown, and humanity's insignificance in a hostile universe
+- **Atmospheric storytelling**: Minimal dialogue and visual storytelling that rewards patient, attentive viewers
+- **Indie/experimental horror**: Offers an alternative to mainstream horror with its unique approach
+- **Adaptation curiosity**: Fans of the original video game wanting to see the concept realized in film form
+- **Dread over jump scares**: Provides sustained unease rather than cheap thrills
+The film satisfies audiences who appreciate slow-burn, atmospheric horror that emphasizes mood and psychological terror over explicit violence.</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -21222,6 +22969,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W205" t="inlineStr">
+        <is>
+          <t>"Is This Thing On?" is a 2025 documentary about stand-up comedy that meets viewers' desires for behind-the-scenes insight into the creative process, authentic stories about perseverance and vulnerability, humor and entertainment, and an understanding of what it takes to succeed in comedy. It appeals to comedy fans curious about the craft and anyone interested in stories about pursuing creative passions despite challenges.</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -21326,6 +23078,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W206" t="inlineStr">
+        <is>
+          <t>"Is This Thing On?" meets viewers' desires for lighthearted comedy and relatable stories about aging, friendship, and second chances. The film appeals to audiences seeking feel-good entertainment that addresses themes of senior citizens embracing technology and modern life, while providing nostalgic humor and heartwarming moments about maintaining connections and staying relevant in a changing world.</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -21430,6 +23187,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W207" t="inlineStr">
+        <is>
+          <t>"Is This Thing On?" is a 2024 documentary that follows aging comedians as they navigate the modern comedy landscape. The film meets viewer desires for nostalgia, authenticity, and humor while exploring themes of relevance, perseverance, and the evolution of comedy. It appeals to audiences interested in behind-the-scenes perspectives on stand-up comedy, generational conflicts in entertainment, and stories about artists adapting to changing times.</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -21538,6 +23300,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W208" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires/Needs "It Follows" Meets
+**It Follows** satisfies viewers seeking:
+- **Atmospheric dread and suspense** - The film delivers slow-burn psychological horror rather than jump scares
+- **Original horror concept** - The sexually-transmitted supernatural curse offers a fresh take on the genre
+- **Metaphorical depth** - It engages audiences who appreciate allegories about sexuality, trauma, and coming-of-age anxieties
+- **Artistic filmmaking** - The distinctive cinematography, synth score, and deliberate pacing appeal to cinephiles
+- **Intelligent fear** - The film respects viewers' intelligence with ambiguity and rules-based horror that rewards attention
+- **Nostalgic aesthetics** - The timeless setting and retro score evoke 1980s horror while feeling contemporary
+- **Existential unease** - It taps into primal fears about inescapable threats and mortality
+The film primarily appeals to viewers wanting horror that is cerebral, visually striking, and thematically rich rather than conventionally frightening.</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -21642,6 +23418,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W209" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film titled "It Was Just an Accident" in my knowledge base. This title could refer to a lesser-known or independent film, a short film, or possibly a work released after my training data. Without details about the specific film's content, genre, or themes, I cannot accurately describe what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -21750,6 +23531,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W210" t="inlineStr">
+        <is>
+          <t>Jaws meets viewers' desires for suspenseful thrills and visceral fear in a safe environment, the need to experience triumph over a primal threat, escapist entertainment through a high-stakes adventure, and catharsis through confronting deep-seated anxieties about the unknown dangers lurking beneath the surface. The film also satisfies the desire for heroic narratives where ordinary people overcome extraordinary challenges.</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -21850,6 +23636,17 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W211" t="inlineStr">
+        <is>
+          <t># Summary
+**Je Tu Il Elle** (1974) meets viewers' desires for:
+- **Radical intimacy and authenticity** - The film's raw, unfiltered portrayal of loneliness, desire, and human connection appeals to those seeking honest, non-commercial cinema
+- **Feminist and queer representation** - Its frank depiction of female sexuality and same-sex desire served underrepresented audiences seeking their experiences on screen
+- **Artistic/experimental cinema** - The minimalist style, fragmented narrative, and challenging structure satisfy viewers interested in avant-garde filmmaking
+- **Intellectual engagement** - Its ambiguity and philosophical themes about identity and isolation attract audiences who want cinema that provokes thought rather than passive consumption
+- **Transgressive content** - The explicit sexuality and unconventional storytelling appeal to viewers seeking boundary-pushing art that defies mainstream conventions</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -21950,6 +23747,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W212" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by *Jeanne Dielman*
+**Jeanne Dielman** satisfies desires for:
+- **Formal experimentation**: The film's radical use of real-time duration, static framing, and mundane domesticity appeals to viewers seeking innovative cinematic language beyond conventional storytelling. - **Feminist perspective**: It validates experiences of domestic labor and women's invisible work, offering representation rarely seen in cinema and inviting critical reflection on gender roles. - **Contemplative viewing**: The slow pace rewards patient, meditative engagement, allowing viewers to notice subtle psychological shifts and experience time differently. - **Political/intellectual stimulation**: It challenges capitalist and patriarchal structures through its depiction of repetitive labor, commodified sexuality, and female entrapment, appealing to politically-engaged audiences. - **Artistic prestige**: As a canonized work by Chantal Akerman, it fulfills cinephiles' desire to engage with important film history and auteur cinema. The film essentially serves viewers seeking cinema as art, politics, and phenomenological experience rather than entertainment.</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -22058,6 +23862,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W213" t="inlineStr">
+        <is>
+          <t># John Wick Viewer Desires Met
+**John Wick** satisfies several key viewer desires:
+- **Catharsis through revenge**: The simple, emotionally resonant motivation (avenging his murdered dog and stolen connection to his late wife) provides visceral satisfaction
+- **Competence fantasy**: Watching an ultimate professional execute flawless action sequences fulfills the desire to see mastery and skill
+- **Escapist action**: Stylish, choreographed gunfights and martial arts offer pure entertainment spectacle
+- **Justice and moral clarity**: A clear villain and righteous cause create satisfying good-vs-evil dynamics
+- **World-building immersion**: The detailed assassin underworld with unique rules provides an engaging fictional universe to explore
+- **Emotional connection**: The grief-driven protagonist allows viewers to empathize while enjoying consequence-free violence
+The film delivers straightforward, stylish action with emotional grounding that justifies the mayhem.</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -22162,6 +23979,13 @@
           <t>2026-02-15</t>
         </is>
       </c>
+      <c r="W214" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by *Jules and Jim*
+François Truffaut's *Jules and Jim* appeals to viewers seeking:
+**Emotional complexity**: The film explores the nuances of love, friendship, and desire beyond conventional boundaries, satisfying audiences interested in psychologically rich character studies. **Romantic idealism**: It portrays an intense, bohemian love triangle that captures the intoxication of passion and the yearning for connection that transcends societal norms. **Aesthetic pleasure**: The innovative cinematography, lyrical narration, and French New Wave style provide visual and artistic stimulation for cinephiles. **Nostalgia and historical escape**: Set across pre-WWI Belle Époque Paris and interwar Europe, it offers a romanticized glimpse into a bygone era of intellectual and artistic freedom. **Intellectual engagement**: The film raises philosophical questions about the nature of love, freedom, jealousy, and the impossibility of sustaining idealistic relationships, appealing to viewers who enjoy contemplative cinema. **Vicarious freedom**: Catherine's unconventional, capricious character allows viewers to experience rebellion against social constraints and traditional gender roles from a safe</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -22270,6 +24094,18 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W215" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Juror #2
+**Juror #2** satisfies viewers seeking:
+- **Moral complexity**: The film explores ethical dilemmas without easy answers, appealing to audiences who enjoy thoughtful moral quandaries
+- **Suspense and tension**: It delivers courtroom drama and psychological thriller elements that keep viewers engaged
+- **Character-driven storytelling**: Focus on internal conflict and conscience rather than action satisfies those who prefer nuanced character studies
+- **Justice system exploration**: Appeals to viewers interested in legal processes and how personal stakes can compromise objectivity
+- **Relatable protagonist struggles**: The everyman facing an impossible choice resonates with audiences who appreciate grounded, realistic conflicts
+- **Intellectual engagement**: The film challenges viewers to question what they would do in similar circumstances, satisfying those who want mentally stimulating entertainment</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -22366,6 +24202,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W216" t="inlineStr">
+        <is>
+          <t>"Justin de Marseille" (1935) met viewer desires for escapist entertainment during the Great Depression era, offering romanticized gangster adventure set in Marseille's criminal underworld. The film satisfied audiences' fascination with outlaw anti-heroes, exotic Mediterranean locales, and thrilling action sequences. It provided working-class viewers with a charismatic protagonist who defied authority, while delivering the melodrama, romance, and moral justice that 1930s French cinema audiences expected.</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -22474,6 +24315,19 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="W217" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Kangaroo"
+The 1952 film "Kangaroo" meets viewer desires for:
+**Adventure and Escapism** - Set in 1900s Australian outback with action sequences involving cattle drives and confrontations with outlaws
+**Romance** - Features a love story between the main characters amid the frontier setting
+**Exotic Locale** - Provides vicarious travel to Australia's rugged landscape and unfamiliar terrain
+**Western Genre Appeal** - Delivers familiar frontier/western tropes (law vs. lawlessness, rugged individualism) in a novel Australian context
+**Star Power** - Stars Maureen O'Hara and Peter Lawford, appealing to fans of these actors
+**Visual Spectacle** - Filmed in Technicolor, showcasing Australia's dramatic scenery and wildlife
+The film satisfies audiences seeking light entertainment combining romance, adventure, and beautiful cinematography in an unusual setting.</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -22582,6 +24436,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W218" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Killers of the Flower Moon
+**Killers of the Flower Moon** satisfies viewers seeking:
+- **Historical education** - Exposes the little-known Osage murders and systemic exploitation of Native Americans in 1920s Oklahoma
+- **Prestige filmmaking** - Delivers Scorsese's masterful direction with epic scope, meticulous craft, and acclaimed performances
+- **Moral complexity** - Explores betrayal, complicity, and the banality of evil through nuanced character studies rather than simple heroes/villains
+- **Social justice awareness** - Highlights indigenous perspectives and ongoing issues of racism and colonial violence
+- **Epic storytelling** - Provides an immersive, lengthy narrative experience characteristic of serious historical dramas
+- **Star power** - Features Leonardo DiCaprio, Robert De Niro, and Lily Gladstone in compelling roles
+- **Emotional depth** - Offers tragic romance and the devastating personal costs of greed and racism
+The film appeals to audiences valuing substantive, challenging cinema that combines entertainment with historical reckoning and cultural significance.</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -22686,6 +24554,18 @@
           <t>2026-02-25</t>
         </is>
       </c>
+      <c r="W219" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by "Klute"
+**Klute** (1971) satisfies viewers' desire for:
+- **Psychological suspense** - The film delivers tension through its mystery-thriller plot about a detective searching for a missing person
+- **Complex character study** - Jane Fonda's nuanced portrayal of call girl Bree Daniels offers insight into a complicated, flawed protagonist
+- **Atmospheric noir** - The dark, moody cinematography and urban setting appeal to fans of detective/crime dramas
+- **Feminist perspective** - The film explores female autonomy, sexuality, and vulnerability in ways that resonated with early 1970s audiences
+- **Romance within danger** - The developing relationship between the detective and Bree adds emotional depth to the thriller elements
+- **Cerebral mystery** - Viewers seeking an intelligent, character-driven thriller rather than pure action find satisfaction in its deliberate pacing and psychological focus</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -22794,6 +24674,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W220" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Knives Out
+**Knives Out** satisfies several key viewer desires:
+- **Mystery and puzzle-solving**: Provides an engaging whodunit that challenges audiences to piece together clues
+- **Intellectual stimulation**: Delivers clever plot twists and subverted expectations that reward attentive viewing
+- **Social commentary**: Addresses contemporary issues like wealth inequality, immigration, and family privilege in an entertaining way
+- **Escapism with substance**: Offers a visually stylish, star-studded production that's both fun and meaningful
+- **Justice and catharsis**: Delivers satisfying moral resolution where the deserving character prevails
+- **Nostalgia**: Pays homage to classic Agatha Christie-style mysteries while feeling modern and fresh
+- **Entertainment value**: Combines humor, suspense, and drama with charismatic performances that keep viewers engaged throughout</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -22894,6 +24787,18 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W221" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by *Koenigsmark*
+*Koenigsmark* (1935 or 1953 version) satisfies viewers' desires for romantic escapism, period drama spectacle, and melodramatic intrigue. The film appeals to audiences seeking:
+- **Romantic fantasy**: A forbidden love story set against aristocratic European settings
+- **Visual splendor**: Lavish costumes, palatial locations, and nostalgic recreations of pre-WWI or interwar Europe
+- **Melodramatic tension**: Court intrigue, secrets, honor codes, and emotional conflicts between duty and passion
+- **Escapist entertainment**: A departure from everyday life into a world of nobility, grandeur, and heightened emotions
+- **Nostalgic longing**: Evocation of a bygone aristocratic era and "old world" elegance
+The film fundamentally caters to audiences craving emotionally charged romance combined with the glamour of historical European aristocracy.</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -22986,6 +24891,13 @@
           <t>2026-02-25</t>
         </is>
       </c>
+      <c r="W222" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by *Krabi, 2562*
+*Krabi, 2562* satisfies viewers seeking:
+**Intellectual engagement** - The film's meta-narrative structure and blurred reality/fiction boundaries appeal to those who enjoy contemplative, experimental cinema that challenges conventional storytelling. **Authentic cultural insight** - It offers genuine perspectives on contemporary Thai society, tourism's impact, and working-class lives rather than exotic stereotypes. **Visual aesthetics** - The film provides beautiful cinematography of Krabi's landscapes for viewers who appreciate slow cinema and observational documentary styles. **Social commentary** - It meets desires for meaningful critique of tourism commodification, labor conditions, and historical memory in Southeast Asia. **Artistic innovation** - Viewers interested in avant-garde filmmaking find satisfaction in its hybrid documentary-fiction approach and self-reflexive examination of filmmaking itself. The film primarily serves cinephiles and festival audiences rather than mainstream entertainment seekers.</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -23086,6 +24998,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W223" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by L'Atalante
+**L'Atalante** satisfies viewers' desires for:
+- **Visual poetry and artistic beauty** through Jean Vigo's innovative cinematography and dreamlike imagery
+- **Romantic escapism** via the passionate love story between newlyweds Jean and Juliette
+- **Authentic human emotion** in its honest portrayal of relationship conflicts, desire, and reconciliation
+- **Nostalgia and simplicity** through its depiction of life on a canal barge in 1930s France
+- **Eccentric character appeal** embodied by Père Jules, the colorful first mate
+- **Emotional catharsis** as the couple overcomes separation and misunderstanding
+- **Avant-garde experimentation** for cinephiles appreciating early surrealist and poetic realist techniques
+The film meets needs for both artistic sophistication and universal emotional connection.</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -23194,6 +25120,22 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="W224" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by L.A. Confidential
+**L.A. Confidential** satisfies viewers through:
+- **Complex mystery solving** - The intricate noir plot rewards attentive viewers with puzzle-solving satisfaction
+- **Moral ambiguity exploration** - Characters operating in gray areas allow audiences to grapple with ethical complexity
+- **Nostalgia for classic noir** - Evokes golden-age Hollywood while feeling contemporary
+- **Character transformation** - Watching flawed protagonists evolve provides emotional investment
+- **Corruption exposure** - Fulfills the desire to see institutional corruption unveiled and justice served
+- **Period atmosphere** - Rich 1950s Los Angeles setting offers escapist immersion
+- **Intelligent storytelling** - Respects audience intelligence with layered narrative that demands engagement
+- **Cathartic violence** - Stylized action satisfies genre expectations while serving the story
+- **Ensemble dynamics** - Multiple protagonist perspectives create varied emotional entry points
+The film appeals to viewers seeking sophisticated adult entertainment that combines genre thrills with substantive themes.</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -23294,6 +25236,11 @@
           <t>2026-02-06</t>
         </is>
       </c>
+      <c r="W225" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "LOL 2.0: Anne's Golden Hour" in my knowledge base. This title doesn't appear to match any widely known or documented film, so I cannot provide information about what viewer desires or needs it might meet.</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -23402,6 +25349,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W226" t="inlineStr">
+        <is>
+          <t>"La Grazia" (2018) meets viewers' desires for intimate character studies and psychological exploration. The film appeals to audiences seeking contemplative cinema that examines themes of faith, grief, and personal transformation through a minimalist narrative. It satisfies those interested in nuanced performances, particularly of a woman grappling with spiritual crisis after loss, and attracts viewers who appreciate slow-paced, meditative storytelling that prioritizes emotional depth over plot-driven action.</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -23510,6 +25462,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W227" t="inlineStr">
+        <is>
+          <t># Last Year at Marienbad: Viewer Desires Met
+**Last Year at Marienbad** (1961) satisfies viewers seeking:
+- **Intellectual stimulation** through its puzzle-like narrative that invites interpretation and demands active engagement
+- **Aesthetic experience** via stunning black-and-white cinematography, baroque architecture, and meticulously composed frames
+- **Artistic prestige** as a landmark of European art cinema and French New Wave
+- **Ambiguity and mystery** with its deliberately unresolved questions about memory, truth, and identity
+- **Escape from conventional storytelling** through its rejection of linear narrative and Hollywood conventions
+- **Philosophical contemplation** about time, reality, persuasion, and the unreliability of memory
+- **Visual poetry** that prioritizes mood, rhythm, and sensory experience over plot clarity
+The film appeals to cinephiles who value experimental form, interpretive challenge, and cinema as high art rather than straightforward entertainment.</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -23602,6 +25568,13 @@
           <t>2026-02-28</t>
         </is>
       </c>
+      <c r="W228" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by *Le Plaisir*
+Max Ophüls' *Le Plaisir* (1952) satisfies multiple viewer desires:
+**Aesthetic pleasure** - The film offers Ophüls' signature fluid camera movements, elegant compositions, and sumptuous visual style that create pure cinematic beauty. **Literary prestige** - Adapting three Guy de Maupassant stories provides intellectual satisfaction and cultural refinement. **Emotional range** - The anthology structure delivers variety: irony, melancholy, joy, and bittersweet reflection on human nature. **Moral complexity** - Rather than simple judgments, the film offers nuanced observations about pleasure, aging, illusion, and self-deception. **Nostalgia and escapism** - The Belle Époque setting provides romantic distance and visual opulence. **Humanist insight** - The film satisfies the desire to understand human behavior, particularly how people pursue happiness and cope with life's disappointments. Ultimately, *Le Plaisir* meets the sophisticated viewer's need for artful cinema that is both beautiful and philosophically engaging.</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -23706,6 +25679,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W229" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Lesbian Space Princess" in my knowledge base. This may be a fictional title, an obscure or independent film, or possibly content from adult entertainment. Without verified information about this specific film, I cannot accurately describe what viewer desires or needs it might meet.</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -23814,6 +25792,13 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="W230" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires/Needs Met by "Let the Right One In"
+**Let the Right One In** fulfills several key viewer desires:
+1. **Emotional Connection** - The tender, unconventional relationship between two lonely outsiders provides genuine emotional resonance and explores themes of friendship, first love, and acceptance. 2. **Fresh Genre Approach** - It satisfies viewers seeking intelligent horror that subverts vampire movie clichés with atmospheric slow-burn tension rather than cheap scares. 3. **Aesthetic Experience** - The film's hauntingly beautiful cinematography, snowy Swedish setting, and melancholic mood appeal to viewers who appreciate visual artistry and contemplative pacing. 4. **Complex Themes** - It engages viewers intellectually with explorations of isolation, bullying, morality, childhood innocence versus darkness, and the nature of evil. 5. **Authenticity** - The realistic portrayal of childhood bullying and loneliness resonates with viewers' own experiences, while the restrained performances feel genuinely human despite the supernatural elements. 6. **Ambiguity and Discussion** - The film rewards thoughtful viewers who enjoy interpre</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -23906,6 +25891,13 @@
           <t>2026-02-08</t>
         </is>
       </c>
+      <c r="W231" t="inlineStr">
+        <is>
+          <t># Summary
+*Letter from an Unknown Woman* meets viewers' desires for:
+**Romantic tragedy and emotional catharsis** - The film provides a deeply moving, bittersweet love story that allows audiences to experience intense feelings of longing, sacrifice, and loss vicariously. **Escapism and nostalgia** - Max Ophüls' sumptuous recreation of 19th-century Vienna offers visual beauty and transports viewers to an idealized, romantic past. **Identification with unrequited love** - The protagonist's lifelong devotion to someone who doesn't remember her resonates with universal experiences of unreciprocated feelings and the pain of being overlooked. **Melodramatic satisfaction** - The film delivers heightened emotions, moral lessons about selfishness versus devotion, and the tragic consequences of superficiality in relationships. **Aesthetic pleasure** - Ophüls' elegant camera movements, atmospheric lighting, and careful mise-en-scène satisfy viewers seeking cinematic artistry and visual sophistication.</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -23998,6 +25990,11 @@
           <t>2026-02-06</t>
         </is>
       </c>
+      <c r="W232" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Liberty at Night" in my knowledge base. This title doesn't match any widely known or documented film that I'm aware of. Without access to information about this specific film, I cannot provide a summary of what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -24094,6 +26091,12 @@
           <t>2026-02-06</t>
         </is>
       </c>
+      <c r="W233" t="inlineStr">
+        <is>
+          <t># Summary
+*Liebelei* (1933) meets viewers' desires for romantic escapism, emotional drama, and bittersweet tragedy. The film satisfies needs for beautiful cinematography and elegant period settings, while offering a poignant exploration of doomed love that appeals to those seeking emotionally resonant storytelling. It also fulfills cinephile interests in Max Ophüls' masterful direction and early sound cinema aesthetics, providing both entertainment and artistic appreciation through its tragic romance narrative set in turn-of-the-century Vienna.</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -24186,6 +26189,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W234" t="inlineStr">
+        <is>
+          <t>"Life After Siham" meets viewers' desires for authentic human stories about grief, loss, and resilience. The film addresses needs for cultural representation and understanding of Palestinian experiences, while exploring universal themes of family bonds, memory, and healing after tragedy. It satisfies those seeking emotionally genuine documentaries that honor personal stories and examine how communities navigate collective and individual trauma.</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -24294,6 +26302,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W235" t="inlineStr">
+        <is>
+          <t># Viewer Desires and Needs Met by Lilo &amp; Stitch
+**Lilo &amp; Stitch** fulfills several key viewer desires:
+**Emotional connection and belonging** - The film addresses universal needs for family, acceptance, and finding where you fit in, resonating with anyone who has felt like an outsider. **Comfort and hope** - It provides reassurance that broken families and imperfect people can create meaningful bonds, offering emotional healing through its "ohana means family" message. **Humor and entertainment** - The chaotic comedy of Stitch's antics delivers lighthearted fun and escapism. **Representation** - It offers Hawaiian culture and non-traditional family structures, meeting desires for diverse, authentic storytelling. **Catharsis** - The film allows viewers to process feelings about loss, loneliness, and redemption through relatable characters facing real struggles.</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -24390,6 +26405,20 @@
           <t>2026-02-06</t>
         </is>
       </c>
+      <c r="W236" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by "Lissy"
+The 1957 German film "Lissy" meets viewers' desires for:
+1. **Historical drama** - Set during the Weimar Republic era, satisfying interest in interwar German history
+2. **Romance and melodrama** - Following a love story across class divisions
+3. **Social commentary** - Exploring themes of class struggle, economic hardship, and political tensions
+4. **Female protagonist perspective** - Centered on a working-class woman's experiences and agency
+5. **Nostalgia** - For 1950s German audiences, reflecting on recent history
+6. **Moral storytelling** - Addressing ethical choices during politically turbulent times
+7. **Emotional engagement** - Through personal struggles against broader societal forces
+The film appeals to audiences seeking character-driven historical narratives with romantic and social justice themes.</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -24490,6 +26519,19 @@
           <t>2026-02-16</t>
         </is>
       </c>
+      <c r="W237" t="inlineStr">
+        <is>
+          <t># Summary
+*Amélie* (2001) meets viewers' desires for:
+- **Escapism and whimsy** through its fantastical, storybook vision of Paris
+- **Emotional comfort** via its warm, quirky humor and gentle tone
+- **Romantic hope** through Amélie's journey from loneliness to love
+- **Vicarious altruism** by showing small acts of kindness creating joy
+- **Nostalgia and innocence** through its childlike wonder and vintage aesthetic
+- **Connection** by portraying relatable themes of isolation, shyness, and the longing to matter in others' lives
+The film provides a feel-good experience that validates introversion while celebrating human connection and the magic in everyday life.</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -24590,6 +26632,19 @@
           <t>2026-02-15</t>
         </is>
       </c>
+      <c r="W238" t="inlineStr">
+        <is>
+          <t># Summary
+*Amélie* (2001) meets viewers' desires for:
+- **Escapism and whimsy** - A visually enchanting, fairy-tale version of Paris
+- **Emotional warmth** - Feel-good storytelling that celebrates small acts of kindness
+- **Relatability** - A quirky, introverted protagonist who struggles with loneliness and connection
+- **Nostalgia and simplicity** - A retreat to childhood wonder and life's simple pleasures
+- **Hope and meaning** - Reassurance that one person can make a difference and find love
+- **Aesthetic pleasure** - Distinctive visual style with vibrant colors and playful cinematography
+The film provides comfort, joy, and optimism while validating the experiences of outsiders and dreamers.</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -24698,6 +26753,21 @@
           <t>2026-02-28</t>
         </is>
       </c>
+      <c r="W239" t="inlineStr">
+        <is>
+          <t># Little Shop of Horrors: Viewer Desires Met
+**Little Shop of Horrors** satisfies viewers through:
+- **Escapism and fantasy** - A talking alien plant offers a break from reality
+- **Dark comedy and satire** - Combines horror with humor, mocking consumer culture and Faustian bargains
+- **Musical entertainment** - Catchy songs provide joy and emotional engagement
+- **Underdog triumph** - Seymour's initial rise from poverty fulfills wish-fulfillment fantasies
+- **Moral satisfaction** - The cautionary tale about greed and ambition provides ethical closure
+- **Nostalgia** - Evokes 1960s aesthetics and B-movie charm
+- **Romance** - The love story between Seymour and Audrey offers emotional warmth
+- **Spectacle** - Impressive puppetry and special effects deliver visual excitement
+The film blends entertainment with social commentary, appealing to desires for both fun and substance.</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -24806,6 +26876,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="W240" t="inlineStr">
+        <is>
+          <t>"Lolita" (either the 1962 Kubrick or 1997 Lyne version) meets viewers' desires for complex psychological drama, artistic controversy, and literary adaptation. It appeals to those interested in exploring taboo subjects through a critical lens, examining unreliable narration, and appreciating sophisticated cinematography and performances. The film satisfies intellectual curiosity about moral ambiguity, social critique, and the disconnect between a protagonist's self-justification and his predatory actions.</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -24910,6 +26985,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W241" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Long Day's Journey Into Night
+The film satisfies viewers seeking:
+**Emotional catharsis** - Through intense family drama and raw psychological conflict that allows vicarious processing of dysfunction, addiction, and regret. **Artistic prestige** - Eugene O'Neill's acclaimed play offers literary sophistication and theatrical heritage for culturally-minded audiences. **Acting excellence** - Showcases powerful performances exploring complex characters, appealing to those who value dramatic craft. **Psychological depth** - Provides introspective examination of family dynamics, denial, and human frailty for intellectually engaged viewers. **Tragic beauty** - Delivers poetic language and profound darkness that resonates with those drawn to melancholic, serious cinema exploring the human condition.</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -25018,6 +27100,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W242" t="inlineStr">
+        <is>
+          <t>"Looking for Hortense" meets viewers' desires for intimate character studies and observational comedy about middle-aged identity crises. The French film appeals to audiences seeking quiet, nuanced storytelling about professional disappointment, marital strain, and personal reinvention, offering a contemplative exploration of dignity and compromise in everyday life without melodrama or easy resolutions.</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -25122,6 +27209,11 @@
           <t>2026-02-08</t>
         </is>
       </c>
+      <c r="W243" t="inlineStr">
+        <is>
+          <t>"Love &amp; Pop" meets viewer desires for a raw, unflinching exploration of contemporary Japanese youth culture, specifically the practice of enjo kōsai (compensated dating). The film satisfies interests in experimental cinematography and voyeuristic glimpses into Tokyo's underground teenage world, while appealing to those seeking social commentary on consumerism, materialism, and the commodification of relationships. It attracts audiences interested in provocative, boundary-pushing cinema that examines the psychological and emotional disconnection of modern adolescence without moralizing.</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -25216,6 +27308,11 @@
       <c r="V244" t="inlineStr">
         <is>
           <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="W244" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film called "Love Film Festival" in my knowledge base. Without details about this particular film, I cannot accurately describe what viewer desires or needs it meets. If you could provide more context about the film (such as its year, director, or plot), I would be better able to help you with a summary of its appeal to audiences.</t>
         </is>
       </c>
     </row>
@@ -25302,6 +27399,18 @@
           <t>2026-02-13</t>
         </is>
       </c>
+      <c r="W245" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires Love Hotel Meets
+The film *Love Hotel* satisfies viewers' curiosity about intimate, hidden aspects of Japanese culture by offering voyeuristic access to the private world of love hotels. It meets desires for:
+- **Anthropological insight** into modern Japanese relationships, sexuality, and social customs
+- **Visual fascination** with the unique, themed architecture and design of love hotels
+- **Human connection** through candid, unguarded moments between couples
+- **Non-judgmental observation** of diverse relationships (married couples, affairs, sex workers, elderly partners)
+- **Cultural education** about spaces that serve as refuges from Japan's crowded living conditions and social pressures
+The documentary appeals to viewers seeking authentic, intimate storytelling that explores how people navigate love, desire, and connection within specific cultural constraints.</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -25390,6 +27499,17 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W246" t="inlineStr">
+        <is>
+          <t># Summary
+The film **Luise Rainer: Live from the TCM Classic Film Festival** meets viewers' desires for:
+- **Nostalgia and Hollywood history** - Direct access to a rare Golden Age star and two-time Oscar winner
+- **Authenticity and personal connection** - Hearing firsthand stories and insights from Luise Rainer herself rather than through intermediaries
+- **Educational enrichment** - Learning about classic cinema from someone who lived it
+- **Celebrity access** - The unique opportunity to experience a living legend in an intimate festival setting
+- **Preservation of film heritage** - Witnessing a documented moment with one of the last surviving stars from 1930s Hollywood before that generation was lost</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -25498,6 +27618,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W247" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by M3GAN
+**M3GAN** satisfies several key viewer desires:
+1. **Entertainment through horror-comedy blend** - Delivers both scares and campy humor with a self-aware tone
+2. **Technological anxiety exploration** - Taps into contemporary fears about AI, robotics, and over-reliance on technology
+3. **Social commentary consumption** - Addresses themes of parenting, grief, corporate ethics, and childhood development in the digital age
+4. **Creature/villain appeal** - Provides a memorable, meme-worthy antagonist with distinctive personality and style
+5. **Cathartic thrills** - Offers safe exploration of fears about loss of control and technology gone wrong
+6. **Nostalgia for killer doll genre** - Updates classic "evil toy" horror (Child's Play, Annabelle) for modern audiences
+7. **Accessible horror experience** - PG-13 rating allows broader audience to enjoy genre thrills without extreme gore</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -25602,6 +27735,14 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W248" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Magellan"
+The film "Magellan" (2017) appeals to viewers seeking:
+**Intellectual stimulation** through hard science fiction that explores themes of space exploration, artificial intelligence, and first contact with alien life. **Mystery and discovery** as the protagonist investigates strange transmissions from a NASA probe, gradually uncovering deeper cosmic secrets. **Intimate, character-driven storytelling** with a focus on a solitary scientist's personal journey rather than spectacle or action. **Thoughtful pacing** for audiences who appreciate slow-burn, contemplative sci-fi in the tradition of films like "Moon" or "2001: A Space Odyssey."
+**Low-budget indie aesthetics** that prioritize ideas and atmosphere over visual effects, attracting fans of independent filmmaking.</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -25706,6 +27847,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W249" t="inlineStr">
+        <is>
+          <t>"Magellan" (2017) meets viewer desires for cerebral science fiction, philosophical exploration about humanity's place in the universe, and intimate character-driven storytelling. The film appeals to audiences seeking thought-provoking narratives about first contact, artificial intelligence, and existential questions, delivered through a low-budget but ambitious indie sci-fi approach that prioritizes ideas and mystery over spectacle.</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -25806,6 +27952,18 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W250" t="inlineStr">
+        <is>
+          <t># Maigret and the Dead Lover - Viewer Appeal Summary
+The film satisfies viewers' desire for classic detective storytelling through Inspector Maigret's methodical investigation of a murdered stripper. It appeals to those who enjoy:
+- **Cerebral mystery-solving** with a focus on psychological insight rather than action
+- **Atmospheric noir aesthetics** showcasing 1950s Parisian nightlife and criminal underworld
+- **Character-driven narratives** featuring Maigret's patient, empathetic investigative style
+- **Moral complexity** exploring themes of jealousy, passion, and human weakness
+- **Nostalgic entertainment** for fans of mid-century European crime cinema and Georges Simenon's literary detective
+The film provides intellectual engagement through puzzle-solving while offering a window into post-war French society and the timeless appeal of a flawed but principled investigator seeking truth.</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -25910,6 +28068,18 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="W251" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by Mala Noche
+**Mala Noche** appeals to viewers seeking:
+- **Authentic, gritty storytelling** - The film offers raw, unflinching portrayals of marginalized lives in 1980s Portland
+- **LGBTQ+ representation** - It provides honest depiction of gay desire and queer experience, particularly unrequited love
+- **Artistic/indie cinema** - The black-and-white cinematography and experimental style satisfy audiences craving unconventional filmmaking
+- **Social commentary** - It explores themes of class, immigration, exploitation, and power imbalances
+- **Character-driven narrative** - Viewers interested in complex, flawed protagonists and psychological depth
+- **Counterculture perspectives** - The film presents outsider viewpoints and subcultural experiences often excluded from mainstream cinema</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -26018,6 +28188,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W252" t="inlineStr">
+        <is>
+          <t>"Malignant" satisfies viewers' desires for imaginative horror spectacle, over-the-top gore, and shocking plot twists. It appeals to fans seeking campy B-movie thrills elevated by stylish direction, those who enjoy unhinged supernatural mysteries that defy logic, and audiences craving a wild, unpredictable ride that breaks conventional horror rules. The film delivers visceral action sequences, body horror, and a audacious third-act reveal that rewards viewers looking for something gleefully absurd rather than serious scares.</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -26110,6 +28285,11 @@
           <t>2026-02-11</t>
         </is>
       </c>
+      <c r="W253" t="inlineStr">
+        <is>
+          <t>"Mama, I'm Alive" (1985) is a Soviet war film that meets viewers' desires for emotional catharsis, patriotic sentiment, and moral affirmation. It satisfies the need to honor wartime sacrifice and heroism, provides a deeply moving mother-son reunion story that appeals to universal family bonds, and offers hope and redemption through its narrative of a soldier presumed dead who returns home. The film also fulfills desires for historical connection to World War II experiences and validates themes of perseverance, loyalty, and the enduring power of maternal love.</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -26210,6 +28390,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W254" t="inlineStr">
+        <is>
+          <t>"Marry Me" meets viewer desires for escapist romantic fantasy, wish fulfillment, and feel-good entertainment. The film appeals to audiences seeking a lighthearted Cinderella story where an ordinary person connects with a glamorous celebrity, offering hope that genuine love can transcend social barriers. It provides comfort through predictable rom-com tropes, celebrity appeal (Jennifer Lopez and Owen Wilson), catchy music, and an uplifting message about authenticity and second chances in love.</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -26318,6 +28503,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W255" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Marty Supreme." This may be an upcoming or unreleased project, or possibly a title I'm not familiar with. Without details about the film's content, themes, or plot, I cannot determine what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -26426,6 +28616,11 @@
           <t>2026-03-01</t>
         </is>
       </c>
+      <c r="W256" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Marty Supreme." This may be an upcoming project that hasn't been released yet, or the title may be slightly different. Without access to details about the film's plot, themes, or content, I cannot accurately describe what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -26534,6 +28729,11 @@
           <t>2026-02-13</t>
         </is>
       </c>
+      <c r="W257" t="inlineStr">
+        <is>
+          <t>I don't have reliable information about a film called "Marty Supreme" to provide an accurate summary of what viewer desires or needs it meets. This may be an upcoming film that hasn't been released yet, or there may be limited information available about it. Without access to the actual film or credible details about its content and themes, I cannot provide a meaningful summary of its appeal to viewers.</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -26642,6 +28842,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W258" t="inlineStr">
+        <is>
+          <t>I don't have reliable information about a film called "Marty Supreme." This may be an upcoming or obscure film that isn't well-documented yet, or the title may be slightly different. Without accurate details about the film's content, themes, or story, I cannot determine what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -26750,6 +28955,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W259" t="inlineStr">
+        <is>
+          <t>I don't have reliable information about a film called "Marty Supreme." This may be an upcoming or lesser-known project that isn't well-documented yet. Without accurate details about the film's content, themes, or story, I cannot provide a meaningful summary of what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -26858,6 +29068,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W260" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Marty Supreme" to provide an accurate summary of what viewer desires or needs it meets. This could be because the film hasn't been released yet, has limited information available, or I'm not familiar with it in my training data. I cannot provide a reliable summary without accurate information about the film's content and themes.</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -26966,6 +29181,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W261" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Marty Supreme." This may be an upcoming or unreleased film, a very obscure title, or possibly a confusion with another movie name. Without access to details about this specific film, I cannot describe what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -27066,6 +29286,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W262" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Mary Poppins
+**Mary Poppins** fulfills several key viewer desires:
+- **Escapism and fantasy** - Magical adventures, animated sequences, and whimsical characters transport audiences to an enchanting world
+- **Nostalgia and comfort** - Warm family dynamics and cheerful songs evoke feelings of childhood innocence and simpler times
+- **Moral reassurance** - The film affirms family values, showing parents reconnecting with children and finding work-life balance
+- **Entertainment and joy** - Memorable musical numbers, humor, and visual spectacle provide pure enjoyment
+- **Emotional satisfaction** - A heartwarming resolution where the family is restored and relationships are healed
+- **Wonder and imagination** - Celebrates creativity, playfulness, and the magic of believing in the impossible
+The film essentially provides feel-good entertainment while reinforcing traditional family values and the importance of balancing responsibility with joy.</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -27172,6 +29405,19 @@
       <c r="V263" t="inlineStr">
         <is>
           <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="W263" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Mauvais Sang
+**Mauvais Sang** (Bad Blood) fulfills viewers' desires for:
+- **Visual artistry and aesthetic innovation** - Leos Carax's striking cinematography, bold color palettes, and poetic imagery appeal to those seeking cinema as art
+- **Romantic intensity** - The passionate, tortured love story between Alex and Anna satisfies cravings for heightened emotional drama
+- **Youthful rebellion and existential angst** - The film captures the restless energy and philosophical searching of young outcasts
+- **Nostalgic homage** - References to classic French New Wave cinema gratify cinephiles seeking connections to film history
+- **Stylistic experimentation** - Non-linear narrative, expressive performances, and genre-blending (crime thriller meets romance meets art film) attract audiences tired of conventional storytelling
+- **Intellectual engagement** - Metaphorical disease narrative and philosophical themes provide material for interpretation and discussion
+The film primarily serves viewers who value style, mood, and emotional authenticity over plot coherence.</t>
         </is>
       </c>
     </row>
@@ -27262,6 +29508,19 @@
           <t>2026-02-08</t>
         </is>
       </c>
+      <c r="W264" t="inlineStr">
+        <is>
+          <t># Summary: How Memoria Meets Viewer Desires
+**Memoria** appeals to viewers seeking:
+1. **Contemplative, meditative cinema** - Its slow pace and long takes create space for reflection rather than passive consumption
+2. **Sensory/aesthetic experience** - The film prioritizes sound design, visual composition, and atmosphere over traditional narrative
+3. **Intellectual engagement** - It explores themes of memory, time, perception, and consciousness that reward thoughtful interpretation
+4. **Escape from conventional storytelling** - Offers an alternative to plot-driven cinema for those craving artistic experimentation
+5. **Existential exploration** - Addresses feelings of disorientation, alienation, and the search for meaning in modern life
+6. **Immersive soundscapes** - The mysterious recurring sound becomes a character itself, appealing to those who value sonic artistry
+The film satisfies desires for challenging, arthouse cinema that prioritizes atmosphere and philosophy over entertainment.</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -27366,6 +29625,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W265" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by "Memories of Murder"
+**Memories of Murder** satisfies viewers' desires for:
+- **Intellectual engagement** - The complex, unsolved mystery challenges audiences to piece together clues alongside flawed detectives
+- **Atmospheric tension** - Masterful cinematography and pacing create sustained suspense and unease
+- **Social commentary** - The film offers critique of institutional incompetence, authoritarian-era Korea, and systemic failures
+- **Emotional authenticity** - Realistic portrayals of frustration, desperation, and moral ambiguity resonate deeply
+- **Genre subversion** - It deconstructs typical crime thriller conventions by denying closure and easy answers
+- **Cultural insight** - Provides window into 1980s South Korea during a turbulent historical period
+- **Existential reflection** - The unresolved ending prompts contemplation about justice, truth, and human limitations
+The film appeals to viewers seeking sophisticated, thought-provoking cinema that prioritizes realism and thematic depth over conventional satisfaction.</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -27474,6 +29747,12 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W266" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Mercy"
+Without knowing which specific film titled "Mercy" you're referring to (as there are multiple films with this name), I cannot provide an accurate summary of what viewer desires or needs it meets. Different "Mercy" films from various years serve different audience needs - whether horror thrills, emotional drama, psychological tension, or other genres. Please specify the year or director for an accurate response.</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -27582,6 +29861,12 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W267" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Mercy"
+The film "Mercy" (noting there are multiple films with this title) typically satisfies viewers seeking psychological thriller or horror elements with themes of family dysfunction, moral ambiguity, and suspense. It appeals to audiences interested in dark narratives exploring mercy killing, caregiving burdens, or supernatural terror. The film meets desires for tension-filled storytelling, emotional complexity around difficult ethical decisions, and often features strong performances that explore human desperation and the darker aspects of compassion. Viewers drawn to intimate, claustrophobic settings and morally challenging scenarios find these needs fulfilled.</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -27678,6 +29963,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W268" t="inlineStr">
+        <is>
+          <t>"Mermaids" (1990) meets viewers' desires for nostalgic coming-of-age stories, dysfunctional but loving family dynamics, and female-centered narratives. The film appeals to those seeking humor mixed with emotional depth, exploration of identity and sexuality during adolescence, and the comfort of watching flawed characters navigate relationships. It also satisfies desires for strong performances (particularly Cher and Winona Ryder), period piece aesthetics (1960s setting), and ultimately hopeful stories about acceptance and family bonds despite imperfection.</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -27786,6 +30076,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W269" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Midsommar
+**Midsommar** satisfies viewers seeking:
+- **Visceral horror without darkness** - Subverts genre expectations by setting terror in constant daylight
+- **Cathartic breakup narrative** - Provides emotional release through the protagonist's toxic relationship dissolution
+- **Visual/aesthetic stimulation** - Delivers stunning cinematography, production design, and symbolic imagery
+- **Intellectual engagement** - Offers layered symbolism, folklore exploration, and interpretive depth
+- **Emotional processing** - Explores grief, trauma, and belonging in ways that resonate psychologically
+- **Genre innovation** - Appeals to those wanting fresh approaches to horror conventions
+- **Dark wish fulfillment** - The ending provides satisfaction for those who've experienced gaslighting or emotional manipulation in relationships
+The film uniquely combines art-house sensibilities with horror, attracting viewers who want both emotional complexity and disturbing spectacle.</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -27882,6 +30186,11 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="W270" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Militantropos" in my knowledge base. This title doesn't appear to match any widely known or documented film. Without access to information about this specific work, I cannot accurately describe what viewer desires or needs it might meet.</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -27986,6 +30295,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W271" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Million Dollar Legs"
+The 1932 comedy "Million Dollar Legs" meets viewer desires for escapist entertainment, absurdist humor, and satirical commentary. It provides:
+- **Comic relief** during the Great Depression era through zany, nonsensical humor
+- **Satire** of politics, international relations, and the Olympic Games
+- **Fast-paced entertainment** with slapstick comedy and visual gags
+- **Star appeal** featuring W.C. Fields and Jack Oakie
+- **Lighthearted distraction** from real-world problems through its fictional country of Klopstokia and ridiculous plot
+- **Physical comedy** and athletic spectacle that entertains without requiring deep thought
+The film serves viewers seeking laughter, whimsy, and a brief escape into organized chaos and comedic absurdity.</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -28076,6 +30398,17 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W272" t="inlineStr">
+        <is>
+          <t>"Mission" (the title could refer to multiple films) typically meets viewer desires for action, suspense, and heroic narratives. Such films generally satisfy audiences seeking:
+- Excitement through high-stakes scenarios and dangerous missions
+- Escapism via thrilling action sequences and exotic locations
+- Inspiration from characters overcoming obstacles through courage and determination
+- Tension and suspense from life-or-death challenges
+- Patriotic or moral themes about duty, sacrifice, and protecting others
+Without knowing the specific film you're referring to, these represent common viewer needs met by mission-themed movies.</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -28184,6 +30517,12 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W273" t="inlineStr">
+        <is>
+          <t># Mission: Impossible - The Final Reckoning - Viewer Desires Met
+The film satisfies viewers' desire for high-stakes action and spectacular stunts, particularly through Tom Cruise's signature death-defying practical effects. It provides closure and emotional payoff for long-time fans invested in Ethan Hunt's journey across the franchise. The movie delivers escapist entertainment through exotic locations, cutting-edge technology, and impossible missions that offer wish fulfillment of heroism and adventure. It also meets the need for suspense and tension through intricate spy plots, while providing the satisfaction of seeing good triumph over seemingly insurmountable odds. For franchise devotees, it offers nostalgia and the culmination of storylines developed over multiple films.</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -28288,6 +30627,11 @@
           <t>2026-02-13</t>
         </is>
       </c>
+      <c r="W274" t="inlineStr">
+        <is>
+          <t>"Mod Fuck Explosion" is an experimental underground film that appeals to viewers interested in transgressive cinema, punk aesthetics, and avant-garde filmmaking. It meets desires for countercultural content that challenges mainstream filmmaking conventions through its DIY production style, provocative imagery, and rebellious attitude. The film attracts audiences seeking shocking, boundary-pushing entertainment outside traditional narrative structures.</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -28396,6 +30740,11 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="W275" t="inlineStr">
+        <is>
+          <t>"Modern Romance" meets viewers' desires for honest, relatable portrayals of romantic dysfunction and obsessive behavior. The film satisfies needs for comedy that explores the messy reality of relationships rather than idealized romance, offering both uncomfortable recognition and cathartic laughter at the neurotic push-pull dynamics of love and breakups. It appeals to audiences seeking intelligent, character-driven humor that examines emotional vulnerability and the difficulty of letting go.</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -28494,6 +30843,11 @@
       <c r="V276" t="inlineStr">
         <is>
           <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="W276" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Mr. Nobody Against Putin" in my knowledge base. This title doesn't correspond to any widely known or documented film that I'm aware of. Without being able to verify this film exists or access information about its content, I cannot provide an accurate summary of what viewer desires or needs it might meet.</t>
         </is>
       </c>
     </row>
@@ -28584,6 +30938,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W277" t="inlineStr">
+        <is>
+          <t>I don't have any reliable information about a film with that title. Without being able to verify what this film actually is or contains, I cannot provide an accurate summary of what viewer desires or needs it might address.</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -28692,6 +31051,20 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="W278" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by "Mud"
+*Mud* satisfies viewers' desires for:
+- **Coming-of-age storytelling** - Following a boy's loss of innocence and maturation through challenging experiences
+- **Authentic adventure** - Two boys discovering and helping a mysterious fugitive hiding on a river island
+- **Complex morality** - Exploring themes of loyalty, love, redemption, and the gray areas between right and wrong
+- **Southern atmosphere** - Rich, naturalistic depiction of Arkansas river life and culture
+- **Romantic idealism vs. reality** - Examining how love and relationships appear versus how they actually function
+- **Strong performances** - Compelling acting, particularly from Matthew McConaughey and young Tye Sheridan
+- **Father figure dynamics** - Multiple male mentors shaping a boy's understanding of masculinity and honor
+- **Escapism with substance** - An engaging narrative that also provides emotional depth and thoughtful themes</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -28792,6 +31165,11 @@
           <t>2026-02-25</t>
         </is>
       </c>
+      <c r="W279" t="inlineStr">
+        <is>
+          <t>"Mundane History" meets the desires of viewers seeking contemplative, slow cinema that explores themes of intimacy, caregiving, and human connection. The film appeals to those interested in minimalist storytelling, meditative pacing, and observational narratives that examine the quiet transformations occurring in everyday domestic life. It satisfies audiences looking for art-house cinema that prioritizes emotional subtlety and visual poetry over conventional plot-driven entertainment.</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -28896,6 +31274,11 @@
           <t>2026-02-06</t>
         </is>
       </c>
+      <c r="W280" t="inlineStr">
+        <is>
+          <t>"My Father's Shadow" meets viewers' desires for emotional exploration of complex family relationships, particularly the long-term effects of growing up with an absent or emotionally distant father. The film appeals to those seeking cathartic experiences around themes of inherited trauma, identity formation, and the struggle to break free from parental influence. It satisfies needs for psychological insight into how childhood experiences shape adult behavior, while offering hope for healing and self-understanding through confronting painful family legacies.</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -29000,6 +31383,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="W281" t="inlineStr">
+        <is>
+          <t># Summary
+"My Father's Shadow" appeals to viewers seeking emotionally resonant drama about family relationships, particularly the complex dynamics between fathers and children. It satisfies desires for authentic character-driven storytelling that explores themes of legacy, identity, and reconciliation. The film meets needs for introspective cinema that examines how parental influence shapes who we become, offering catharsis for audiences processing their own family histories and the weight of generational expectations.</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -29100,6 +31489,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W282" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "My Life Part 2." This title doesn't correspond to any widely known or documented film in major databases. It's possible you may be thinking of a different title, an independent/obscure production, or there may be a confusion with the title. Without being able to verify this specific film exists, I cannot provide an accurate summary of what viewer needs or desires it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -29204,6 +31598,19 @@
           <t>2026-02-28</t>
         </is>
       </c>
+      <c r="W283" t="inlineStr">
+        <is>
+          <t># My Life as a Zucchini: Viewer Needs Met
+**My Life as a Zucchini** fulfills viewers' desires for:
+- **Emotional catharsis** - The film addresses childhood trauma, loss, and resilience in a gentle yet honest way that allows audiences to process difficult feelings
+- **Hope and healing** - It demonstrates that recovery and finding family/belonging is possible even after adversity
+- **Authentic representation** - Portrays foster children and their experiences with dignity and complexity rarely seen in animation
+- **Visual artistry** - The stop-motion animation style satisfies appreciation for craftsmanship and unique aesthetic beauty
+- **Meaningful content for all ages** - Offers sophisticated storytelling that respects both child and adult viewers' intelligence
+- **Connection and empathy** - Creates understanding for marginalized children and the universal need for love and acceptance
+The film meets the need for stories that acknowledge life's hardships while affirming human goodness and the transformative power of compassion.</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -29294,6 +31701,11 @@
       <c r="V284" t="inlineStr">
         <is>
           <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="W284" t="inlineStr">
+        <is>
+          <t>"My Stolen Planet" is a 2022 documentary that meets viewers' desires for understanding personal stories of displacement, political upheaval, and cultural loss. The film follows a Ukrainian filmmaker's intimate journey documenting life in Mariupol before and during the Russian invasion, satisfying needs for authentic witness testimony, emotional connection to global conflicts, historical documentation, and insight into how war impacts individual lives and identities. It appeals to those seeking human-centered narratives about resilience, memory, and the struggle to preserve one's homeland and personal history in the face of violent conflict.</t>
         </is>
       </c>
     </row>
@@ -29380,6 +31792,11 @@
           <t>2026-02-08</t>
         </is>
       </c>
+      <c r="W285" t="inlineStr">
+        <is>
+          <t>I don't have any information about "Mysterious Thirteen Nights: Chapter 9 - Ghost Story of the Evening Mist Tower" in my knowledge base. This appears to be a specific film that I cannot provide details about, including what viewer desires or needs it might fulfill. To answer your question, I would need access to information about this particular film's content, themes, and reception.</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -29488,6 +31905,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W286" t="inlineStr">
+        <is>
+          <t>The film Napoleon meets viewer desires for epic historical spectacle, including grand battle sequences and lavish period detail. It appeals to those interested in biographical drama about one of history's most famous figures, while also satisfying audiences seeking character-driven exploration of ambition, power, and complex relationships. The film offers both visual grandeur through large-scale cinematography and intimate psychological drama, catering to viewers who enjoy prestige historical epics with strong directorial vision.</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -29582,6 +32004,11 @@
       <c r="V287" t="inlineStr">
         <is>
           <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="W287" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film called "Natchez" in my knowledge base. Without details about this particular film's content, themes, or production, I cannot accurately describe what viewer desires or needs it meets. If you could provide more context about the film (such as release year, director, or genre), I would be better able to help.</t>
         </is>
       </c>
     </row>
@@ -29680,6 +32107,19 @@
           <t>2026-02-26</t>
         </is>
       </c>
+      <c r="W288" t="inlineStr">
+        <is>
+          <t># Summary
+*National Theatre Live: Nye* meets viewers' desires for:
+- **Historical education** about Aneurin Bevan and the founding of Britain's National Health Service
+- **Political inspiration** through the story of social justice achievement
+- **Theatrical excellence** accessible beyond London through the NT Live format
+- **Emotional connection** via Michael Sheen's acclaimed biographical performance
+- **Contemporary relevance** as healthcare debates continue globally
+- **Cultural engagement** with British political heritage and working-class history
+The film satisfies audiences seeking both entertainment and meaningful content about a transformative historical figure and institution.</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -29776,6 +32216,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="W289" t="inlineStr">
+        <is>
+          <t>National Theatre Live: People meets viewers' desires for intelligent contemporary drama exploring themes of class conflict, heritage preservation, and British identity. The witty dialogue and strong performances satisfy audiences seeking sharp social commentary wrapped in entertaining storytelling. It appeals to those who enjoy character-driven narratives about moral ambiguity, family dynamics, and the tension between preserving the past and adapting to modern economic realities. The NT Live format also fulfills the need for accessible, high-quality theatre for audiences who cannot attend London performances in person.</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -29872,6 +32317,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W290" t="inlineStr">
+        <is>
+          <t>National Theatre Live: People meets viewer desires for intelligent, witty dialogue and sharp social commentary about class, heritage, and the tension between preserving history and modern progress. It appeals to audiences who enjoy character-driven theatrical drama, appreciate sophisticated British humor, and are interested in themes about aristocracy in decline, the value of architectural preservation, and generational conflict. The film also satisfies those who want access to high-quality stage performances they might not otherwise be able to see in person.</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -29976,6 +32426,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W291" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by Neptune Frost
+**Neptune Frost** appeals to viewers seeking:
+- **Afrofuturist representation** - A visually stunning celebration of African creativity and futurism
+- **LGBTQ+ narratives** - An intersex protagonist's journey exploring gender fluidity and queer identity
+- **Anti-capitalist themes** - Critique of resource exploitation and corporate imperialism in Africa
+- **Experimental/avant-garde cinema** - Bold musical sequences, surreal visuals, and non-traditional storytelling
+- **Political commentary** - Examination of technology's role in liberation and resistance movements
+- **Unique aesthetic experiences** - Striking DIY costumes, inventive production design, and genre-blending
+- **Counter-cultural cinema** - Alternative to mainstream Hollywood narratives with radical imagination
+The film satisfies audiences looking for politically engaged, visually innovative art cinema that centers marginalized voices and challenges conventional filmmaking.</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -30080,6 +32544,12 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W292" t="inlineStr">
+        <is>
+          <t># Summary
+*News from Home* meets viewer desires for contemplative, meditative cinema and authentic documentary observation. The film appeals to those seeking artistic experimentation with sound and image, offering a hypnotic exploration of urban alienation and immigrant experience through static shots of 1970s New York paired with intimate letters from the director's mother. It satisfies audiences interested in avant-garde filmmaking, personal/autobiographical narrative, and the contrast between physical displacement and emotional connection across distances.</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -30180,6 +32650,12 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W293" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Night Stage"
+"Night Stage" (1950s B-Western) satisfies viewers seeking classic Western entertainment through straightforward action, clear moral conflicts between heroes and villains, and frontier justice themes. It appeals to audiences desiring escapist entertainment with familiar genre conventions including stagecoach robberies, gunfights, and heroic protagonists restoring order. The film meets needs for uncomplicated storytelling, nostalgia for Old West mythology, and the comfort of predictable narrative resolutions typical of B-Westerns from that era.</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -30284,6 +32760,13 @@
           <t>2026-02-13</t>
         </is>
       </c>
+      <c r="W294" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by *Ninotchka*
+*Ninotchka* (1939) satisfies several key viewer needs:
+**Escapism and Romance** - The film offers a charming romantic fantasy about a stern Soviet official softening through love in glamorous Paris, providing relief from pre-WWII anxieties. **Comedy and Entertainment** - Greta Garbo's first comedic role ("Garbo Laughs!") delivers sophisticated humor and witty dialogue that entertains while gently satirizing both Soviet austerity and Western decadence. **Ideological Validation** - For Western audiences, the film affirms capitalist values by showing communism as joyless and rigid, while celebrating individual freedom, luxury, and personal happiness. **Star Appeal** - Viewers get to see the famous dramatic actress Garbo in an unexpected, lighter role, satisfying curiosity and offering fresh appeal. **Wish Fulfillment** - The transformation narrative satisfies the desire to see rigid ideology overcome by human warmth, love, and pleasure—a reassuring message that humanity transcends politics.</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -30392,6 +32875,19 @@
           <t>2026-02-13</t>
         </is>
       </c>
+      <c r="W295" t="inlineStr">
+        <is>
+          <t>"Nirvanna the Band the Show the Movie" meets viewers' desires for:
+- **Absurdist/alternative comedy** that breaks conventional storytelling rules
+- **Guerrilla filmmaking aesthetics** with authentic Toronto locations and improvised public interactions
+- **Meta-humor** that playfully deconstructs film and TV tropes
+- **Underdog narratives** following lovable losers pursuing an impossible dream
+- **Cult entertainment** that rewards niche tastes and offers a sense of discovery
+- **Creative ambition on a shoestring budget**, appealing to DIY sensibilities
+- **Energetic, chaotic humor** that feels unpredictable and boundary-pushing
+The film attracts audiences seeking offbeat, unconventional comedy that defies mainstream formulas.</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -30500,6 +32996,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W296" t="inlineStr">
+        <is>
+          <t>"Nirvanna the Band the Show the Movie" meets viewers' desires for absurdist humor, guerrilla-style filmmaking, and meta-comedy. It appeals to audiences who enjoy unconventional narratives about friendship, creative ambition, and the struggle of artists trying to achieve their dreams. The film satisfies those seeking authentic Toronto locations, improvised comedy, and a playful critique of both indie filmmaking and the music industry, while offering the pleasure of watching lovable underdogs pursue an impossible goal with relentless enthusiasm.</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -30608,6 +33109,11 @@
           <t>2026-02-08</t>
         </is>
       </c>
+      <c r="W297" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "No Other Choice" in my knowledge base. This title doesn't correspond to any widely known or documented film that I can provide accurate details about.</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -30716,6 +33222,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W298" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "No Other Choice" in my knowledge base. This title may refer to an obscure, independent, or regional film, or it could be a film released after my training data cutoff. Without access to information about this specific film, I cannot provide a summary of what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -30824,6 +33335,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W299" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "No Other Choice" in my knowledge base. This title may refer to an obscure, independent, or regional film, or it could be a film released after my training data cutoff. Without access to details about this specific film, I cannot provide an accurate summary of what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -30932,6 +33448,11 @@
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="W300" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "No Other Choice" in my knowledge base. This title may refer to an obscure or independent film, a regional production, or possibly a film known by a different primary title. Without access to details about this specific film, I cannot provide a summary of what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -31040,6 +33561,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W301" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "No Other Choice" in my knowledge base. This could be because it's a lesser-known independent film, a very recent release, or possibly known by a different title. Without access to details about this specific film, I cannot provide an accurate summary of what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -31148,6 +33674,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W302" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "No Other Choice" in my knowledge base. This title doesn't correspond to any widely known or documented film that I can provide accurate information about. Without verifiable details about this specific film, I cannot determine what viewer desires or needs it might meet.</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -31256,6 +33787,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W303" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "No Other Choice" in my knowledge base. This title may refer to an obscure film, a regional production, or possibly a film released after my training data. Without access to details about this specific film, I cannot provide an accurate summary of what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -31364,6 +33900,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W304" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "No Other Choice" in my knowledge base. This could be because it's a lesser-known independent film, a very recent release, or possibly listed under a different title. Without access to details about this specific film, I cannot provide an accurate summary of what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -31472,6 +34013,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W305" t="inlineStr">
+        <is>
+          <t># Viewer Desires and Needs Met by "Nope"
+Jordan Peele's "Nope" satisfies multiple viewer desires:
+**Spectacle and Visual Experience**: The film delivers stunning cinematography and imaginative sci-fi horror imagery, fulfilling the desire for a cinematic event worth seeing on the big screen. **Intellectual Engagement**: It offers layered themes about exploitation, spectacle, surveillance, and humanity's relationship with nature and technology, appealing to viewers who want to analyze and discuss films beyond surface entertainment. **Genre Thrills**: Provides suspense, horror, and science fiction elements that satisfy fans seeking tension and fear in a creative alien encounter narrative. **Social Commentary**: Addresses contemporary issues around content creation, viral fame, and the commodification of trauma, meeting the need for culturally relevant storytelling. **Representation**: Features a Black family at the center of a major sci-fi story, fulfilling desires for diverse protagonists in genre filmmaking. **Mystery and Discovery**: The puzzle-like narrative structure rewards attentive viewers who enjoy piecing together clues and uncovering deeper meanings.</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -31580,6 +34128,21 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W306" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by North by Northwest
+**North by Northwest** satisfies viewers through:
+- **Escapism and Adventure**: Exotic locations and a fast-paced spy thriller narrative
+- **Wish Fulfillment**: An ordinary man becoming heroic and romantically successful
+- **Suspense and Excitement**: Masterful tension through iconic sequences (crop duster, Mount Rushmore)
+- **Sophistication and Style**: Glamorous settings, witty dialogue, and elegant cinematography
+- **Romance**: A compelling love story with sexual chemistry
+- **Humor**: Comic relief balancing tension through mistaken identity and sharp banter
+- **Visual Spectacle**: Hitchcock's innovative cinematography and memorable set pieces
+- **Catharsis**: Clear moral resolution with good triumphing over evil
+The film provides entertainment, emotional engagement, and aesthetic pleasure while allowing audiences to experience danger vicariously from safety.</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -31688,6 +34251,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W307" t="inlineStr">
+        <is>
+          <t>Godard's "Nouvelle Vague" (1990) appeals to viewers seeking intellectual and aesthetic stimulation through experimental cinema. It meets desires for philosophical contemplation about wealth, power, and identity; appreciation of painterly cinematography and visual poetry; engagement with fragmented, non-linear storytelling that rewards active interpretation; and immersion in literary references and linguistic playfulness. The film satisfies cinephiles who value auteur-driven art cinema over conventional narrative and those interested in deconstructing filmic conventions themselves.</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -31796,6 +34364,17 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W308" t="inlineStr">
+        <is>
+          <t>Jean-Luc Godard's "Nouvelle Vague" (1990) meets the desires of art-house cinema enthusiasts seeking intellectual stimulation, visual poetry, and non-linear narrative experimentation. The film appeals to viewers who appreciate:
+- **Aesthetic beauty**: Stunning cinematography with lush natural landscapes and painterly compositions
+- **Philosophical depth**: Meditations on love, class, identity, and mortality
+- **Modernist storytelling**: Fragmented narrative that rewards active interpretation rather than passive consumption
+- **Literary richness**: Dense dialogue filled with literary and philosophical references
+- **Auteur cinema**: Godard's signature style for fans of his late-period experimental work
+The film satisfies cinephiles who value challenging, contemplative cinema over conventional entertainment, offering an immersive sensory and intellectual experience rather than traditional plot-driven satisfaction.</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -31904,6 +34483,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W309" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires Nouvelle Vague Meets
+Jean-Luc Godard's *Nouvelle Vague* (1990) appeals to viewers seeking:
+**Aesthetic/Sensory Experience**: The film offers stunning visual compositions, poetic imagery, and lush natural settings that satisfy desires for pure cinematic beauty over conventional narrative. **Intellectual Engagement**: It attracts audiences who enjoy fragmented storytelling, philosophical dialogue, literary references, and the challenge of interpreting ambiguous meaning. **Artistic Prestige**: Viewers gain cultural capital from engaging with a renowned auteur's late-career experimental work, fulfilling desires for sophistication and art-house credibility. **Emotional Mood**: The film's dreamlike, meditative quality meets needs for contemplative, atmospheric cinema that evokes feeling over plot-driven entertainment. **Cinematic Innovation**: It satisfies cinephiles interested in boundary-pushing filmmaking techniques and deconstruction of traditional narrative conventions.</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -32004,6 +34590,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W310" t="inlineStr">
+        <is>
+          <t>I don't have enough information to provide an accurate summary about a film called "Now Playing." This title is quite generic and could refer to multiple films, or it may be a very obscure or recent release not in my training data.</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -32112,6 +34703,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W311" t="inlineStr">
+        <is>
+          <t>The film Nuremberg meets viewers' desires for historical education about the landmark war crimes trials following World War II, satisfying needs for understanding justice and accountability for atrocities. It appeals to those interested in legal drama, moral questions about punishment and responsibility, and the historical documentation of the Holocaust. The film also fulfills desires to see prominent historical figures portrayed and to witness a pivotal moment when international law was established to address crimes against humanity.</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -32212,6 +34808,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="W312" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Oasis of Now" in my knowledge base. This title doesn't match any widely known or documented film I'm aware of. Without access to information about this specific film, I cannot accurately describe what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -32320,6 +34921,19 @@
           <t>2026-02-23</t>
         </is>
       </c>
+      <c r="W313" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by "Once Upon a Time in America"
+**Once Upon a Time in America** fulfills several key viewer desires:
+1. **Epic storytelling** - The film's sprawling 4-hour narrative across five decades satisfies audiences seeking immersive, ambitious cinema
+2. **Nostalgia and historical reflection** - It offers romanticized glimpses of early 20th century New York and American Jewish immigrant experience
+3. **Complex character study** - Viewers interested in psychological depth get a nuanced exploration of friendship, betrayal, guilt, and memory
+4. **Aesthetic pleasure** - Sergio Leone's masterful direction, Ennio Morricone's haunting score, and stunning cinematography appeal to cinephiles
+5. **Moral ambiguity** - The film satisfies those who appreciate gray-area storytelling without clear heroes or villains
+6. **Emotional catharsis** - The tragic meditation on lost time, broken relationships, and irreversible choices provides profound emotional engagement
+7. **Gangster genre satisfaction** - While subverting expectations, it still delivers the violence, loyalty codes, and criminal enterprise that</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -32428,6 +35042,20 @@
           <t>2026-02-06</t>
         </is>
       </c>
+      <c r="W314" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Once Upon a Time... in Hollywood
+**Once Upon a Time... in Hollywood** satisfies viewer desires for:
+- **Nostalgia**: Recreates 1969 Hollywood's golden age with meticulous period detail
+- **Escapism**: Offers an alternate, wish-fulfillment ending to tragic real events
+- **Star power**: Features charismatic performances from DiCaprio and Pitt
+- **Craftsmanship**: Delivers Tarantino's signature stylistic filmmaking and dialogue
+- **Emotional catharsis**: Provides justice and closure regarding the Manson murders
+- **Behind-the-scenes fascination**: Explores Hollywood industry culture and stunt work
+- **Buddy film satisfaction**: Celebrates male friendship and loyalty
+- **Historical curiosity**: Explores a pivotal cultural moment in American history</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -32536,6 +35164,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W315" t="inlineStr">
+        <is>
+          <t>"One Battle After Another" meets viewers' desires for inspiring underdog stories and sports drama. The film satisfies needs for emotional catharsis through its portrayal of perseverance against adversity, offers escapism through competitive sports action, and provides motivation by showing characters overcoming obstacles through determination and teamwork. It appeals to audiences seeking feel-good narratives about personal growth and triumph.</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -32644,6 +35277,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W316" t="inlineStr">
+        <is>
+          <t>"One Battle After Another" meets viewers' desires for inspirational sports drama by depicting an underdog story of perseverance and determination. The film satisfies needs for emotional catharsis through its portrayal of overcoming adversity, appeals to audiences seeking motivational narratives about fighting against odds, and provides the satisfying arc of personal growth and triumph that resonates with those facing their own challenges.</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -32748,6 +35386,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W317" t="inlineStr">
+        <is>
+          <t># Summary
+*Only Angels Have Wings* (1939) meets viewer desires for:
+**Adventure and excitement** through dangerous mail-flying missions in the Andes, creating constant tension and thrilling aerial sequences. **Romance and emotional drama** via the love triangle between stoic pilot Geoff (Cary Grant), showgirl Bonnie (Jean Arthur), and mysterious Judy (Rita Hayworth), offering both passion and heartbreak. **Masculine camaraderie and professionalism** shown through the tight-knit community of aviators who face death with courage and honor, appealing to viewers who admire loyalty and stoicism under pressure. **Moral complexity** by exploring themes of cowardice, redemption, and sacrifice, particularly through the character seeking to overcome past failures. **Escapism** to an exotic South American setting filled with danger, where characters live by their own code outside conventional society. The film satisfies audiences seeking both visceral thrills and emotional depth within a classical Hollywood framework.</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -32856,6 +35501,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W318" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by *Only God Forgives*
+*Only God Forgives* appeals to viewers seeking:
+**Aesthetic/Artistic Experience**: Highly stylized cinematography, neon-soaked visuals, and deliberate pacing create a hypnotic, art-house atmosphere for those who prioritize visual storytelling over conventional narrative. **Transgressive/Provocative Content**: Extreme violence, moral ambiguity, and disturbing themes satisfy audiences drawn to challenging, uncomfortable cinema that pushes boundaries. **Auteur Cinema**: Fans of director Nicolas Winding Refn's distinctive style appreciate his uncompromising vision and departure from mainstream filmmaking conventions. **Symbolic/Interpretive Engagement**: The film's minimal dialogue and symbolic imagery invite active interpretation, appealing to viewers who enjoy analyzing subtext, mythology, and psychological themes. **Atmospheric Immersion**: The brooding soundtrack and deliberate pace create a meditative, almost trance-like experience for those seeking mood over plot.</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -32964,6 +35616,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W319" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Oppenheimer
+**Oppenheimer** satisfies several key viewer desires:
+**Intellectual Stimulation** - The film explores complex themes of scientific ambition, moral responsibility, and the consequences of technological advancement, appealing to audiences seeking thought-provoking content. **Historical Interest** - It provides insight into a pivotal moment in world history (the Manhattan Project and atomic bomb development), meeting the desire to understand significant historical events. **Biographical Drama** - Viewers interested in real-life figures get an intimate portrait of J. Robert Oppenheimer's personal struggles and achievements. **Visual Spectacle** - Christopher Nolan's technical mastery delivers stunning IMAX cinematography and impressive practical effects, satisfying desires for cinematic artistry. **Moral Complexity** - The film doesn't provide easy answers, appealing to viewers who appreciate ambiguous, morally nuanced narratives about the cost of progress and the burden of world-changing decisions. **Prestige Entertainment** - As an acclaimed, awards-worthy film from a celebrated director with strong performances, it meets desires for culturally significant, high-quality cinema worth discussing.</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -33068,6 +35727,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W320" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires PTU Meets
+**PTU** satisfies viewers seeking:
+- **Atmospheric noir tension** - The film delivers a moody, nocturnal urban experience with minimal dialogue and maximum visual storytelling
+- **Procedural realism** - It offers an unglamorized look at police work, showing routine patrols and institutional dynamics rather than heroic action
+- **Moral ambiguity** - Viewers interested in ethical complexity find characters operating in gray zones without clear heroes or villains
+- **Visual style over exposition** - Johnnie To's deliberate pacing and composed cinematography appeal to those who appreciate formal craftsmanship
+- **Ensemble dynamics** - The film explores group loyalty and professional codes among the PTU unit members
+- **Urban alienation themes** - It captures the loneliness and anxiety of nighttime city life and bureaucratic pressure
+The film serves audiences who prefer contemplative, stylistically rigorous crime cinema over conventional action entertainment.</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -33164,6 +35836,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W321" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Parade"
+Jacques Tati's "Parade" (1974) satisfies viewers seeking:
+- **Nostalgic entertainment** through old-fashioned circus acts and vaudeville performances
+- **Visual comedy** via Tati's signature mime and physical humor
+- **Audience participation fantasy** as the film blurs lines between performers and spectators
+- **Gentle, family-friendly content** without cynicism or adult themes
+- **Artistic authenticity** through its intimate, theatre-based setting and democratic celebration of performance
+- **Escapism** into a whimsical world of simple pleasures and human connection
+The film appeals to those who appreciate observational humor, theatrical tradition, and Tati's humanistic filmmaking style.</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -33266,6 +35951,19 @@
       <c r="V322" t="inlineStr">
         <is>
           <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="W322" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Parasite
+**Parasite** satisfies viewers' desires for:
+- **Social commentary and relevance** - addresses wealth inequality and class division in contemporary society
+- **Intelligent storytelling** - features unpredictable plot twists and genre-bending narrative structure
+- **Visual artistry** - delivers striking cinematography and symbolic production design
+- **Dark humor mixed with tension** - balances comedic moments with suspenseful thriller elements
+- **Emotional catharsis** - provides release through its shocking climax and tragic resolution
+- **Recognition and prestige** - offers cultural cachet as an acclaimed, award-winning film
+- **Universal themes in specific context** - explores relatable class anxieties through a Korean lens that resonates globally</t>
         </is>
       </c>
     </row>
@@ -33344,6 +36042,19 @@
           <t>2026-02-02</t>
         </is>
       </c>
+      <c r="W323" t="inlineStr">
+        <is>
+          <t># Summary
+**Paris, Capital of the XXIst Century** meets viewer desires for:
+1. **Critical economic understanding** - Provides analysis of modern capitalism, wealth inequality, and class structures through Thomas Piketty's lens
+2. **Historical perspective** - Connects 19th-century Paris and its transformations to contemporary urban and economic issues
+3. **Visual storytelling** - Combines archival footage, contemporary images of Paris, and documentary interviews to engage viewers aesthetically
+4. **Intellectual stimulation** - Appeals to audiences seeking thought-provoking content about systemic economic problems
+5. **Social consciousness** - Satisfies those wanting to understand growing disparities between rich and poor in modern cities
+6. **Political awareness** - Addresses concerns about neoliberalism, gentrification, and the concentration of wealth
+The film appeals to viewers who want both educational content about economic inequality and a critical examination of how capitalism shapes urban life and society.</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -33448,6 +36159,13 @@
           <t>2026-02-08</t>
         </is>
       </c>
+      <c r="W324" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Needs Met by *Paris, Texas*
+*Paris, Texas* fulfills several deep viewer desires:
+**Emotional catharsis** - The film provides a profound release through Travis's journey of redemption and reconnection, allowing audiences to experience grief, loss, and healing vicariously. **Visual/aesthetic pleasure** - Wim Wenders' stunning cinematography of American landscapes satisfies the desire for beauty and contemplative imagery. **Intellectual engagement** - The film explores complex themes of identity, masculinity, family dysfunction, and American mythology, rewarding thoughtful viewers. **Authenticity and truth** - The raw, honest performances (especially Harry Dean Stanton) and realistic portrayal of broken relationships meet the need for genuine human stories. **Hope and redemption** - Despite its melancholy, the film offers the possibility of self-awareness, forgiveness, and breaking destructive cycles, fulfilling the desire for meaningful resolution. **Intimacy and connection** - The slowly-building relationships, particularly between Travis and his son, satisfy the human need to witness and believe in authentic bonding.</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -33548,6 +36266,12 @@
           <t>2026-02-10</t>
         </is>
       </c>
+      <c r="W325" t="inlineStr">
+        <is>
+          <t># Summary
+*Passing Through* (1977) meets viewer desires for authentic representation of Black artistic struggles, exploring themes of creative integrity versus commercial compromise in the jazz world. The film satisfies needs for culturally-specific storytelling that addresses systemic racism, artistic authenticity, and the tension between maintaining one's artistic vision and economic survival. It appeals to audiences seeking independent Black cinema that centers African American experiences and the preservation of jazz as a cultural form, while also examining generational conflicts within the Black community about art, politics, and social responsibility.</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -33648,6 +36372,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W326" t="inlineStr">
+        <is>
+          <t># Summary
+**Patrice O'Neal: Elephant in the Room** meets viewer desires for:
+- **Unfiltered, controversial comedy** that tackles taboo subjects without political correctness
+- **Raw honesty** about relationships, gender dynamics, and social issues
+- **Authentic perspective** from a comedian willing to challenge mainstream attitudes
+- **Cathartic release** through humor about uncomfortable truths
+- **Intellectual engagement** with provocative ideas presented through comedy
+- **Escape from sanitized entertainment** and appreciation for boundary-pushing stand-up
+The special appeals to audiences seeking bold, unapologetic comedy that confronts societal norms directly.</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -33744,6 +36481,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W327" t="inlineStr">
+        <is>
+          <t>"Peaches Goes Bananas" is an adult film from the 1970s that meets viewer desires for explicit sexual content and entertainment. The film features adult performer Peaches performing in various sexual scenarios, catering to audiences seeking pornographic material during that era of adult cinema.</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -33852,6 +36594,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W328" t="inlineStr">
+        <is>
+          <t># Summary
+**Pearl** meets viewer desires for psychological horror, character study, and aesthetic pleasure. The film satisfies audiences seeking:
+1. **Origin story fulfillment** - backstory for the villain from *X*
+2. **Visceral horror** - graphic violence and disturbing imagery
+3. **Performance showcase** - Mia Goth's intense, unhinged acting
+4. **Visual artistry** - Technicolor homage to classic Hollywood
+5. **Empathy with darkness** - understanding a villain's tragic descent into madness
+6. **Feminist subtext** - exploration of repressed female ambition and societal constraints
+7. **Cathartic release** - experiencing extreme emotion and violence vicariously
+The film appeals to horror fans, cinephiles appreciating visual homage, and viewers drawn to psychological character examinations.</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -33958,6 +36714,13 @@
       <c r="V329" t="inlineStr">
         <is>
           <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="W329" t="inlineStr">
+        <is>
+          <t># Pee-wee's Big Adventure: Viewer Desires Met
+The film satisfies viewers' desires for:
+**Nostalgia and childlike wonder** - The whimsical, imaginative world appeals to both children and adults seeking escapism and playfulness. **Comedic entertainment** - Paul Reubens' physical comedy and eccentric humor provide pure entertainment and laughter. **Adventure and quest narrative** - The cross-country journey to find a stolen bike fulfills the desire for a heroic mission with obstacles and triumphs. **Quirky, outsider hero** - Pee-wee's unapologetic weirdness resonates with audiences who identify with being different or misunderstood. **Visual creativity** - Tim Burton's distinctive style satisfies those seeking imaginative, surreal, and visually striking cinema. **Simple good vs. evil story** - The straightforward plot offers comfort in clear moral lines and a satisfying resolution.</t>
         </is>
       </c>
     </row>
@@ -34048,6 +36811,13 @@
           <t>2026-02-08</t>
         </is>
       </c>
+      <c r="W330" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by "Peeping Tom"
+"Peeping Tom" (1960) satisfies several viewer psychological needs:
+**Voyeuristic impulses** - The film directly addresses the audience's own act of watching, creating uncomfortable self-awareness about the pleasure derived from observation. **Taboo exploration** - It allows safe engagement with disturbing subjects like violence, sexuality, and psychological deviance from a distance. **Intellectual stimulation** - The meta-cinematic commentary on filmmaking and spectatorship appeals to viewers seeking deeper meaning and artistic sophistication. **Psychological thriller elements** - Provides suspense, mystery, and the satisfaction of understanding a disturbed protagonist's motivations. **Aesthetic appreciation** - Offers technically innovative cinematography and visual storytelling that appeals to cinephiles. The film uniquely implicates viewers in its voyeurism, making them complicit in the act of watching, which both disturbs and fascinates audiences seeking challenging, self-reflexive cinema.</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -34144,6 +36914,11 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="W331" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "People with Wings" in my knowledge base. Without details about this specific film's content, themes, or genre, I cannot accurately describe what viewer desires or needs it meets. If you could provide more context about the film (such as release year, director, or plot details), I might be able to offer a more helpful response.</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -34248,6 +37023,17 @@
           <t>2026-02-28</t>
         </is>
       </c>
+      <c r="W332" t="inlineStr">
+        <is>
+          <t># Perfect Blue: Viewer Desires and Needs Met
+**Perfect Blue** satisfies viewers seeking:
+- **Psychological thriller intensity** - The film delivers suspense, paranoia, and mind-bending twists that keep audiences engaged and unsettled
+- **Exploration of identity and reality** - It examines the blurred lines between perception and truth, appealing to those interested in philosophical questions about selfhood
+- **Commentary on fame and media culture** - The story critiques celebrity obsession, exploitation in entertainment, and the dangers of parasocial relationships
+- **Sophisticated animation for mature audiences** - It demonstrates anime's capacity for adult storytelling beyond mainstream expectations
+- **Visceral emotional experience** - The film provides catharsis through its dark, disturbing atmosphere and shocking moments that challenge viewers' comfort zones</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -34356,6 +37142,12 @@
           <t>2026-02-28</t>
         </is>
       </c>
+      <c r="W333" t="inlineStr">
+        <is>
+          <t># Viewer Desires and Needs Met by "Persuasion"
+The film *Persuasion* satisfies viewers' desires for romantic resolution and second chances, offering emotional catharsis through a love story about reunited lovers overcoming past mistakes. It meets needs for period drama escapism with Regency-era settings and costumes, while exploring themes of regret, personal growth, and the tension between social duty and individual happiness. The story appeals to those seeking thoughtful character development, particularly a mature heroine navigating family pressures and societal expectations, ultimately providing hope that lost opportunities can be reclaimed and true love can endure despite time and obstacles.</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -34460,6 +37252,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W334" t="inlineStr">
+        <is>
+          <t>"Peter Hujar's Day" meets viewers' desires for intimate artistic documentation and nostalgic glimpses into 1970s downtown New York creative culture. The film satisfies interests in photography, LGBTQ+ history, and the bohemian art world by offering a rare, unscripted portrait of the influential photographer Peter Hujar in his natural environment, appealing to those seeking authentic, observational cinema and cultural preservation of a bygone era.</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -34560,6 +37357,12 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W335" t="inlineStr">
+        <is>
+          <t># Summary
+*Picture of Light* meets viewer desires for contemplation, wonder, and authentic exploration. The documentary satisfies curiosity about the Northern Lights while offering a meditative viewing experience that examines the relationship between images and reality. It appeals to those seeking thoughtful, unconventional filmmaking that questions the nature of cinema itself, providing both visual beauty and philosophical depth about humanity's attempt to capture natural phenomena on film.</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -34664,6 +37467,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="W336" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Pillion" in my knowledge base. Without knowing the specific film you're referring to (its plot, themes, or content), I cannot accurately describe what viewer desires or needs it meets. If you could provide more context about this film, I'd be happy to help analyze its appeal to audiences.</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -34768,6 +37576,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="W337" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film called "Pillion" in my knowledge base. Without details about this particular film's content, themes, or style, I cannot accurately describe what viewer desires or needs it meets. If you could provide more context about the film (such as release year, director, or plot), I'd be better able to help.</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -34868,6 +37681,11 @@
           <t>2026-02-06</t>
         </is>
       </c>
+      <c r="W338" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film titled "Pink Cut: Love Me Hard, Love Me Deep" in my knowledge base. Without verifiable details about this film's content, themes, or production, I cannot provide an accurate summary of what viewer desires or needs it might address.</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -34976,6 +37794,13 @@
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="W339" t="inlineStr">
+        <is>
+          <t># Play It Again, Sam - Viewer Desires and Needs Met
+**Play It Again, Sam** fulfills several key viewer desires:
+**Escapism and Wish Fulfillment**: The fantasy sequences with Humphrey Bogart allow viewers to escape into classic Hollywood romance while experiencing the protagonist's idealized coaching. **Relatable Insecurity**: Woody Allen's neurotic, insecure character resonates with audiences who identify with social awkwardness and romantic struggles. **Romantic Comedy Comfort**: The film satisfies the desire for lighthearted romance with humor, providing both laughs and emotional satisfaction through its love triangle resolution. **Nostalgia**: References to *Casablanca* and classic cinema appeal to viewers' longing for Golden Age Hollywood. **Self-Improvement Fantasy**: The transformation arc offers hope that personal growth and romantic success are achievable despite initial inadequacy. **Sophisticated Humor**: Intelligent, dialogue-driven comedy meets the need for wit over slapstick, appealing to audiences seeking cerebral entertainment.</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -35080,6 +37905,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W340" t="inlineStr">
+        <is>
+          <t># Police Story 4: First Strike - Viewer Desires Met
+**Police Story 4: First Strike** satisfies viewers' desires for:
+- **High-octane action and spectacular stunts** - Jackie Chan's signature death-defying sequences, including fights on ladders, snowboard chases, and underwater combat
+- **Physical comedy and entertainment** - Chan's unique blend of martial arts with slapstick humor
+- **International espionage thrills** - A James Bond-style globe-trotting adventure spanning Hong Kong, Ukraine, and Australia
+- **Escapist entertainment** - A fun, fast-paced story that doesn't require deep intellectual engagement
+- **Martial arts excellence** - Impressive choreographed fight scenes showcasing Chan's skills
+- **Visual spectacle** - Exotic locations and creative action set pieces that provide cinematic excitement
+- **Star charisma** - Jackie Chan's likable everyman persona and screen presence
+The film delivers straightforward action-comedy entertainment for audiences seeking thrills, laughs, and impressive physical performances.</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -35182,6 +38021,20 @@
       <c r="V341" t="inlineStr">
         <is>
           <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="W341" t="inlineStr">
+        <is>
+          <t># Police Story 4: First Strike - Viewer Desires and Needs Met
+**Police Story 4: First Strike** (1996) satisfies viewers seeking:
+- **High-octane action and spectacular stunts**: Jackie Chan's signature death-defying physical comedy and fight choreography
+- **Escapist entertainment**: Exotic international locations (Russia, Ukraine, Australia) and globe-trotting spy adventure
+- **Comedic relief**: Chan's trademark blend of humor with action sequences
+- **Accessible storytelling**: Straightforward plot that doesn't require knowledge of previous films
+- **Vicarious thrills**: Dangerous stunts performed without CGI, including the famous ladder fight and underwater sequences
+- **Star power**: Jackie Chan at peak international crossover appeal
+- **Feel-good heroism**: Clear good vs. evil narrative with a likable, resourceful protagonist who triumphs through ingenuity and perseverance
+The film delivers crowd-pleasing martial arts spectacle combined with international intrigue for audiences seeking fun, lighthearted action cinema.</t>
         </is>
       </c>
     </row>
@@ -35268,6 +38121,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W342" t="inlineStr">
+        <is>
+          <t>"Portrait of Maurice Lemaître" appeals to viewers interested in experimental cinema and the Lettrist movement. It satisfies desires for avant-garde art that challenges conventional filmmaking, offers insight into the life and work of a significant but lesser-known artist, and meets the needs of cinephiles seeking intellectual engagement with meta-cinematic concepts and the boundaries between documentary and artistic expression.</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -35368,6 +38226,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W343" t="inlineStr">
+        <is>
+          <t>"Portrait of a Young Girl at the End of the 60s in Brussels" meets viewers' desires for intimate, personal storytelling and nostalgia for the late 1960s era. The film satisfies needs for authentic character-driven narratives that explore coming-of-age themes, female perspectives, and the social and cultural atmosphere of Brussels during a transformative historical period. It appeals to audiences seeking quieter, observational cinema that captures specific time and place with emotional depth and period detail.</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -35472,6 +38335,18 @@
           <t>2026-02-13</t>
         </is>
       </c>
+      <c r="W344" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires/Needs Met by "Possession" (1981)
+**Possession** meets viewers' desires for:
+1. **Intense emotional catharsis** - The film's raw, visceral performances (particularly Isabelle Adjani's) provide an outlet for experiencing extreme psychological states
+2. **Intellectual stimulation** - Its ambiguous symbolism, metaphorical narrative about relationship breakdown, and art-house complexity reward analytical viewing
+3. **Transgressive thrills** - The shocking body horror, taboo sexuality, and disturbing imagery satisfy audiences seeking boundary-pushing cinema
+4. **Artistic appreciation** - Andrzej Żuławski's stylistic flourishes, operatic tone, and bold filmmaking appeal to cinephiles valuing auteur vision
+5. **Allegorical resonance** - The film's layers (Cold War metaphor, commentary on infidelity/divorce, existential horror) provide multiple interpretive frameworks
+The film serves viewers seeking challenging, uncompromising cinema that combines horror genre elements with psychological depth and artistic ambition.</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -35568,6 +38443,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W345" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by "Princes and Princesses"
+Michel Ocelot's "Princes and Princesses" satisfies several viewer desires:
+**Aesthetic pleasure** - The film's distinctive silhouette animation style offers visual beauty and artistic novelty that appeals to audiences seeking creative animation beyond mainstream CGI. **Escapism and fantasy** - Through six fairy tale episodes spanning different cultures and time periods, viewers can immerse themselves in romantic, whimsical worlds of princes, princesses, and magical adventures. **Narrative variety** - The anthology format provides multiple complete stories in one viewing, satisfying desires for both diversity and closure. **Nostalgia and timelessness** - The shadow-puppet aesthetic evokes classic storytelling traditions while feeling fresh, appealing to both children and adults. **Intellectual engagement** - The cultural references and clever narratives reward attentive viewers without being demanding, offering light sophistication. **Emotional warmth** - The romantic, often humorous tales provide feel-good entertainment and gentle comedy that meets desires for uplifting content.</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -35672,6 +38554,18 @@
           <t>2026-02-02</t>
         </is>
       </c>
+      <c r="W346" t="inlineStr">
+        <is>
+          <t># Summary
+*Private Duty Nurses* (1971) meets viewer desires for:
+- **Sexploitation content** - Delivers softcore nudity and erotic scenarios typical of early 1970s exploitation cinema
+- **Taboo appeal** - Explores forbidden sexual situations in medical settings
+- **Counter-culture themes** - Reflects era's interest in youth rebellion, drug culture, and sexual liberation
+- **Escapist entertainment** - Provides low-budget, sensationalized fantasy scenarios
+- **Genre curiosity** - Appeals to fans of Roger Corman's "nurse" exploitation film series
+The film primarily served the drive-in and grindhouse market seeking titillating content with thin narrative justification.</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -35772,6 +38666,13 @@
           <t>2026-02-08</t>
         </is>
       </c>
+      <c r="W347" t="inlineStr">
+        <is>
+          <t># Short Summary: Viewer Desires/Needs Met by "Professor Mamlock"
+The 1938 Soviet film "Professor Mamlock" meets viewers' desires for:
+1. **Social justice and anti-fascist messaging** - The film provides a powerful condemnation of Nazi persecution and racial discrimination, satisfying audiences' need for moral clarity against oppression. 2. **Emotional catharsis** - Through the tragic story of a Jewish doctor who faces persecution in Nazi Germany, viewers experience empathy and emotional release. 3. **Political validation** - For Soviet and anti-Nazi audiences, the film reinforced their ideological opposition to fascism and validated their political beliefs. 4. **Historical awareness** - It educated viewers about the dangers of Nazi ideology and the persecution of Jews in Germany during the 1930s. 5. **Human dignity and resistance** - The protagonist's eventual recognition of injustice and moral awakening satisfies the desire to see characters stand up for principles despite overwhelming odds.</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -35868,6 +38769,12 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W348" t="inlineStr">
+        <is>
+          <t># Summary
+"Promised Sky" meets viewers' desires for inspiring stories about overcoming adversity and pursuing dreams against difficult odds. The film appeals to audiences seeking emotional depth, themes of hope and resilience, and narratives centered on personal transformation. It satisfies the need for uplifting content that explores human perseverance, family relationships, and the pursuit of aspirations despite challenging circumstances.</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -35972,6 +38879,18 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W349" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Psycho
+**Psycho** satisfies several key viewer desires:
+1. **Suspense and fear** - The film delivers intense thrills and psychological terror that audiences seek from horror
+2. **Surprise and shock** - The famous shower scene and plot twists provide unexpected moments that challenge viewer expectations
+3. **Voyeuristic pleasure** - The film allows viewers to safely observe taboo subjects like violence, madness, and sexual transgression
+4. **Intellectual engagement** - The complex psychological themes and narrative structure invite analysis and interpretation
+5. **Catharsis** - Experiencing fear and tension in a controlled environment provides emotional release
+6. **Social bonding** - The film became a cultural phenomenon, giving viewers shared experience and conversation topics</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -36060,6 +38979,19 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="W350" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by Punch-Drunk Love
+**Punch-Drunk Love** satisfies viewers' desires for:
+- **Unconventional romance** - A love story that defies typical rom-com formulas with flawed, anxious characters
+- **Emotional authenticity** - Raw portrayal of loneliness, social anxiety, and vulnerability that feels genuine
+- **Cathartic transformation** - Watching a broken protagonist find love and stand up for himself
+- **Visual and sonic artistry** - Striking cinematography and experimental sound design that create an immersive aesthetic experience
+- **Subverted expectations** - Adam Sandler cast against type in a serious yet quirky role
+- **Hopeful redemption** - The reassurance that even deeply troubled people deserve and can find love
+The film appeals to audiences seeking emotionally complex, visually distinctive cinema that explores mental health and human connection with both tenderness and strangeness.</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -36160,6 +39092,11 @@
           <t>2026-02-18</t>
         </is>
       </c>
+      <c r="W351" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Punku" in my knowledge base. Without access to details about this specific film, I cannot accurately describe what viewer desires or needs it meets. If you could provide more context about the film (such as its year of release, director, or subject matter), I might be able to help better.</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -36266,6 +39203,19 @@
       <c r="V352" t="inlineStr">
         <is>
           <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="W352" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Puss in Boots
+**Puss in Boots** satisfies several key viewer needs:
+- **Escapism and adventure** - The swashbuckling hero and fairy tale world provide exciting fantasy entertainment
+- **Humor and lightheartedness** - The film's comedy and charm offer stress relief and fun for all ages
+- **Nostalgia** - References to familiar fairy tales and the Shrek franchise create comfort through recognition
+- **Admiration for a charismatic hero** - Puss's confidence, skill, and roguish personality fulfill wish-fulfillment fantasies
+- **Family bonding** - Appropriate content for children while entertaining adults makes it ideal for shared viewing
+- **Emotional connection** - Themes of friendship, redemption, and identity provide meaningful character relationships
+- **Visual spectacle** - High-quality animation delivers aesthetic pleasure and eye candy</t>
         </is>
       </c>
     </row>
@@ -36344,6 +39294,11 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="W353" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film called "RBO - Top 40" in my knowledge base. Without details about this particular film's content, format, or purpose, I cannot accurately determine what viewer desires or needs it meets. If you could provide more context about what this film is about, I'd be happy to help analyze its appeal to audiences.</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -36452,6 +39407,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W354" t="inlineStr">
+        <is>
+          <t>"Rabbit Trap" meets viewers' desires for psychological tension and family drama by exploring themes of artistic ambition, marital strain, and the dark side of the music industry. The film appeals to those seeking atmospheric thriller elements combined with commentary on creative exploitation and the costs of fame, while delivering strong performances in an indie horror framework that examines how professional pressures can destabilize personal relationships.</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -36552,6 +39512,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W355" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Rains Over Babel" in my knowledge base. This title doesn't match any widely known or documented film. It's possible this is a very obscure, independent, or recent production, or the title may be slightly different from what I have records of. Without access to information about this specific film, I cannot provide a summary of what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -36648,6 +39613,11 @@
           <t>2026-02-21</t>
         </is>
       </c>
+      <c r="W356" t="inlineStr">
+        <is>
+          <t>I don't have reliable information about a film called "Re-Wind" to provide an accurate summary of what viewer desires or needs it meets. There may be multiple films with similar titles, or this could be a lesser-known production. Without confirmed details about the specific film's content, themes, and audience reception, I cannot provide a meaningful summary of its appeal to viewers.</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -36756,6 +39726,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W357" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Rear Window
+**Rear Window** satisfies several key viewer needs:
+- **Voyeuristic pleasure**: The film indulges the audience's curiosity about others' private lives through the protagonist's window-watching
+- **Mystery and suspense**: It fulfills the desire for puzzle-solving and thrilling investigation
+- **Vicarious adventure**: Viewers experience danger and excitement through the wheelchair-bound protagonist's predicament
+- **Romantic tension**: The Jeff-Lisa relationship provides emotional engagement and relationship drama
+- **Visual storytelling**: Hitchcock's masterful cinematography satisfies aesthetic appreciation
+- **Moral complexity**: The film explores ethical questions about privacy and observation, engaging viewers intellectually
+- **Self-reflection**: It creates awareness of cinema itself as a voyeuristic medium, allowing viewers to examine their own viewing habits
+The film essentially transforms passive movie-watching into an active, self-aware experience while delivering entertainment.</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -36850,6 +39834,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W358" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Receding Hairline" in my knowledge base. This could be because it's a lesser-known independent film, a very recent release, or possibly titled differently than I'm aware of. Without access to details about this specific film, I cannot accurately describe what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -36948,6 +39937,12 @@
       <c r="V359" t="inlineStr">
         <is>
           <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="W359" t="inlineStr">
+        <is>
+          <t># Summary
+"Recollections of the Yellow House" (1989), João César Monteiro's experimental Portuguese film, meets viewer desires for artistic challenge, contemplative cinema, and autobiographical intimacy. It appeals to audiences seeking slow cinema that defies conventional narrative, offering instead a deeply personal meditation on memory, solitude, and the filmmaker's own life. The film satisfies cinephiles interested in European art house cinema, poetic visuals, and philosophical reflection on existence, while providing those drawn to unconventional storytelling with a fragmented, dreamlike exploration of space and self.</t>
         </is>
       </c>
     </row>
@@ -37044,6 +40039,11 @@
       <c r="V360" t="inlineStr">
         <is>
           <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="W360" t="inlineStr">
+        <is>
+          <t>"Recovery" (2016) meets viewers' desires for authentic portrayals of addiction and mental health struggles, offering catharsis through its raw depiction of the recovery process.</t>
         </is>
       </c>
     </row>
@@ -37124,6 +40124,13 @@
       <c r="V361" t="inlineStr">
         <is>
           <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="W361" t="inlineStr">
+        <is>
+          <t># Summary
+"Reklame Reklame - Werbespots der 50er und 60er Jahre" (Advertisements - TV Commercials from the 50s and 60s) meets viewer desires for:
+**Nostalgia**: Audiences can revisit the advertising aesthetics, cultural values, and consumer products of post-war Germany, evoking personal or collective memories of that era. **Historical/Cultural Interest**: The film satisfies curiosity about how marketing evolved, what products were promoted, and how social norms were reflected in mid-20th century advertising. **Entertainment through Kitsch**: Vintage commercials often appear unintentionally humorous or charming by modern standards, providing amusement through their dated styles, jingles, and messaging. **Educational Value**: Viewers interested in media history, graphic design, or social history can study how commercial persuasion techniques and gender roles were portrayed during Germany's economic miracle period.</t>
         </is>
       </c>
     </row>
@@ -37202,6 +40209,18 @@
           <t>2026-02-24</t>
         </is>
       </c>
+      <c r="W362" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by "Religión"
+The film "Religión" (2009), directed by Marcos Carnevale, meets viewer needs for:
+**Emotional catharsis** - Through its exploration of grief and loss as the protagonist copes with his father's death
+**Spiritual questioning** - Addressing existential themes about faith, doubt, and the search for meaning in suffering
+**Comic relief amid darkness** - Blending drama with dark humor to make heavy religious and philosophical themes more accessible
+**Character identification** - Following a relatable journey of someone struggling with inherited beliefs versus personal convictions
+**Cultural reflection** - Examining the role of Catholicism in Argentine society and family dynamics
+The film satisfies audiences seeking thoughtful dramedy that tackles serious religious and philosophical questions while remaining emotionally engaging and occasionally humorous.</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -37310,6 +40329,13 @@
           <t>2026-02-02</t>
         </is>
       </c>
+      <c r="W363" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Resurrection" (2022)
+The psychological thriller "Resurrection" satisfies viewers seeking:
+**Psychological intensity** - The film delivers disturbing mind-bending tension through its exploration of trauma, gaslighting, and psychological manipulation. **Strong female protagonist** - Rebecca Hall's commanding performance as a woman confronting her past provides a complex, empowered central character. **Ambiguity and interpretation** - The deliberately unclear narrative leaves room for multiple readings about what is real versus imagined, appealing to audiences who enjoy analyzing films. **Emotional catharsis** - The film explores themes of maternal protection, abuse survival, and reclaiming power, offering cathartic release for viewers processing similar experiences. **Shocking content** - The increasingly bizarre and grotesque elements satisfy those seeking transgressive, boundary-pushing cinema that provokes strong reactions.</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -37418,6 +40444,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W364" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by "Resurrection" (2022)
+The psychological thriller "Resurrection" satisfies viewers seeking:
+**Psychological intensity and suspense** - The film delivers escalating tension through its mystery about a woman's past trauma resurfacing when a figure from her history reappears. **Complex character study** - It offers a deep exploration of PTSD, control, maternal protection, and the psychology of abuse survivors through Rebecca Hall's compelling performance. **Ambiguity and interpretation** - The film appeals to audiences who enjoy unreliable narratives and debating what's real versus psychological manifestation. **Provocative, boundary-pushing content** - Its disturbing themes and shocking finale attract viewers interested in extreme, uncomfortable cinema that challenges conventional storytelling. **Strong female-led drama** - It centers a woman's perspective on trauma, agency, and the lengths a mother will go to protect her child. **Arthouse/festival film aesthetics** - The deliberate pacing, atmospheric cinematography, and unconventional structure appeal to viewers seeking alternatives to mainstream thriller formulas.</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -37526,6 +40559,18 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="W365" t="inlineStr">
+        <is>
+          <t># Summary
+**Resurrection** (2022) meets viewers' desires for psychological tension and disturbing thrills through its story of a successful woman whose past trauma resurfaces when a threatening figure reappears in her life. The film appeals to audiences seeking:
+- **Psychological horror** with slow-burn suspense and unsettling atmosphere
+- **Complex character study** featuring a powerful lead performance exploring trauma and control
+- **Ambiguous storytelling** that challenges viewers to question reality and interpretation
+- **Provocative, transgressive content** that pushes boundaries and generates strong reactions
+- **Female-centered thriller** examining motherhood, abuse, and psychological manipulation
+The film satisfies needs for cerebral, adult-oriented horror that prioritizes mood and performance over conventional scares.</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -37626,6 +40671,11 @@
           <t>2026-02-06</t>
         </is>
       </c>
+      <c r="W366" t="inlineStr">
+        <is>
+          <t>"Rhubarb" (1951) meets viewers' desires for lighthearted entertainment through its whimsical premise of a cat inheriting a baseball team. The film satisfies needs for feel-good comedy, family-friendly humor, animal charm, and underdog sports stories, while providing escapist entertainment with a simple, uplifting narrative about an unlikely hero bringing success to a struggling team.</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -37726,6 +40776,12 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W367" t="inlineStr">
+        <is>
+          <t>"Right Here Right Now" is a 1999 concert documentary film featuring Fatboy Slim (Norman Cook) performing at various venues during his peak popularity. The film meets viewer desires for:
+**Immersive live music experience** - Capturing the energy and spectacle of electronic dance music concerts for those who couldn't attend or want to relive the performances. **Nostalgia** - Documenting late-90s rave culture and the big beat era at its commercial height. **Connection to the artist** - Providing fans intimate access to Fatboy Slim's performances and stage presence during his most successful period. **Visual and auditory stimulation** - Delivering the euphoric atmosphere of large-scale DJ performances with crowd energy and signature hits like "The Rockafeller Skank" and "Praise You."</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -37824,6 +40880,12 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W368" t="inlineStr">
+        <is>
+          <t># Summary
+The film about Rosa Bonheur meets viewer desires for inspirational biographical storytelling about a pioneering woman artist who defied 19th-century gender conventions. It appeals to audiences interested in art history, feminist narratives, LGBTQ+ representation, and stories of creative determination against societal obstacles. The film satisfies needs for historical education while providing an emotionally engaging portrait of artistic passion and personal authenticity.</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -37928,6 +40990,18 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W369" t="inlineStr">
+        <is>
+          <t># Short Summary
+"Rosa la rose, fille publique" (1986), directed by Paul Vecchiali, meets viewer desires for:
+- **Art cinema aesthetics** - Appeals to audiences seeking formally innovative, non-commercial filmmaking
+- **Social commentary** - Addresses themes of sex work, marginalization, and economic desperation
+- **Character-driven drama** - Focuses on psychological depth and human complexity rather than plot
+- **Alternative perspectives** - Offers representation of marginalized voices rarely centered in mainstream cinema
+- **Emotional authenticity** - Provides raw, unglamorized portrayals that resonate with audiences seeking realism over escapism
+The film primarily serves viewers interested in challenging, socially conscious cinema that explores the humanity of stigmatized individuals.</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -38036,6 +41110,13 @@
           <t>2026-02-08</t>
         </is>
       </c>
+      <c r="W370" t="inlineStr">
+        <is>
+          <t># Summary: How "Running on Empty" Meets Viewer Needs
+**Running on Empty** (1988) fulfills several key viewer desires:
+**Emotional Connection**: The film provides a deeply moving family drama that explores universal themes of parental sacrifice, identity, and the struggle between personal dreams and family loyalty. **Moral Complexity**: It satisfies viewers seeking nuanced storytelling by presenting sympathetic characters living as fugitives—former anti-war radicals on the run—without easy moral judgments. **Coming-of-Age Appeal**: The story of Danny (River Phoenix), a talented pianist who must choose between his musical future and protecting his family, resonates with audiences interested in self-discovery narratives. **Nostalgia and Historical Interest**: It engages viewers interested in 1960s activism and its long-term consequences, exploring how idealism can create lasting complications. **Strong Performances**: The film meets the desire for quality acting, featuring compelling performances that earned Academy Award nominations. **Authentic Human Drama**: It provides an intimate portrait of a family under extraordinary pressure, satisfying viewers who appreciate realistic, character-driven stories over spectacle.</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -38144,6 +41225,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W371" t="inlineStr">
+        <is>
+          <t>"Safe" meets viewers' desires for psychological ambiguity, atmospheric dread, and social critique. The film appeals to those seeking intelligent, unsettling examinations of modern alienation, environmental anxiety, and the inadequacy of self-help culture. It satisfies audiences who appreciate slow-burn tension, open-ended narratives, and portraits of emotional isolation that resist easy answers or conventional resolution.</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -38252,6 +41338,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="W372" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film called "Saipan" in my knowledge base. There have been several films with this title or related to the Battle of Saipan from different years and countries. Without knowing which specific film you're referring to, I cannot accurately describe what viewer desires or needs it meets. If you could provide more details (such as the year, director, or country of origin), I could offer a more helpful response.</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -38344,6 +41435,11 @@
           <t>2026-02-28</t>
         </is>
       </c>
+      <c r="W373" t="inlineStr">
+        <is>
+          <t>"Sam Smith: Dreams Come True" meets viewer desires for intimate access to a celebrity's personal journey, documenting the British singer's rise to fame. It satisfies fans' needs for behind-the-scenes content, emotional connection with the artist's struggles and triumphs, and insight into the creative process behind their music. The film appeals to those seeking inspirational stories of perseverance and authentic self-expression in the music industry.</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -38452,6 +41548,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W374" t="inlineStr">
+        <is>
+          <t>The 2018 film "Samson" meets viewers' desires for faith-based biblical entertainment, providing a dramatized retelling of the Old Testament story of Samson and Delilah. It appeals to Christian audiences seeking inspirational content that explores themes of divine purpose, redemption, faith, personal strength, and overcoming weakness. The film offers action sequences and romance while delivering moral lessons about trusting God and the consequences of betrayal, satisfying viewers looking for family-friendly religious cinema that reinforces their spiritual values.</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -38556,6 +41657,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W375" t="inlineStr">
+        <is>
+          <t>"Scattered Cloud" is a 1967 Japanese film by Mikio Naruse that meets viewers' desires for emotionally nuanced drama about marriage and mortality. It appeals to those seeking contemplative cinema that explores how couples face terminal illness with dignity, restraint, and quiet devotion. The film satisfies needs for realistic portrayals of middle-class life, subtle performances, and bittersweet reflections on love, loss, and the meaning found in everyday moments when confronting death.</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -38656,6 +41762,13 @@
           <t>2026-02-08</t>
         </is>
       </c>
+      <c r="W376" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires/Needs Are Met by the Film *Score*
+The documentary *Score: A Film Music Documentary* (2016) meets several viewer desires:
+1. **Educational curiosity** - It satisfies the desire to understand how film music is created, from composition to recording, revealing the "behind-the-scenes" magic of movie soundtracks. 2. **Appreciation for craft** - It appeals to viewers who want to deepen their respect for film composers and recognize music as an essential storytelling element. 3. **Nostalgia and emotional connection** - The film explores iconic scores from beloved movies, allowing viewers to reconnect with memorable cinematic moments through music. 4. **Insider access** - It provides exclusive interviews with legendary composers (John Williams, Hans Zimmer, Danny Elfman, etc.), fulfilling the desire for expert perspectives and industry insight. 5. **Intellectual engagement** - It appeals to cinephiles and music lovers interested in the intersection of art forms and the technical/creative process behind film production.</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -38762,6 +41875,20 @@
       <c r="V377" t="inlineStr">
         <is>
           <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="W377" t="inlineStr">
+        <is>
+          <t># Scream VI Viewer Desires and Needs
+**Scream VI** satisfies several key viewer desires:
+- **Nostalgia and franchise loyalty** - Long-time fans get callbacks to previous films while following beloved surviving characters
+- **Thrills and suspense** - Delivers intense horror sequences, jump scares, and tension that genre fans crave
+- **Mystery and puzzle-solving** - The "whodunit" structure engages viewers in guessing the killer's identity
+- **Catharsis through survival** - Audiences experience fear safely and root for characters to overcome danger
+- **Social commentary** - Addresses contemporary issues like toxic fandom, franchises, and urban isolation
+- **Spectacle and innovation** - Fresh setting (New York City) and creative kill sequences provide novelty within familiar formula
+- **Community experience** - Offers shared theatrical experience for horror fans to react collectively
+The film balances honoring the franchise's legacy while providing fresh scares for both devoted fans and general horror audiences.</t>
         </is>
       </c>
     </row>
@@ -38852,6 +41979,11 @@
           <t>2026-02-28</t>
         </is>
       </c>
+      <c r="W378" t="inlineStr">
+        <is>
+          <t>I don't have enough information to provide details about a film called "Screen." Without knowing the specific film you're referring to (release date, director, or other identifying details), I cannot accurately describe what viewer desires or needs it meets. If you could provide more context about which film "Screen" you're asking about, I'd be happy to help.</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -38960,6 +42092,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W379" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film called "Seeds" in my knowledge base. There are multiple films with this title from different years and genres. Without knowing which specific "Seeds" film you're referring to (such as the 2018 horror film, or another production), I cannot accurately describe what viewer desires or needs it meets. If you could specify the year, director, or genre, I could provide a more helpful response.</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -39068,6 +42205,19 @@
           <t>2026-02-20</t>
         </is>
       </c>
+      <c r="W380" t="inlineStr">
+        <is>
+          <t># Viewer Needs Met by Selma
+**Selma** fulfills several key viewer desires:
+1. **Historical education** - Provides insight into the 1965 voting rights marches and civil rights movement
+2. **Inspirational storytelling** - Shows ordinary people creating extraordinary change through courage and perseverance
+3. **Social relevance** - Connects past struggles to contemporary issues of racial justice and voting rights
+4. **Emotional engagement** - Delivers powerful human drama through Dr. King's leadership and personal sacrifices
+5. **Representation** - Centers Black voices and perspectives in telling their own history
+6. **Moral clarity** - Affirms viewers' values around justice, equality, and human dignity
+The film meets viewers' needs for meaningful, purposeful cinema that both educates and inspires action.</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -39176,6 +42326,11 @@
           <t>2026-02-05</t>
         </is>
       </c>
+      <c r="W381" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film called "Send Help" in my knowledge base. Without details about this particular film, I cannot accurately describe what viewer desires or needs it meets. If you could provide more context about the film (such as release year, director, or plot details), I would be better able to help you.</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -39284,6 +42439,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W382" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Send Help" in my knowledge base. Without access to details about this specific film, I cannot accurately describe what viewer desires or needs it meets. If you could provide more context about the film (such as its release year, director, or genre), I might be able to offer a more helpful response.</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -39392,6 +42552,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W383" t="inlineStr">
+        <is>
+          <t>"Send Help" is a comedy-thriller series (not a film) that meets viewer desires for dark humor, suspense, and social commentary. It satisfies audiences looking for entertainment that combines survival drama with satirical takes on influencer culture, privilege, and modern social media obsession. The show appeals to viewers who enjoy genre-blending content that mixes tension with comedy, while also offering commentary on contemporary issues like performative activism and the disconnect between online personas and reality.</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -39496,6 +42661,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="W384" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Sentimental Value" in my knowledge base. Without knowing the specific film you're referring to (release year, director, or other details), I cannot provide an accurate summary of what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -39600,6 +42770,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W385" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Sentimental Value" in my knowledge base. Without being able to verify which specific film you're referring to (as there may be multiple works with this title), I cannot accurately describe what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -39704,6 +42879,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W386" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film titled "Sentimental Value" in my knowledge base. This could be a lesser-known, independent, or recent film that I'm not familiar with, or it may be known by a different title. Without details about this particular film, I cannot accurately describe what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -39806,6 +42986,11 @@
       <c r="V387" t="inlineStr">
         <is>
           <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="W387" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Sentimental Value" in my knowledge base. Without knowing the specific film you're referring to (release date, director, or other details), I cannot provide a summary of what viewer desires or needs it meets.</t>
         </is>
       </c>
     </row>
@@ -39890,6 +43075,12 @@
       <c r="V388" t="inlineStr">
         <is>
           <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="W388" t="inlineStr">
+        <is>
+          <t>"Sex, Lies, and Videotape" meets viewer desires for:
+**Psychological insight** - The film explores complex emotional truths about intimacy, honesty, and self-deception in relationships. **Intellectual engagement** - Its dialogue-driven narrative rewards attentive viewers interested in character psychology over spectacle. **Authentic human drama** - It presents flawed, relatable characters grappling with real relationship issues like emotional distance, infidelity, and communication breakdown. **Voyeuristic curiosity** - The videotape conceit explores themes of watching, confession, and hidden desires in a thought-provoking way. **Alternative cinema** - As an influential independent film, it satisfied audiences seeking sophisticated storytelling outside mainstream Hollywood conventions.</t>
         </is>
       </c>
     </row>
@@ -39972,6 +43163,11 @@
           <t>2026-02-02</t>
         </is>
       </c>
+      <c r="W389" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Shallow 1-21" in my knowledge base. This title doesn't match any known major film release. You may be thinking of a different title, or this could be a very obscure or independent film that I'm not familiar with. If you meant a different film, please provide the correct title and I'd be happy to help.</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -40080,6 +43276,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W390" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by "Shelter"
+The film "Shelter" (2007) meets viewer desires for:
+- **Authentic LGBTQ+ representation** - portraying a gay romance that feels genuine and relatable rather than stereotypical
+- **Emotional connection** - offering a heartfelt coming-of-age story about self-discovery and accepting one's identity
+- **Romantic escapism** - providing an uplifting love story with chemistry between the leads
+- **Family drama** - exploring themes of responsibility, sacrifice, and finding balance between personal dreams and obligations
+- **Hopeful storytelling** - delivering a positive narrative where characters overcome obstacles and find happiness, countering tragic LGBTQ+ storylines
+- **Relatable characters** - featuring working-class struggles and everyday challenges that resonate with audiences
+- **Visual appeal** - incorporating Southern California beach culture and surfing aesthetics</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -40184,6 +43393,11 @@
           <t>2026-02-06</t>
         </is>
       </c>
+      <c r="W391" t="inlineStr">
+        <is>
+          <t>**Shocking Dark** (1989), an Italian sci-fi horror film, primarily appeals to viewers seeking low-budget exploitation entertainment and "so-bad-it's-good" camp value. It satisfies desires for trashy B-movie thrills, shameless plagiarism novelty (it brazenly rips off *Aliens* and *Terminator*), and nostalgic 1980s action-horror aesthetics. The film attracts cult movie enthusiasts, bad movie connoisseurs, and fans curious about notorious Italian genre knockoffs from director Bruno Mattei.</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -40288,6 +43502,20 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="W392" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by Shotgun Stories
+**Shotgun Stories** appeals to viewers seeking:
+1. **Authentic rural American drama** - Raw portrayal of working-class Southern life without romanticization
+2. **Character-driven storytelling** - Focus on complex family dynamics and moral ambiguity over action
+3. **Themes of cycles of violence and revenge** - Exploration of how hatred perpetuates across generations
+4. **Minimalist, realistic filmmaking** - Stripped-down aesthetic that emphasizes substance over style
+5. **Emotionally resonant meditation on masculinity** - Examination of damaged men struggling with identity and legacy
+6. **Breaking the revenge cycle narrative** - Satisfaction of seeing characters choose reconciliation over violence
+7. **Discovery of emerging talent** - Introduction to director Jeff Nichols' distinctive voice in independent cinema
+The film serves viewers who appreciate contemplative, humanistic stories about broken families and the possibility of redemption.</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -40380,6 +43608,11 @@
           <t>2026-02-18</t>
         </is>
       </c>
+      <c r="W393" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film titled "Signs of the Times" to provide an accurate summary of what viewer desires or needs it meets. This title could refer to multiple works, and without more context about the specific film (director, year, or subject matter), I cannot give you a reliable answer about its appeal to audiences.</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -40480,6 +43713,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W394" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Silent Friend" in my knowledge base. This could be because it's a lesser-known independent film, a recent release after my training data, or possibly known by a different title. Without access to information about this specific film, I cannot accurately describe what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -40584,6 +43822,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W395" t="inlineStr">
+        <is>
+          <t>"Silvestre" meets viewers' desires for an intimate character study of human resilience and redemption. The film appeals to those seeking authentic portrayals of marginalized individuals, exploring themes of isolation, survival, and the possibility of human connection. It satisfies audiences interested in slow-burning, contemplative cinema that examines social issues like homelessness and aging with dignity and empathy, while offering a quietly hopeful narrative about second chances and personal transformation.</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -40692,6 +43935,12 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W396" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires "Sinners" Satisfies
+"Sinners" (2025) meets viewers' desires for stylish, atmospheric storytelling through its 1930s period setting and horror-thriller elements. The film appeals to fans of director Ryan Coogler's work and stars Michael B. Jordan in dual roles, satisfying audiences seeking compelling performances and fresh takes on vampire mythology. It offers escapist entertainment through genre thrills while exploring themes of identity, morality, and the African American experience during the Jim Crow era, meeting needs for both visceral excitement and meaningful social commentary wrapped in elevated genre filmmaking.</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -40800,6 +44049,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W397" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by "Sinners"
+The film *Sinners* appeals to viewers seeking:
+- **Historical horror** that explores African American experiences through a genre lens
+- **Ryan Coogler's distinctive filmmaking** (director of *Black Panther*, *Creed*)
+- **Dual performance showcase** featuring Michael B. Jordan in twin roles
+- **Atmospheric period storytelling** set in the Jim Crow South (1930s)
+- **Social commentary** blended with supernatural/horror elements
+- **Strong representation** with a predominantly Black cast in a genre film
+- **Stylistic filmmaking** that combines personal drama with terrifying mythology
+The film satisfies audiences looking for elevated horror with cultural resonance and powerful performances.</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -40908,6 +44171,18 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="W398" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Sinners"
+The film *Sinners* meets several key viewer desires:
+1. **Stylistic spectacle** - Ryan Coogler's distinctive visual filmmaking and genre craftsmanship appeal to audiences seeking cinematic artistry
+2. **Star power** - Michael B. Shannon's dual role performance attracts fans of the actor and showcases his range
+3. **Genre thrills** - The horror-thriller elements provide suspense, scares, and entertainment for genre enthusiasts
+4. **Historical immersion** - The 1930s Jim Crow South setting offers period detail and historical exploration
+5. **Social commentary** - Themes about race, morality, and systemic injustice satisfy viewers seeking substance with their entertainment
+6. **Emotional engagement** - The story of twin brothers provides character-driven drama and moral complexity that resonates emotionally</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -41012,6 +44287,11 @@
           <t>2026-02-27</t>
         </is>
       </c>
+      <c r="W399" t="inlineStr">
+        <is>
+          <t>"Sirāt" (2024) is a Moroccan psychological thriller that meets viewers' desires for suspenseful storytelling, exploring themes of guilt, redemption, and moral ambiguity. The film appeals to audiences seeking atmospheric tension, complex character studies, and narratives that delve into the psychological consequences of past actions. It satisfies the need for thought-provoking cinema that examines human nature and ethical dilemmas within a culturally specific context.</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -41116,6 +44396,11 @@
           <t>2026-02-27</t>
         </is>
       </c>
+      <c r="W400" t="inlineStr">
+        <is>
+          <t>"Sirāt" (2024) is a Bangladeshi psychological thriller that meets viewer desires for suspenseful storytelling, moral complexity, and cultural authenticity. The film explores themes of guilt, redemption, and the consequences of past actions through its tense narrative. It appeals to audiences seeking thought-provoking cinema that examines human psychology and ethical dilemmas within a Bengali cultural context, while delivering the tension and unpredictability that thriller fans crave.</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -41220,6 +44505,11 @@
           <t>2026-02-05</t>
         </is>
       </c>
+      <c r="W401" t="inlineStr">
+        <is>
+          <t>"Sirāt" (2016) meets viewers' desires for visceral, suspenseful horror and psychological tension through its claustrophobic setting aboard a hijacked bus. The film satisfies those seeking social commentary on terrorism and religious extremism in a Southeast Asian context, while delivering action-thriller elements and exploring themes of survival, moral choices under duress, and the human cost of violence. It appeals to audiences interested in Malaysian cinema that tackles contemporary political issues through genre filmmaking.</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -41328,6 +44618,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W402" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by *Sisu*
+*Sisu* fulfills viewers' desires for visceral action and revenge satisfaction through its stylized, ultra-violent storytelling. The film appeals to audiences seeking:
+- **Cathartic justice**: Watching an underdog hero brutally defeat clearly evil Nazi antagonists
+- **Spectacular action**: Over-the-top, creative kill sequences and relentless pacing
+- **Simplicity**: A straightforward narrative requiring minimal emotional investment
+- **Empowerment fantasy**: An indestructible protagonist who refuses to be victimized
+- **Dark humor**: Absurdist violence that balances brutality with entertainment
+- **Historical revenge**: Vicarious satisfaction in seeing Nazis meet gruesome ends
+The film provides escapist entertainment through extreme competence porn and righteous violence without moral complexity.</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -41432,6 +44735,11 @@
           <t>2026-02-28</t>
         </is>
       </c>
+      <c r="W403" t="inlineStr">
+        <is>
+          <t>I don't have enough information to provide an accurate answer about a film called "Sky," as there are multiple films with this title from different years and countries. To give you a meaningful response about what viewer desires or needs the film meets, I would need to know which specific "Sky" film you're referring to (director, year, or additional context).</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -41540,6 +44848,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W404" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires "Smile" Meets
+**Smile** (2022) satisfies several key viewer desires:
+1. **Psychological thrills and scares** - Delivers unsettling horror through paranoia and disturbing imagery rather than just jump scares
+2. **Catharsis through trauma exploration** - Explores themes of inherited trauma, guilt, and mental health struggles, allowing viewers to process difficult emotions
+3. **Mystery and puzzle-solving** - Engages audiences with an unfolding curse mystery that demands attention and rewards careful viewing
+4. **Visceral horror experience** - Provides intense, uncomfortable moments that thrill-seekers crave, particularly the eerie smiling antagonists
+5. **Social commentary** - Addresses how society stigmatizes mental illness and trauma, giving depth beyond surface scares
+6. **Suspense and tension** - Maintains sustained dread through atmospheric cinematography and sound design that keeps viewers on edge
+The film appeals to horror fans seeking intelligent, psychological terror with emotional weight rather than purely superficial scares.</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -41648,6 +44969,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W405" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Snow White
+**Snow White** satisfies several key viewer needs:
+- **Escapism**: Transports audiences into a magical fairy tale world with enchanting animation and fantasy elements
+- **Moral reassurance**: Delivers clear good vs. evil storytelling where virtue triumphs and wickedness is punished
+- **Emotional catharsis**: Provides moments of fear, sadness, joy, and relief through Snow White's journey
+- **Nostalgia and comfort**: Offers familiar, timeless storytelling that appeals across generations
+- **Visual wonder**: Showcases groundbreaking animation that creates beauty and spectacle
+- **Hope and romance**: Fulfills desires for true love and happy endings
+- **Humor and lightness**: Provides comic relief through the Seven Dwarfs' personalities and antics
+The film fundamentally meets the human need for stories that affirm goodness, beauty, and the possibility of transformation through adversity.</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -41748,6 +45083,18 @@
           <t>2026-02-11</t>
         </is>
       </c>
+      <c r="W406" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Solo Sunny"
+"Solo Sunny" (1980) fulfills viewers' desires for authentic, character-driven drama about a complex female protagonist struggling against societal constraints. The film meets needs for:
+- **Realistic portrayal** of working-class life in East Germany
+- **Empathy with a flawed but determined individual** pursuing artistic dreams despite obstacles
+- **Social commentary** on conformity, artistic freedom, and women's independence
+- **Emotional depth** exploring loneliness, resilience, and the cost of nonconformity
+- **Authentic performance** by Renate Krößner that feels genuine rather than propagandistic
+The film satisfies audiences seeking thoughtful, humanistic cinema that examines personal struggle within political and social systems without easy resolutions.</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -41856,6 +45203,13 @@
           <t>2026-02-04</t>
         </is>
       </c>
+      <c r="W407" t="inlineStr">
+        <is>
+          <t># Summary: Desires and Needs Met by "Song Sung Blue"
+The documentary "Song Sung Blue" (2008) fulfills viewers' desires for:
+**Emotional connection and inspiration** - The film tells the heartwarming story of a struggling Milwaukee couple who find purpose and joy performing as a Neil Diamond tribute act, offering hope that dreams can be pursued at any stage of life. **Authenticity and relatability** - It showcases real people facing economic hardship and personal challenges, making their journey accessible to everyday audiences. **Nostalgia and musical enjoyment** - The Neil Diamond music throughout appeals to fans while evoking fond memories. **Underdog narrative satisfaction** - Viewers experience the pleasure of rooting for likeable protagonists overcoming obstacles to achieve modest but meaningful success. **Escapism with substance** - The film provides uplifting entertainment while exploring themes of passion, perseverance, and finding dignity in pursuing one's art, regardless of conventional success markers.</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -41964,6 +45318,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="W408" t="inlineStr">
+        <is>
+          <t>"Song Sung Blue" is a documentary that meets viewers' desires for feel-good, uplifting stories about ordinary people pursuing their dreams. It follows a couple who perform as Neil Diamond tribute artists, appealing to audiences seeking authentic human connection, stories of perseverance through hardship, and the transformative power of music. The film satisfies needs for hope, inspiration, and belief that passion and dedication can create meaning and joy even in difficult circumstances.</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -42072,6 +45431,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W409" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Sorry, Baby" in my knowledge base. Without knowing the specific film you're referring to (release year, director, or other details), I cannot provide an accurate summary of what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -42180,6 +45544,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W410" t="inlineStr">
+        <is>
+          <t>I don't have reliable information about a film called "Sound of Falling" to provide an accurate summary of what viewer desires or needs it meets. This title doesn't match any widely known or documented film in my knowledge base. If you could provide additional details like the release year, director, or alternative title, I might be able to help you better.</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -42288,6 +45657,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W411" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film called "Sound of Falling" in my knowledge base. This title doesn't match any widely known or documented film I'm aware of. It's possible this is a lesser-known independent film, a film with a slightly different title, or potentially a very recent release not included in my training data. Without accurate information about this specific film, I cannot provide a reliable summary of what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -42396,6 +45770,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W412" t="inlineStr">
+        <is>
+          <t>Spider-Man meets viewers' desires for escapist entertainment, wish fulfillment through superhero power fantasies, and relatable coming-of-age struggles. The film satisfies needs for clear hero-villain narratives, spectacular action sequences, romance, humor, and inspirational themes about responsibility and using one's abilities for good. It also appeals to nostalgia for the beloved comic book character while providing emotional catharsis through Peter Parker's journey from ordinary teenager to hero who overcomes personal tragedy and self-doubt.</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -42500,6 +45879,22 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W413" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Spirited Away
+**Spirited Away** satisfies viewers' desires for:
+- **Escapism and wonder** - through its richly imagined spirit world and magical transformations
+- **Coming-of-age identification** - following a relatable child protagonist who grows through adversity
+- **Visual beauty** - with stunning hand-drawn animation and imaginative creature designs
+- **Emotional depth** - exploring themes of identity, family, greed, and environmentalism
+- **Adventure and stakes** - through Chihiro's quest to save her parents and survive in a strange world
+- **Nostalgia and innocence** - evoking childhood feelings of being small in an overwhelming adult world
+- **Cultural exploration** - introducing viewers to Japanese folklore and Shinto spiritual concepts
+- **Heroic transformation** - watching a scared, whiny child become brave and capable
+- **Moral satisfaction** - seeing kindness, hard work, and perseverance rewarded
+The film meets the universal need for meaningful storytelling that entertains while offering psychological and emotional resonance.</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -42608,6 +46003,19 @@
           <t>2026-02-18</t>
         </is>
       </c>
+      <c r="W414" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Starman
+**Starman** satisfies viewers' desires for:
+- **Romance and emotional connection** - The touching love story between an alien and a human woman offers heartfelt intimacy
+- **Wonder and hope** - The benevolent alien visitor provides an optimistic view of extraterrestrial contact
+- **Adventure and suspense** - The cross-country chase creates tension and excitement
+- **Fish-out-of-water humor** - The alien learning human behavior provides comedic relief
+- **Redemption and healing** - The widow finds new love and purpose after loss
+- **Escapism** - A fantastical premise that transcends everyday reality
+- **Faith in humanity** - Despite being hunted, the film ultimately portrays human capacity for love and compassion</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -42716,6 +46124,18 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W415" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Starman
+**Starman** fulfills viewers' desires for:
+- **Romance and emotional connection** - The love story between an alien and a widow offers warmth and tenderness
+- **Wonder and escapism** - The sci-fi premise of an alien visitor provides fantasy and imagination
+- **Hope and redemption** - Themes of second chances at love and overcoming grief resonate emotionally
+- **Adventure** - The cross-country chase creates excitement and tension
+- **Humanity reflection** - The outsider perspective allows viewers to see human nature and culture through fresh eyes
+- **Compassion and understanding** - The film celebrates empathy, kindness, and connection across differences</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -42808,6 +46228,11 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="W416" t="inlineStr">
+        <is>
+          <t>I don't have enough information to provide an accurate answer about a film called "Stars." There are multiple films with this title from different years and countries. Without knowing which specific film you're referring to (such as the director, year of release, or country of origin), I cannot reliably describe what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -42908,6 +46333,11 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="W417" t="inlineStr">
+        <is>
+          <t>I don't have any reliable information about a film called "Stitch Head." There may be a book series by this name by Guy Bass, but I cannot confirm the existence of a film adaptation or describe what viewer needs it would meet without verified information about such a production.</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -43012,6 +46442,19 @@
           <t>2026-02-25</t>
         </is>
       </c>
+      <c r="W418" t="inlineStr">
+        <is>
+          <t># Stop Making Sense: Viewer Desires Met
+**Stop Making Sense** (1984) fulfills viewers' desires for:
+- **Pure musical experience**: An uninterrupted concert film showcasing Talking Heads' energetic performances without narrative distractions
+- **Visual spectacle**: David Byrne's iconic oversized suit and innovative staging create memorable, artistic imagery
+- **Authenticity**: Raw, live performance energy that makes viewers feel present at the concert
+- **Joy and escapism**: High-energy music and Byrne's eccentric charisma provide entertainment and emotional uplift
+- **Artistic innovation**: Experimental filmmaking that elevates the concert film genre beyond simple documentation
+- **Connection**: Intimate access to a beloved band at their creative peak
+The film satisfies both casual music fans seeking entertainment and cinephiles appreciating groundbreaking documentary filmmaking.</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -43108,6 +46551,18 @@
           <t>2026-02-04</t>
         </is>
       </c>
+      <c r="W419" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by "Stormy Weather" (1943)
+**Stormy Weather** fulfills several key viewer desires:
+1. **Musical Entertainment** - Features spectacular song and dance numbers by legendary Black performers including Lena Horne, Bill "Bojangles" Robinson, Cab Calloway, and the Nicholas Brothers
+2. **Cultural Representation** - Showcases African American talent and artistry during an era of limited Hollywood opportunities for Black performers
+3. **Escapism** - Provides glamorous, energetic entertainment through jazz, tap dancing, and elaborate musical sequences
+4. **Historical Documentation** - Preserves performances by artists at their peak, serving as a cultural time capsule of Black entertainment history
+5. **Technical Spectacle** - Delivers visually impressive choreography, particularly the famous Nicholas Brothers staircase routine
+The film primarily satisfies desires for joyful musical entertainment while offering rare mainstream visibility for Black artistic excellence in 1940s cinema.</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -43212,6 +46667,21 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W420" t="inlineStr">
+        <is>
+          <t># Summer Wars: Viewer Desires and Needs Met
+**Summer Wars** satisfies viewers' desires for:
+- **Family connection and multigenerational bonds** - showcasing the strength found in extended family unity
+- **Escapist fantasy** - blending everyday life with a vibrant virtual world (OZ)
+- **High-stakes adventure** - providing tension through a digital crisis that threatens global infrastructure
+- **Romance and coming-of-age** - following a relatable teenage protagonist navigating social anxiety and first love
+- **Visual spectacle** - delivering stunning, colorful animation that contrasts traditional rural Japan with futuristic cyberspace
+- **Emotional catharsis** - balancing humor, excitement, and poignant moments of loss and triumph
+- **Themes of teamwork and resilience** - demonstrating how diverse skills and cooperation overcome seemingly impossible challenges
+- **Nostalgia and tradition** - celebrating Japanese cultural heritage while embracing modern technology
+The film appeals to audiences seeking both entertainment and meaningful messages about community, identity, and human connection in the digital age.</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -43308,6 +46778,11 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="W421" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film called "Sun Seekers" in my knowledge base. Without details about this particular film's content, themes, or target audience, I cannot accurately describe what viewer desires or needs it meets. If you could provide more context about the film (such as its genre, release year, or subject matter), I could offer a more informed response.</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -43416,6 +46891,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W422" t="inlineStr">
+        <is>
+          <t># Summary
+**Sympathy for Mr. Vengeance** meets viewer desires for:
+1. **Moral complexity and ambiguity** - The film challenges simple notions of right/wrong, forcing audiences to grapple with ethical gray areas where both protagonist and antagonist have sympathetic motivations. 2. **Visceral emotional catharsis** - Through intense tragedy and violence, it provides an outlet for processing feelings about injustice, grief, and retribution. 3. **Social critique** - It satisfies intellectually engaged viewers seeking commentary on class inequality, exploitation, and systemic failures in modern society. 4. **Revenge narrative satisfaction** - Despite its critical stance, the film delivers the primal appeal of watching characters pursue vengeance, even while deconstructing the cycle's futility. 5. **Artistic cinema experience** - Park Chan-wook's stylistic direction, dark humor, and unflinching approach appeal to audiences seeking challenging, auteur-driven filmmaking rather than conventional entertainment. The film ultimately serves viewers who want provocative, emotionally demanding cinema that interrogates human nature's darkest impulses.</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -43524,6 +47006,18 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W423" t="inlineStr">
+        <is>
+          <t># Viewer Desires/Needs Met by "Take Shelter"
+**Take Shelter** fulfills viewers' psychological and emotional needs through:
+1. **Catharsis** - Processing anxieties about economic instability, mental illness, and protecting loved ones in uncertain times
+2. **Ambiguity and interpretation** - The ending's deliberate uncertainty satisfies viewers who enjoy analytical thinking and discussion
+3. **Authentic human drama** - Witnessing a realistic portrayal of psychological struggle and marital strain under pressure
+4. **Apocalyptic/disaster fascination** - Engaging with primal fears about catastrophic events and survival
+5. **Empathy and understanding** - Gaining insight into the experience of mental illness and the burden of family responsibility
+6. **Artistic appreciation** - Experiencing deliberate pacing, strong performances, and striking visual metaphors that reward patient, attentive viewing</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -43620,6 +47114,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W424" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by Tales of the Night
+Michel Ocelot's *Tales of the Night* fulfills several key viewer desires:
+**Escapism and Wonder** - The film transports audiences into fantastical worlds featuring werewolves, princesses, Aztec temples, and magical realms, offering pure imaginative escape from reality. **Visual Beauty** - Its distinctive silhouette animation style with vibrant backdrops creates stunning, artistic imagery that appeals to aesthetically-minded viewers. **Nostalgic Storytelling** - The anthology format recalls classic fairy tales and oral storytelling traditions, satisfying those who appreciate timeless narrative structures. **Universal Themes** - Stories exploring love, courage, justice, and transformation resonate emotionally across ages and cultures. **Family-Friendly Entertainment** - The film provides sophisticated yet accessible content suitable for both children and adults seeking wholesome viewing. **Creative Inspiration** - The inventive visual approach and imaginative storytelling spark creativity in viewers, particularly appealing to artists and dreamers.</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -43728,6 +47229,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W425" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by TMNT: Out of the Shadows
+**Teenage Mutant Ninja Turtles: Out of the Shadows** satisfies several key viewer needs:
+**Escapism and Fun** - Provides lighthearted, colorful action-adventure that allows audiences to disconnect from reality through fantastical scenarios. **Nostalgia** - Appeals to fans who grew up with the franchise, delivering familiar characters like Bebop, Rocksteady, and Krang from the original cartoons. **Spectacle and Action** - Delivers high-energy set pieces, visual effects, and combat sequences that provide pure entertainment excitement. **Family-Friendly Entertainment** - Offers accessible humor and adventure suitable for children while entertaining accompanying adults. **Wish Fulfillment** - Features themes of teamwork, brotherhood, and underdog heroes overcoming obstacles, allowing viewers to experience empowerment vicariously. **Comedy Relief** - Provides humor and comedic characters that satisfy the desire for laughter and not taking itself too seriously.</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -43832,6 +47340,11 @@
           <t>2026-02-13</t>
         </is>
       </c>
+      <c r="W426" t="inlineStr">
+        <is>
+          <t>"Terminal USA" meets viewer desires for transgressive, darkly comedic satire that subverts traditional Asian American representation and middle-class family narratives. The film appeals to audiences seeking experimental, provocative cinema that challenges stereotypes through absurdist humor, graphic content, and deliberately offensive imagery. It satisfies viewers interested in underground/cult films, queer cinema, and works that critique assimilation and model minority myths through shock value and cultural parody.</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -43940,6 +47453,13 @@
           <t>2026-02-06</t>
         </is>
       </c>
+      <c r="W427" t="inlineStr">
+        <is>
+          <t># Viewer Desires/Needs Met by The Adventures of Priscilla, Queen of the Desert
+**The Adventures of Priscilla, Queen of the Desert** fulfills several key viewer desires:
+**Escapism and spectacle** - The film offers vibrant costumes, elaborate drag performances, and stunning Australian outback cinematography that provide visual pleasure and entertainment. **Representation and visibility** - It meets LGBTQ+ audiences' need to see themselves reflected on screen through authentic queer characters and drag culture. **Humor and joy** - The comedy and camp elements satisfy the desire for laughter and lightheartedness around topics often treated with solemnity. **Emotional connection** - Through its exploration of friendship, acceptance, family reconciliation, and self-discovery, it provides emotional resonance and catharsis. **Social validation** - The film addresses desires for tolerance and acceptance by depicting marginalized characters sympathetically and showing their humanity. **Adventure and journey narratives** - The road-trip structure satisfies the universal appeal of transformation through travel and new experiences.</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -44044,6 +47564,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W428" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires "The Aviator's Wife" Meets
+Eric Rohmer's film satisfies viewers seeking:
+**Intellectual engagement** - The film offers thoughtful dialogue exploring perception, jealousy, and the unreliability of interpretation through its philosophical conversations. **Observational realism** - It appeals to those who appreciate naturalistic storytelling, casual Paris settings, and the rhythms of everyday life rather than dramatic plot mechanics. **Romantic ambiguity** - Viewers interested in nuanced, unresolved relationship dynamics find satisfaction in its exploration of obsession and uncertainty in love. **Character study** - The film rewards those who enjoy psychological portraits of flawed, relatable characters navigating self-deception and youthful confusion. **Aesthetic simplicity** - Audiences valuing understated cinematography and conversational cinema over spectacle are drawn to Rohmer's minimalist approach.</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -44150,6 +47677,21 @@
       <c r="V429" t="inlineStr">
         <is>
           <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="W429" t="inlineStr">
+        <is>
+          <t># The Banshees of Inisherin - Viewer Needs Met
+**The Banshees of Inisherin** satisfies viewers seeking:
+- **Dark comedy with depth** - blending Irish humor with existential themes
+- **Character-driven storytelling** - focusing on complex human relationships and isolation
+- **Philosophical exploration** - examining life's meaning, legacy, and the artist vs. ordinary person divide
+- **Stellar performances** - showcasing Colin Farrell and Brendan Gleeson's acting craft
+- **Beautiful cinematography** - offering stunning Irish landscape visuals
+- **Tragicomic tone** - appealing to those who appreciate melancholy mixed with absurdist humor
+- **Intimate, dialogue-rich cinema** - for audiences valuing conversation and subtext over action
+- **Themes of loneliness and rejection** - resonating with anyone who's experienced friendship loss or felt misunderstood
+The film appeals to art-house audiences wanting thoughtful, well-crafted cinema that lingers in the mind long after viewing.</t>
         </is>
       </c>
     </row>
@@ -44232,6 +47774,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W430" t="inlineStr">
+        <is>
+          <t>"The Bear and the Bird" meets viewers' desires for gentle, wordless storytelling through beautiful animation. It appeals to those seeking heartwarming tales of unlikely friendship, nature-based narratives, and universal themes that transcend language barriers. The film satisfies needs for family-friendly content, emotional connection through visual storytelling, and accessible entertainment that can be enjoyed across cultures and age groups.</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -44332,6 +47879,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W431" t="inlineStr">
+        <is>
+          <t># Summary
+This film meets viewers' desires for:
+1. **Film history education** - Learning about classic Hollywood filmmaking and the career of director Andre De Toth
+2. **Expert insight** - Hearing from noted film historian Anthony Slide's scholarly perspective
+3. **Western genre appreciation** - Understanding the significance of "The Indian Fighter" within the Western film tradition
+4. **Behind-the-scenes knowledge** - Discovering production details and directorial choices
+5. **Nostalgia** - Connecting with classic 1950s cinema
+6. **Critical analysis** - Gaining deeper appreciation of cinematic technique and storytelling
+The film serves cinephiles and film students seeking authoritative commentary on overlooked or underappreciated works in cinema history.</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -44428,6 +47988,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W432" t="inlineStr">
+        <is>
+          <t># Summary
+**The Big Bad Fox and Other Tales** meets viewers' desires for:
+- **Wholesome family entertainment** - Gentle humor and heartwarming stories suitable for all ages without cynicism or crude content
+- **Charming escapism** - A whimsical, hand-drawn animated world that offers comfort and nostalgia
+- **Emotional warmth** - Stories about unlikely friendships, found families, and characters learning to care for others
+- **Light comedy relief** - Slapstick humor and absurd situations that entertain without being mean-spirited
+- **Visual artistry appreciation** - Beautiful watercolor-style animation that appeals to those who value craftsmanship
+- **Simple storytelling** - Straightforward narratives that provide relaxation without complex plots or dark themes
+The film serves as comfort viewing that leaves audiences feeling uplifted and delighted.</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -44534,6 +48107,13 @@
       <c r="V433" t="inlineStr">
         <is>
           <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="W433" t="inlineStr">
+        <is>
+          <t># The Black Phone: Viewer Desires and Needs Met
+**The Black Phone** satisfies several key viewer desires:
+**Suspense and Thrills**: Delivers intense horror-thriller entertainment through a kidnapping premise that keeps audiences on edge. **Supernatural Intrigue**: Fulfills fascination with paranormal elements through the mysterious phone connecting the living and dead. **Empowerment Narrative**: Meets the desire to see a vulnerable protagonist (a young boy) gain strength and agency against evil. **Justice and Revenge**: Satisfies the need to see a predator brought to justice and victims avenged. **Nostalgia**: Appeals to viewers seeking 1970s period atmosphere and aesthetic. **Emotional Catharsis**: Provides release through tension, fear, and ultimate triumph over evil. **Coming-of-Age Resonance**: Connects with audiences through themes of childhood trauma, resilience, and survival.</t>
         </is>
       </c>
     </row>
@@ -44616,6 +48196,13 @@
           <t>2026-02-21</t>
         </is>
       </c>
+      <c r="W434" t="inlineStr">
+        <is>
+          <t># The Bride of Frankenstein: Viewer Desires and Needs Met
+**The Bride of Frankenstein** (1935) satisfies several key viewer desires:
+**Entertainment through spectacle**: The film delivers Gothic horror imagery, memorable set pieces, and groundbreaking special effects that create visual excitement. **Emotional engagement**: The Monster's loneliness and yearning for companionship evoke sympathy, allowing viewers to connect with an outcast figure and explore themes of rejection and belonging. **Intellectual stimulation**: The film raises questions about creation, responsibility, and what it means to be human, offering philosophical depth beyond simple horror. **Escapism**: The fantastical story and elaborate period setting provide an escape from everyday reality into a dark, imaginative world. **Cathartic release**: The horror elements allow viewers to experience fear safely, while the tragic ending provides emotional catharsis. **Social commentary**: The film addresses themes of isolation, prejudice, and the consequences of "playing God," allowing viewers to reflect on societal issues through metaphor.</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -44720,6 +48307,18 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="W435" t="inlineStr">
+        <is>
+          <t># Summary
+**The Business of Fancydancing** meets viewer desires for authentic Native American representation and exploration of identity conflicts. The film appeals to audiences seeking:
+- **Cultural authenticity** - Stories by and about Indigenous people told from an insider perspective
+- **LGBTQ+ representation** - Exploration of queer identity within Native American communities
+- **Complex character studies** - Examination of the tension between artistic success and cultural loyalty
+- **Independent/art house cinema** - Poetic, non-mainstream storytelling that prioritizes themes over plot
+- **Social commentary** - Critique of cultural appropriation, assimilation, and the costs of "making it" in mainstream society
+The film particularly resonates with viewers interested in intersectional identity struggles and those seeking alternatives to Hollywood's typical portrayal of Native Americans.</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -44828,6 +48427,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W436" t="inlineStr">
+        <is>
+          <t># The Cabin in the Woods: Viewer Desires Met
+**The Cabin in the Woods** satisfies several key viewer desires:
+1. **Genre subversion** - Appeals to sophisticated horror fans who enjoy seeing familiar tropes deconstructed and explained
+2. **Meta-commentary** - Fulfills the intellectual desire to understand *why* horror films follow certain patterns, making the viewing experience self-aware and clever
+3. **Surprise and unpredictability** - Delivers unexpected twists that challenge expectations while still providing horror thrills
+4. **Inside jokes** - Rewards genre knowledge, making knowledgeable viewers feel "in on it" with the filmmakers
+5. **Cathartic violence and spectacle** - Particularly in the final act's monster showcase, providing visceral entertainment
+6. **Dark humor** - Balances scares with comedy, appealing to viewers who want tonal variety
+7. **World-building intrigue** - Satisfies curiosity through its elaborate mythological conspiracy structure
+The film essentially meets the need for both traditional horror entertainment *and* intelligent commentary on that entertainment simultaneously.</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -44924,6 +48537,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W437" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by The Chaser
+**The Chaser** (2008) satisfies viewers seeking:
+- **Intense thriller experience**: Relentless pacing and suspense throughout the cat-and-mouse chase
+- **Gritty realism**: Raw, unglamorous portrayal of crime without Hollywood polish
+- **Moral complexity**: Flawed protagonist (a pimp) fighting against evil, challenging simple hero narratives
+- **Emotional investment**: Desperate race against time creates genuine anxiety for victims' fates
+- **Social commentary**: Critique of police incompetence and societal indifference to marginalized women
+- **Visceral action**: Brutal, realistic violence that feels consequential rather than stylized
+- **Psychological depth**: Chilling portrayal of a serial killer's banality and the investigator's obsessive determination
+The film appeals to audiences wanting a dark, serious crime thriller that doesn't shy away from uncomfortable truths about violence and institutional failure.</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -45032,6 +48659,11 @@
           <t>2026-02-06</t>
         </is>
       </c>
+      <c r="W438" t="inlineStr">
+        <is>
+          <t>I don't have reliable information about a film called "The Chronology of Water." There is a memoir by that title written by Lidia Yuknavitch, published in 2011, which deals with themes of trauma, survival, sexuality, and self-discovery through experimental narrative structure. If a film adaptation exists or has been announced, I don't have current details about it to accurately describe what viewer needs it might meet.</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -45140,6 +48772,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W439" t="inlineStr">
+        <is>
+          <t>I don't have reliable information about a film called "The Chronology of Water." There is a memoir by that title written by Lidia Yuknavitch, published in 2011, which tells her unconventional life story involving trauma, sexuality, addiction, and artistic expression. If a film adaptation exists or has been announced, I don't have current details about it to describe what viewer needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -45244,6 +48881,18 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="W440" t="inlineStr">
+        <is>
+          <t># The Comedy of Terrors - Viewer Appeal
+**The Comedy of Terrors** (1963) satisfies viewers seeking:
+- **Horror-comedy crossover entertainment** - blending macabre humor with gothic atmosphere
+- **Classic horror star nostalgia** - featuring Vincent Price, Peter Lorre, Boris Karloff, and Basil Rathbone together
+- **Dark humor and satire** - offering cynical comedy about death, business, and human greed
+- **Campy, tongue-in-cheek thrills** - providing lighthearted scares without genuine terror
+- **Escapist fun** - delivering an irreverent, playful take on Victorian-era funeral parlor shenanigans
+The film appeals to fans who enjoy witty performances, theatrical acting styles, and the pleasure of watching horror legends ham it up in a self-aware parody of their typical genre roles.</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -45344,6 +48993,11 @@
           <t>2026-02-08</t>
         </is>
       </c>
+      <c r="W441" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "The Company's in Love" in my knowledge base. This title doesn't match any widely known or documented film. It's possible this is a very obscure film, a film with a slightly different title, or potentially a mistaken title. Without accurate information about this specific film, I cannot provide a summary of what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -45452,6 +49106,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W442" t="inlineStr">
+        <is>
+          <t># The Conjuring: Viewer Desires Met
+**The Conjuring** satisfies several key viewer desires:
+- **Thrill and fear**: Delivers intense scares and suspense through expertly crafted horror sequences
+- **Emotional engagement**: Features a relatable family in peril, creating empathy and investment
+- **Good vs. evil narrative**: Provides satisfying conflict between paranormal investigators and demonic forces
+- **Belief validation**: Appeals to audiences interested in the supernatural by claiming to be "based on true events"
+- **Escapism**: Offers a controlled, safe environment to experience danger and fear
+- **Craftsmanship appreciation**: Showcases skilled filmmaking through atmospheric cinematography, sound design, and pacing
+- **Catharsis**: Allows viewers to experience and release tension through vicarious terror with a resolution that restores order</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -45560,6 +49227,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W443" t="inlineStr">
+        <is>
+          <t># The Conjuring 2: Viewer Desires and Needs Met
+**The Conjuring 2** satisfies several key viewer desires:
+**Thrills and Escapism**: Delivers intense scares and supernatural suspense that provide an adrenaline rush and escape from everyday life. **Emotional Connection**: Offers a compelling family drama centered on the Warrens' marriage and the Hodgson family's struggles, creating emotional investment beyond just scares. **Good vs. Evil Narrative**: Provides reassurance through a clear moral framework where faith and love triumph over demonic forces. **Atmospheric Experience**: Fulfills the desire for immersive, well-crafted horror through strong cinematography, sound design, and period setting (1970s England). **Shared Experience**: Functions as a communal event film that audiences can experience together, either in theaters or through cultural conversation about its scares. **Validation of Belief**: For some viewers, it affirms beliefs in the supernatural and spiritual warfare, presenting the paranormal as real within the film's universe.</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -45668,6 +49342,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W444" t="inlineStr">
+        <is>
+          <t># The Curse of La Llorona: Viewer Desires Met
+**The Curse of La Llorona** satisfies viewers seeking:
+- **Jump scares and supernatural horror** - The film delivers traditional horror thrills with a ghostly antagonist
+- **Cultural folklore exploration** - It brings the Mexican legend of the "Weeping Woman" to mainstream audiences
+- **Family-centered stakes** - The threat to children creates emotional tension and protective instincts
+- **Accessible horror experience** - As a PG-13 film, it offers scares without extreme violence for wider audiences
+- **Cinematic universe connection** - Links to *The Conjuring* universe appeal to franchise fans
+- **Brief, efficient storytelling** - At 93 minutes, it provides quick horror entertainment without excessive time commitment
+The film primarily appeals to casual horror fans wanting a straightforward supernatural thriller with cultural flavor and moderate scares.</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -45776,6 +49463,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W445" t="inlineStr">
+        <is>
+          <t># The Dark Knight: Viewer Desires and Needs Met
+**The Dark Knight** satisfies multiple viewer desires:
+- **Moral complexity**: Explores ethical dilemmas and the blurred line between hero and villain, appealing to audiences seeking thoughtful storytelling
+- **Spectacle and action**: Delivers intense set pieces and visceral thrills for adrenaline-seeking viewers
+- **Psychological depth**: Features compelling character studies, particularly the Joker's chaos versus Batman's order
+- **Social commentary**: Addresses themes of terrorism, surveillance, and societal breakdown relevant to post-9/11 anxieties
+- **Escapism with substance**: Combines superhero fantasy with grounded, realistic filmmaking that doesn't insult adult intelligence
+- **Iconic performance**: Heath Ledger's transformative Joker provides a captivating, unpredictable antagonist
+- **Emotional catharsis**: Explores loss, sacrifice, and the burden of heroism, offering emotional resonance beyond typical blockbusters
+The film appeals to both comic book fans and general audiences seeking elevated genre entertainment.</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -45880,6 +49581,13 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="W446" t="inlineStr">
+        <is>
+          <t># The Divine Nymph (1975) - Viewer Appeal Summary
+"The Divine Nymph" (La Divina Creatura) meets viewer desires for:
+**Erotic escapism** - The film delivers sexual titillation through its provocative content and Laura Antonelli's sensual performance as the seductive protagonist. **Melodramatic intrigue** - It satisfies audiences seeking passionate, forbidden romance and scandalous affairs set against upper-class Italian society. **Visual aesthetics** - The film provides lush cinematography, beautiful Italian locations, and glamorous 1970s styling that appeal to viewers interested in atmospheric period pieces. **Transgressive storytelling** - It caters to those drawn to morally complex narratives exploring adultery, obsession, and sexual power dynamics without clear moral judgments. **Star appeal** - Fans of Italian cinema icons like Antonelli, Marcello Mastroianni, and Terence Stamp are served by their compelling performances in a sophisticated European art film context.</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -45988,6 +49696,18 @@
           <t>2026-02-25</t>
         </is>
       </c>
+      <c r="W447" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by "The Earrings of Madame de..."
+**The Earrings of Madame de...** (1953) satisfies several key viewer desires:
+1. **Aesthetic pleasure** - Max Ophüls' elaborate camera movements, elegant mise-en-scène, and sumptuous costumes provide visual beauty and craftsmanship
+2. **Emotional depth** - The tragic love story offers catharsis through its exploration of genuine passion emerging within superficial society
+3. **Intellectual engagement** - The circular narrative structure and symbolic use of the earrings reward attentive viewing and interpretation
+4. **Escapism** - The Belle Époque setting offers immersion in a glamorous, aristocratic world of balls and romance
+5. **Social observation** - The film critiques upper-class vanity, hypocrisy, and the constraints of social convention, satisfying desires for moral commentary
+6. **Romantic fantasy** - Despite its tragic ending, the film depicts transformative, all-consuming love that transcends material concerns</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -46076,6 +49796,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W448" t="inlineStr">
+        <is>
+          <t># The Eternals: Viewer Desires and Needs Met
+**The Eternals** appeals to viewers seeking:
+- **Spectacle and visual grandeur** - Epic cosmic storytelling with stunning cinematography and large-scale action sequences
+- **Representation and diversity** - A cast reflecting various ethnicities, body types, ages, and the MCU's first openly gay superhero and deaf superhero
+- **Philosophical depth** - Exploration of humanity's purpose, morality, free will, and intervention vs. non-interference
+- **Family dynamics** - Found family relationships and complex interpersonal conflicts among immortal beings
+- **MCU expansion** - Deeper cosmic mythology connecting to the broader Marvel universe
+- **Romance and emotion** - Multiple love stories across centuries providing emotional resonance
+- **Fresh perspective** - A different tone and style from typical superhero films, appealing to those seeking artistic ambition in blockbuster filmmaking</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -46184,6 +49917,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W449" t="inlineStr">
+        <is>
+          <t># The Exorcist: Viewer Needs Met
+**The Exorcist** fulfills several key viewer desires:
+**Thrill and Fear**: Provides intense scares and suspense through shocking imagery and psychological horror, satisfying audiences seeking an adrenaline rush. **Moral/Spiritual Exploration**: Addresses profound questions about good vs. evil, faith, and the existence of God, appealing to viewers interested in religious and philosophical themes. **Catharsis**: Allows safe confrontation with death, loss of control, and fears about innocence corrupted, providing emotional release. **Transgression**: Delivers taboo-breaking content (demonic possession of a child, profanity, bodily violation) that pushes boundaries viewers want to see challenged. **Validation of Beliefs**: Reinforces the reality of spiritual warfare for religious viewers while offering compelling supernatural entertainment for skeptics. **Technical Excellence**: Satisfies appreciation for masterful filmmaking through its direction, sound design, and special effects.</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -46292,6 +50032,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W450" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by The Fabelmans
+*The Fabelmans* satisfies viewers seeking:
+- **Nostalgia and coming-of-age storytelling** - The film offers a heartfelt portrait of growing up in mid-20th century America
+- **Personal/authentic narratives** - As Spielberg's semi-autobiographical story, it provides intimate access to a renowned filmmaker's formative experiences
+- **Family drama** - It explores universal themes of family dysfunction, parental relationships, and childhood trauma
+- **Artistic inspiration** - The film celebrates the power of filmmaking and creative passion, appealing to cinephiles and aspiring artists
+- **Emotional catharsis** - It delivers poignant moments about loss, discovery, and self-actualization
+- **Quality craftsmanship** - Viewers appreciate Spielberg's masterful direction, strong performances, and technical excellence
+- **Reflective entertainment** - It offers thoughtful, character-driven storytelling rather than spectacle
+The film primarily appeals to audiences who value introspective, emotionally rich cinema and have an interest in the relationship between art and life.</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -46400,6 +50154,12 @@
           <t>2026-02-20</t>
         </is>
       </c>
+      <c r="W451" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires "The Fan" Meets
+"The Fan" (1996) fulfills several viewer desires: the thrill of psychological suspense and obsession, exploration of celebrity culture and fandom's dark side, dramatic tension through a cat-and-mouse dynamic, vicarious experience of professional sports glamour, and cautionary tale satisfaction about parasocial relationships gone wrong. It appeals to audiences interested in stalker thrillers, sports drama, and examinations of fame's dangerous consequences.</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -46508,6 +50268,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W452" t="inlineStr">
+        <is>
+          <t># The Flash: Viewer Desires and Needs Met
+**The Flash** satisfies viewers seeking:
+- **Nostalgia and fan service** through multiverse storytelling that brings back beloved actors (Michael Keaton's Batman, references to previous DC films)
+- **Escapist superhero action** with spectacular visual effects and high-stakes world-saving drama
+- **Emotional resonance** through Barry Allen's journey to save his mother and accept loss
+- **Humor and lightheartedness** balancing serious themes with comedic moments
+- **Spectacle and entertainment** via time-travel mechanics, alternate realities, and epic CGI battles
+- **Character exploration** examining themes of grief, acceptance, and the consequences of trying to change the past
+The film appeals to both longtime DC fans craving callbacks to earlier Batman films and general audiences wanting an emotionally grounded yet action-packed superhero adventure.</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -46616,6 +50389,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W453" t="inlineStr">
+        <is>
+          <t>"The Flower of My Secret" meets viewers' desires for emotionally authentic storytelling about personal crisis and reinvention. The film appeals to those seeking intimate character studies of a woman navigating heartbreak, identity loss, and creative struggle. It satisfies audiences interested in mature examinations of marriage dissolution, the gap between public persona and private pain, and the possibility of renewal through honest self-expression and human connection.</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -46720,6 +50498,20 @@
           <t>2026-02-25</t>
         </is>
       </c>
+      <c r="W454" t="inlineStr">
+        <is>
+          <t># Summary
+*The Goddess of 1967* (2000) meets viewer desires for:
+- **Visual poetry and aesthetic beauty** through stunning cinematography and dreamlike black-and-white imagery
+- **Cross-cultural romance** between emotionally wounded characters seeking connection
+- **Road movie escapism** exploring the Australian outback landscape
+- **Emotional catharsis** through themes of trauma, healing, and redemption
+- **Unconventional storytelling** that defies mainstream narrative structure
+- **Exploration of vulnerability** and human intimacy in authentic, non-glamorized ways
+- **Symbolic depth** that rewards contemplative viewing and interpretation
+The film appeals to art-house audiences seeking lyrical, character-driven cinema focused on emotional truth over plot mechanics.</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -46828,6 +50620,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W455" t="inlineStr">
+        <is>
+          <t>The Godfather meets viewers' desires for epic storytelling, complex moral drama, and exploration of power and family loyalty. It satisfies the appeal of the crime/gangster genre while offering rich character development, particularly the transformation of Michael Corleone. The film provides escapism into a shadowy underworld, delivers memorable iconic moments and quotable dialogue, and examines universal themes of family obligation, corruption, and the American Dream's dark side. Its masterful cinematography, performances, and operatic scope fulfill audiences' craving for prestigious, artistically crafted cinema that functions both as entertainment and as serious dramatic art.</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -46928,6 +50725,21 @@
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="W456" t="inlineStr">
+        <is>
+          <t># The Good Fairy - Viewer Desires and Needs Met
+**The Good Fairy** (1935) satisfies viewers' desires for:
+- **Escapist romantic comedy** - A lighthearted fairy tale that provides relief from real-world concerns
+- **Cinderella/rags-to-riches fantasy** - Following an innocent orphan navigating sophisticated urban society
+- **Screwball comedy humor** - Witty dialogue, mistaken identities, and farcical situations characteristic of 1930s comedies
+- **Charm and innocence** - Margaret Sullavan's endearing performance as a naïve but well-intentioned protagonist
+- **Romantic wish-fulfillment** - Multiple suitors pursuing the heroine, with true love ultimately prevailing
+- **Social mobility fantasy** - A poor girl gaining access to wealth and high society through her goodness
+- **Moral reassurance** - Virtue and kindness being rewarded, with the "good fairy" improving others' lives
+- **Depression-era optimism** - Uplifting entertainment during economically difficult times
+The film appeals to audiences seeking feel-good entertainment with</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -47032,6 +50844,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W457" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film called "The Great Alibi" in my knowledge base. This title doesn't match any widely known film I can reference. It's possible this is a lesser-known film, a foreign language film under a translated title, or potentially a misremembered title. Without accurate information about this specific film, I cannot provide a reliable summary of what viewer desires or needs it addresses.</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -47140,6 +50957,21 @@
           <t>2026-02-21</t>
         </is>
       </c>
+      <c r="W458" t="inlineStr">
+        <is>
+          <t># The Heroic Trio: Viewer Desires and Needs Met
+**The Heroic Trio** (1993) satisfies viewers seeking:
+- **Spectacular action and stunts**: High-energy Hong Kong-style fight choreography and wire-fu sequences
+- **Female empowerment**: Three powerful women protagonists in lead action roles, rare for early 1990s cinema
+- **Visual spectacle**: Stylized cinematography, elaborate costumes, and fantastical set pieces
+- **Genre blending**: A mix of superhero adventure, martial arts, fantasy, and dystopian elements
+- **Star power**: Features popular Hong Kong actresses Maggie Cheung, Michelle Yeoh, and Anita Mui
+- **Escapist entertainment**: Over-the-top villains, outlandish plots, and comic book-style heroics
+- **Cultural novelty**: Exposure to Hong Kong cinema's distinctive aesthetic and storytelling approach
+- **Sisterhood themes**: Female bonding and alliance against male villainy
+The film appeals to fans of campy, stylish action cinema who value entertainment over realism.</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -47240,6 +51072,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W459" t="inlineStr">
+        <is>
+          <t>I don't have any reliable information about a film called "The Hips of J.W." in my knowledge base. Without being able to verify this film exists or access details about its content, themes, or reception, I cannot accurately describe what viewer desires or needs it might meet.</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -47344,6 +51181,19 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="W460" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires The History of Sound Fulfills
+**The History of Sound** meets viewers' desires for:
+1. **Emotional depth and catharsis** - The intimate portrayal of a decades-spanning friendship and love story provides profound emotional resonance
+2. **LGBTQ+ representation** - Audiences seeking authentic queer narratives find a tender, nuanced depiction of same-sex love across different eras
+3. **Historical reflection** - The film satisfies interest in 20th-century American history, particularly WWI and the evolution of sound recording
+4. **Artistic cinematography** - Viewers who appreciate visual storytelling are rewarded with beautiful, contemplative imagery
+5. **Themes of memory and loss** - The exploration of how we preserve moments and cope with grief resonates with universal human experiences
+6. **Literary adaptation appreciation** - Fans of prestige literary adaptations find a thoughtful translation of narrative prose to screen
+7. **Slow cinema and contemplation** - Those seeking meditative, non-commercial storytelling find an antidote to fast-paced mainstream films</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -47448,6 +51298,12 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W461" t="inlineStr">
+        <is>
+          <t># Short Summary
+*The History of Sound* meets viewers' desires for emotionally resonant storytelling about love, loss, and memory. It appeals to those seeking intimate character studies, exploration of queer relationships across time, and reflection on how art and sound preserve human connection. The film satisfies needs for historical drama, beautiful cinematography, and contemplative pacing that allows for emotional processing of themes like grief, creativity, and the passage of time.</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -47552,6 +51408,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W462" t="inlineStr">
+        <is>
+          <t># Summary
+*The History of Sound* meets viewers' desires for:
+- **Emotional depth and intimacy** through its portrayal of a profound lifelong friendship and love story between two men
+- **LGBTQ+ representation** that explores queer identity and romance across decades
+- **Historical immersion** spanning much of the 20th century, satisfying those interested in America's cultural evolution
+- **Artistic storytelling** through its focus on sound recording and preservation as both profession and metaphor
+- **Nostalgia and melancholy** for those drawn to bittersweet, reflective narratives about memory, loss, and the passage of time
+- **Aesthetic beauty** in cinematography and sound design that emphasizes sensory experience
+- **Meaningful contemplation** about legacy, art's power to preserve human experience, and the fleeting nature of life</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -47656,6 +51525,11 @@
           <t>2026-02-21</t>
         </is>
       </c>
+      <c r="W463" t="inlineStr">
+        <is>
+          <t>"The Holy Girl" appeals to viewers interested in psychological complexity, moral ambiguity, and coming-of-age narratives. It satisfies desires for art house cinema that explores the intersection of religious devotion and sexual awakening, offering a nuanced portrayal of adolescent female perspective. The film meets needs for slow-paced, atmospheric storytelling that resists easy answers, appealing to audiences who appreciate character-driven narratives over plot-driven ones and who seek thoughtful examinations of faith, desire, and the blurred boundaries between spiritual calling and personal confusion.</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -47764,6 +51638,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W464" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires/Needs The Housemaid Meets
+**The Housemaid** (1960) fulfills viewers' desires for:
+- **Psychological tension and suspense** through its slow-burn thriller narrative about class conflict and sexual manipulation
+- **Social commentary** examining power dynamics, economic inequality, and the corruption of middle-class aspirations in post-war South Korea
+- **Taboo exploration** depicting adultery, obsession, and moral degradation in a repressive society
+- **Aesthetic pleasure** through its stark black-and-white cinematography and claustrophobic domestic setting
+- **Emotional catharsis** via its dark, tragic conclusion that punishes transgression
+- **Voyeuristic pleasure** in observing a respectable family's private descent into chaos and destruction
+The film satisfies audiences seeking morally complex, psychologically disturbing cinema that critiques social hierarchies while delivering genuine narrative shocks.</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -47872,6 +51759,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W465" t="inlineStr">
+        <is>
+          <t># The Housemaid - Viewer Desires and Needs Met
+**The Housemaid** (1960, Korean film by Kim Ki-young) satisfies several viewer desires:
+- **Psychological tension and suspense** - The film delivers unsettling thrills through its portrayal of obsession, manipulation, and domestic chaos
+- **Social commentary** - It explores class conflict, gender dynamics, and the dangers of upward mobility in post-war Korean society
+- **Voyeuristic pleasure** - Viewers witness the private unraveling of a middle-class family and forbidden sexual transgression
+- **Moral cautionary tale** - The film satisfies the desire to see consequences for infidelity and moral weakness
+- **Aesthetic appreciation** - Its bold cinematography, symbolic imagery, and expressionistic style appeal to art cinema enthusiasts
+- **Cathartic experience** - The descent into madness and destruction provides emotional release through extreme dramatic escalation
+The film meets the need for intellectually stimulating cinema that challenges conventional narratives while delivering visceral entertainment.</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -47980,6 +51880,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W466" t="inlineStr">
+        <is>
+          <t># The Hunger Games: Viewer Desires and Needs Met
+**The Hunger Games** satisfies multiple viewer desires:
+- **Escapism and adventure**: An immersive dystopian world offering thrilling action and survival drama
+- **Empowerment and heroism**: A strong, relatable protagonist (Katniss) who defies oppression and inspires resistance
+- **Social commentary**: Explores themes of inequality, authoritarianism, and media manipulation that resonate with real-world concerns
+- **Romantic tension**: A compelling love triangle adds emotional stakes
+- **Underdog triumph**: The satisfaction of seeing ordinary people challenge and outwit a corrupt system
+- **Spectacle**: Visually striking costumes, settings, and action sequences provide entertainment value
+- **Moral complexity**: Characters face difficult ethical choices that engage viewers intellectually and emotionally</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -48084,6 +51997,13 @@
           <t>2026-02-06</t>
         </is>
       </c>
+      <c r="W467" t="inlineStr">
+        <is>
+          <t># The Incredible Shrinking Man: Viewer Desires Met
+**The Incredible Shrinking Man** (1957) satisfies several key audience needs:
+**Existential exploration** - The film addresses deep anxieties about insignificance, loss of identity, and humanity's place in the universe, allowing viewers to confront existential fears through allegory. **Spectacle and special effects** - It provides visual wonder through innovative practical effects showing a man diminishing in size, fulfilling the desire for cinematic imagination and technical achievement. **Masculine anxiety** - The film channels 1950s concerns about emasculation, loss of domestic authority, and male identity in post-war America, resonating with contemporary gender anxieties. **Philosophical reflection** - Its thoughtful ending offers spiritual consolation and cosmic perspective, meeting viewers' need for meaning beyond pure entertainment. **Survival thriller elements** - The protagonist's battles against household pets and spiders deliver suspense and adventure, satisfying basic desires for tension and heroic struggle. The film uniquely combines B-movie thrills with profound psychological and philosophical depth, appealing to both entertainment and intellectual engagement.</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -48188,6 +52108,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W468" t="inlineStr">
+        <is>
+          <t># The Incredible Shrinking Man: Viewer Desires Met
+**The Incredible Shrinking Man** (1957) satisfies several key viewer needs:
+**Existential exploration** - The film addresses deep philosophical questions about human significance, identity, and meaning when confronted with forces beyond our control. **Spectacle and visual wonder** - It delivers imaginative special effects showing a man's diminishing perspective, making ordinary objects threatening and awe-inspiring. **Primal fear engagement** - The story taps into anxieties about losing control, becoming vulnerable, and facing an indifferent universe. **Catharsis through struggle** - Viewers experience vicarious triumph as the protagonist adapts and survives increasingly impossible odds. **Intellectual stimulation** - The sci-fi premise invites contemplation about humanity's place in the cosmos, from the infinitely large to the infinitely small. **Allegorical resonance** - The shrinking serves as a metaphor for various human experiences: emasculation, social diminishment, illness, and mortality, allowing audiences to process these themes safely through fiction.</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -48292,6 +52219,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W469" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires "The Innocents" Meets
+"The Innocents" (1961) satisfies several key viewer desires:
+**Psychological suspense and ambiguity** - The film appeals to audiences who enjoy intellectually engaging horror that leaves questions unanswered, particularly regarding whether the ghosts are real or products of the governess's repressed psychology. **Gothic atmosphere** - It fulfills the desire for classic haunted house aesthetics with its eerie cinematography, shadowy mansion settings, and Victorian-era dread. **Sophisticated horror** - The film meets the need for cerebral, slow-burn terror rather than shock tactics, appealing to viewers seeking artistic, literary adaptation (of Henry James's "The Turn of the Screw"). **Sexual tension and repression** - It addresses audiences interested in Freudian subtext and the exploration of Victorian sexual anxiety through coded imagery and innuendo. **Strong female protagonist** - The governess provides a complex, flawed central character whose reliability viewers can debate, satisfying those who appreciate character-driven narratives.</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -48400,6 +52334,18 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W470" t="inlineStr">
+        <is>
+          <t># Summary
+*The Invisible Man* (2020) meets viewers' desires for:
+- **Psychological thrills and suspense** through its tense, paranoia-driven narrative
+- **Social commentary** on domestic abuse, gaslighting, and institutional failure to protect victims
+- **Empowerment narratives** featuring a female protagonist fighting back against her abuser
+- **Modern horror** that relies on atmosphere and dread rather than gore
+- **Cathartic revenge** as the victim reclaims agency and defeats her tormentor
+- **Timely relevance** by addressing #MeToo-era conversations about believing survivors and recognizing abuse patterns</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -48508,6 +52454,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W471" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Needs Met by *The Killer*
+John Woo's *The Killer* (1989) satisfies several key viewer desires:
+**Action and spectacle**: Delivers stylized, balletic gunfight sequences with Woo's signature slow-motion cinematography and dramatic shootouts that provide visceral excitement. **Emotional depth**: Offers a surprisingly heartfelt story of redemption, loyalty, and unexpected connection between the hitman protagonist and a blind woman, fulfilling the need for meaningful character drama. **Moral complexity**: Presents an antihero with a code of honor, allowing viewers to explore ethical gray areas and root for a sympathetic assassin. **Aesthetic pleasure**: Features striking visual composition, symbolic imagery (doves, churches), and operatic violence that appeals to cinephiles seeking artistry in action cinema. **Escapism and wish-fulfillment**: Provides a romanticized underworld where honor still exists and one person can fight against corruption, offering fantasy empowerment. The film uniquely combines Hong Kong action intensity with emotional resonance, meeting both entertainment and artistic appreciation needs.</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -48612,6 +52565,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W472" t="inlineStr">
+        <is>
+          <t># Summary
+*The Killing of a Chinese Bookie* meets viewer desires for:
+**Aesthetic/artistic experience** - Cassavetes' improvisational style and atmospheric cinematography appeal to cinephiles seeking auteur-driven filmmaking. **Complex character study** - The film satisfies those interested in psychologically nuanced portrayals of flawed, desperate individuals navigating moral compromise. **Genre subversion** - It appeals to viewers who enjoy seeing crime thriller conventions deconstructed and reimagined as character-driven tragedy rather than plot-driven action. **Authenticity and grit** - The raw, unglamorous depiction of Los Angeles nightlife and criminal underworld attracts audiences seeking realism over Hollywood polish. **Outsider perspective** - It resonates with viewers drawn to stories about marginalized figures struggling to maintain dignity and identity within corrupt systems.</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -48708,6 +52668,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W473" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film called "The Last Dive" to provide an accurate summary of what viewer desires or needs it meets. There may be multiple films with this title, or it may be a lesser-known work. Without confirmed details about the specific film you're referring to, I cannot provide a reliable summary of its appeal to audiences.</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -48800,6 +52765,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W474" t="inlineStr">
+        <is>
+          <t>I don't have any reliable information about a film called "The Legendaries" to provide an accurate summary of what viewer desires or needs it meets. This title could refer to various properties (animated series, potential films, etc.), but without confirmed details about the specific work you're asking about, I cannot provide a meaningful answer about its appeal to audiences.</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -48908,6 +52878,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W475" t="inlineStr">
+        <is>
+          <t># The Lighthouse: Viewer Desires and Needs Met
+**The Lighthouse** (2019) satisfies viewers seeking:
+- **Artistic/aesthetic experience**: Stark black-and-white cinematography and unique aspect ratio create a visually distinctive experience
+- **Psychological intensity**: Deep exploration of isolation, madness, and power dynamics appeals to those wanting cerebral horror
+- **Ambiguity and interpretation**: Open-ended narrative invites active engagement and post-viewing discussion
+- **Prestige performances**: Tour-de-force acting from Willem Dafoe and Robert Pattinson attracts cinephiles
+- **Atmospheric dread**: Slow-burn tension and claustrophobic setting fulfill desires for unsettling, immersive horror
+- **Mythological/symbolic depth**: Rich allusions to Greek mythology and maritime folklore reward intellectually curious viewers
+- **Unconventional storytelling**: Breaks from mainstream cinema conventions, appealing to art-house audiences seeking something different</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -49012,6 +52995,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W476" t="inlineStr">
+        <is>
+          <t>The Lion King meets viewers' desires for emotional catharsis, nostalgia, and inspiration through its hero's journey narrative. It provides escapism into a visually stunning animal kingdom while exploring universal themes of identity, loss, responsibility, and redemption. The film satisfies needs for family-friendly entertainment that appeals across generations, combining memorable music, humor, and touching moments. It also fulfills desires for clear moral lessons about courage, accepting one's destiny, and the circle of life, while offering both childhood wonder and deeper emotional resonance for adults.</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -49120,6 +53108,13 @@
           <t>2026-02-08</t>
         </is>
       </c>
+      <c r="W477" t="inlineStr">
+        <is>
+          <t># The Little Prince: Viewer Desires and Needs Met
+The film meets viewers' desires for:
+**Nostalgia and Wonder** - It evokes childhood imagination and the bittersweet longing for simpler times when creativity and relationships mattered most. **Emotional Connection** - The story provides comfort through themes of love, loss, and remembering what's truly important in life. **Escape from Modern Pressures** - It offers relief from achievement-obsessed culture by celebrating play, friendship, and seeing the world through a child's eyes. **Meaningful Life Lessons** - Viewers find philosophical wisdom about human nature, relationships, and authenticity ("What is essential is invisible to the eye"). **Multi-generational Appeal** - Adults reconnect with their inner child while children experience a magical adventure, making it ideal for shared family viewing. **Visual Beauty** - The stunning animation satisfies the desire for artistic craftsmanship and aesthetic pleasure.</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -49220,6 +53215,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W478" t="inlineStr">
+        <is>
+          <t>"The Looming Storm" meets viewers' desires for atmospheric neo-noir crime drama, offering a slow-burn investigation into corruption and moral ambiguity set against China's economic transition in the 1990s. It appeals to audiences seeking character-driven narratives, social commentary on institutional decay, and visually striking cinematography that mirrors its protagonist's psychological unraveling. The film satisfies those who appreciate morally complex antiheroes and contemplative pacing over action.</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -49324,6 +53324,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W479" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film called "The Love That Remains" in my knowledge base. This title could refer to a documentary, independent film, or other production that isn't widely documented in sources available to me. Without accurate information about this particular film, I cannot provide a reliable summary of what viewer desires or needs it addresses.</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -49432,6 +53437,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W480" t="inlineStr">
+        <is>
+          <t># The Lovers on the Bridge: Viewer Desires Met
+**The Lovers on the Bridge** (1991) fulfills several key viewer desires:
+**Romantic escapism** - The passionate, unconventional love story between two outcasts offers an intense emotional experience that transcends everyday reality. **Visual spectacle** - Leos Carax's stunning cinematography and iconic imagery (particularly the Bastille Day fireworks sequence) satisfy the desire for pure aesthetic beauty. **Emotional catharsis** - The film's raw portrayal of desperation, obsession, and redemptive love allows viewers to experience extreme emotions vicariously. **Exploration of marginality** - It appeals to those fascinated by characters living outside societal norms, offering a romanticized yet unflinching look at homelessness and alienation. **Artistic prestige** - For cinephiles, it satisfies the desire for formally ambitious, auteur-driven cinema that challenges conventional narrative and visual approaches. The film ultimately meets the need for transformative cinema that combines visceral emotion with artistic innovation.</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -49540,6 +53552,19 @@
           <t>2026-02-28</t>
         </is>
       </c>
+      <c r="W481" t="inlineStr">
+        <is>
+          <t># The Lovers on the Bridge: Viewer Desires Met
+**The Lovers on the Bridge** (1991) fulfills several key viewer desires:
+- **Romantic escapism**: An intense, unconventional love story between two marginalized outsiders living on Paris's Pont-Neuf bridge
+- **Visual spectacle**: Stunning cinematography featuring fireworks, dramatic Seine River settings, and bold artistic compositions
+- **Emotional intensity**: Raw, passionate performances exploring themes of desperation, obsession, and devotion
+- **Artistic authenticity**: Gritty realism combined with poetic imagery that elevates street life into art
+- **Rebellion against convention**: Characters who reject societal norms, appealing to viewers' desire for freedom and nonconformity
+- **Aesthetic beauty from hardship**: Finding transcendent beauty and connection amid poverty and struggle
+The film satisfies audiences seeking cinema as art rather than mere entertainment, offering both emotional catharsis and visual poetry.</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -49648,6 +53673,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W482" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by The Marvels
+**The Marvels** meets several key viewer desires:
+- **Escapism and spectacle** - Provides colorful visual effects, cosmic adventure, and fantasy action sequences
+- **Representation** - Features diverse leads including women of color in superhero roles
+- **Franchise connection** - Satisfies MCU fans' desire for continuity and references to previous films/shows
+- **Light entertainment** - Offers humor and fun tone rather than heavy drama
+- **Female empowerment** - Centers three women heroes working together
+- **Found family themes** - Explores bonds between women across generations
+- **Wish fulfillment** - Delivers superhero power fantasies and saves-the-day scenarios
+- **Nostalgia** - Connects to beloved characters from earlier MCU entries</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -49756,6 +53795,12 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W483" t="inlineStr">
+        <is>
+          <t># The Matrix meets several key viewer desires:
+**Escapism and spectacle** - Groundbreaking visual effects and action sequences provide thrilling entertainment and escape from everyday reality. **Intellectual stimulation** - Philosophical questions about reality, free will, and consciousness engage viewers who enjoy deeper meaning in their entertainment. **Empowerment fantasy** - The "chosen one" narrative where an ordinary person discovers extraordinary abilities fulfills wishes for significance and power. **Rebellion and anti-establishment feelings** - The fight against oppressive machines/systems resonates with desires to challenge authority and societal control. **Mystery and revelation** - The gradual uncovering of truth about the Matrix satisfies curiosity and the desire for hidden knowledge. **Heroic journey** - Neo's transformation follows the classic hero's journey structure that audiences find deeply satisfying and emotionally resonant.</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -49856,6 +53901,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W484" t="inlineStr">
+        <is>
+          <t># Summary
+**The Meetings of Anna** meets viewer desires for:
+- **Introspective, contemplative cinema** that explores themes of alienation, loneliness, and disconnection in modern life
+- **Slow, observational storytelling** that rewards patient, attentive viewing
+- **Authentic portrayals of isolation** and the difficulty of human connection
+- **Art house aesthetics** with carefully composed frames and minimal dialogue
+- **Female perspective** on emotional and professional displacement
+- **European cinema traditions** emphasizing mood and atmosphere over plot
+- **Intellectual engagement** with existential questions about identity and belonging
+The film appeals to viewers seeking thoughtful, meditative experiences rather than conventional narrative satisfaction.</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -49964,6 +54023,22 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W485" t="inlineStr">
+        <is>
+          <t># The Menu: Viewer Desires and Needs Met
+**The Menu** satisfies viewers seeking:
+- **Dark comedy and satire** - Sharp critique of wealth, elitism, and foodie culture
+- **Class commentary** - Exploration of service industry dynamics and economic inequality
+- **Psychological thriller elements** - Mounting tension and unpredictability
+- **Revenge fantasy** - Catharsis through comeuppance for the privileged and pretentious
+- **Mystery and twists** - Unraveling of chef's motivations and characters' backstories
+- **Visual aesthetics** - Beautifully shot food and restaurant atmosphere
+- **Social critique** - Commentary on consumerism, authenticity, and exploitation
+- **Dark humor about food culture** - Skewering of pretentious fine dining experiences
+- **Morally complex storytelling** - Ambiguous characters that challenge viewer sympathies
+The film appeals to audiences who enjoy intelligent genre-blending entertainment with societal commentary.</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -50068,6 +54143,12 @@
           <t>2026-03-01</t>
         </is>
       </c>
+      <c r="W486" t="inlineStr">
+        <is>
+          <t># Summary
+*The More the Merrier* (1943) meets viewers' desires for lighthearted escapism during wartime through romantic comedy, wish fulfillment about housing shortages (a real WWII concern), wholesome humor, feel-good patriotism, and the appeal of watching charming characters navigate unconventional living arrangements. The film provides relief from wartime anxieties while subtly addressing contemporary issues like the Washington D.C. housing crisis, ultimately delivering an optimistic romance that reassures audiences during uncertain times.</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -50172,6 +54253,11 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="W487" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "The Mysterious Gaze of the Flamingo." This doesn't appear to be a known or documented film in major film databases or resources. It's possible this is a very obscure independent film, a film with a different title, or a fictional work. Without access to information about this specific film, I cannot provide a summary of what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -50276,6 +54362,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W488" t="inlineStr">
+        <is>
+          <t># Summary
+**The Naked Island** meets viewers' desires for:
+- **Meditative, contemplative cinema** - Its near-silent, dialogue-free approach offers a reflective viewing experience
+- **Visual storytelling** - Beautiful black-and-white cinematography that communicates purely through images
+- **Authentic human struggle** - Raw depiction of a family's exhausting daily labor for survival resonates with universal themes of perseverance
+- **Poetic realism** - The film elevates mundane tasks (carrying water, farming) into almost ritualistic, meaningful acts
+- **Emotional catharsis** - The family's hardships and rare moments of joy create a powerful emotional journey
+- **Artistic minimalism** - Appeals to cinephiles seeking pure, stripped-down filmmaking that challenges conventional narrative structures
+- **Connection to nature and simplicity** - Offers escape from modern life while honoring traditional ways of living</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -50384,6 +54483,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W489" t="inlineStr">
+        <is>
+          <t># The Northman: Viewer Desires and Needs Met
+**The Northman** satisfies viewers seeking:
+- **Epic revenge narrative** - delivers a primal, visceral tale of vengeance rooted in Viking mythology
+- **Immersive historical authenticity** - provides meticulously researched period detail and cultural accuracy
+- **Visual spectacle** - offers stunning cinematography, intense action sequences, and bold artistic vision
+- **Mythological and spiritual depth** - explores Norse beliefs, fate, and existential themes
+- **Masculine archetypes** - presents a raw exploration of warrior culture and honor
+- **Escape and adventure** - transports audiences to a brutal, unfamiliar medieval world
+- **Artistic filmmaking** - appeals to cinephiles appreciating director Robert Eggers' distinctive, uncompromising style</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -50492,6 +54604,18 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W490" t="inlineStr">
+        <is>
+          <t># The Nun: Viewer Desires and Needs
+**The Nun** (2018) satisfies several key viewer desires:
+- **Fear and thrills**: Delivers jump scares and supernatural horror for adrenaline seekers
+- **Gothic atmosphere**: Provides dark, eerie visuals set in a Romanian abbey for fans of atmospheric horror
+- **Franchise connection**: Expands The Conjuring universe lore, particularly the demon Valak's backstory
+- **Escapism**: Offers a safe space to experience danger and confront mortality vicariously
+- **Mystery solving**: Follows investigators uncovering dark secrets, satisfying detective narrative interests
+- **Religious horror intrigue**: Explores demonic possession and Catholic mysticism themes that fascinate horror audiences</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -50600,6 +54724,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W491" t="inlineStr">
+        <is>
+          <t># The Nun II: Viewer Desires Met
+**The Nun II** satisfies viewers seeking:
+- **Jump scares and supernatural horror** - Delivers frightening moments with the demonic Valak entity
+- **Gothic atmosphere** - Provides dark, creepy settings in 1950s France including churches and schools
+- **Franchise connection** - Expands The Conjuring Universe lore for invested fans
+- **Good vs. evil narrative** - Offers clear moral conflict between Sister Irene and demonic forces
+- **Visual spectacle** - Features impressive cinematography and horror imagery
+- **Escapist entertainment** - Provides a thrilling, suspenseful experience removed from everyday life
+- **Nostalgia** - Appeals to fans of classic nun horror and religious-themed terror
+The film primarily serves audiences wanting accessible, formulaic supernatural horror with recognizable franchise elements.</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -50688,6 +54826,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W492" t="inlineStr">
+        <is>
+          <t>"The Oily American" is a 1954 Warner Bros. animated short that satirizes American oil companies' exploitation of foreign resources. The film meets viewer desires for political satire and commentary on corporate imperialism, as it humorously critiques U.S. business practices in Latin America during the post-WWII era. It appeals to audiences interested in social commentary wrapped in entertainment, offering both comedic value and a pointed message about economic exploitation and cultural insensitivity. The cartoon format makes serious political criticism more palatable and accessible to general audiences.</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -50780,6 +54923,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W493" t="inlineStr">
+        <is>
+          <t>"The Perfect Neighbor" is a thriller that appeals to viewers seeking suspense and drama centered around dangerous obsession. It satisfies the desire for tension-filled storytelling about a seemingly ideal neighbor who turns out to be a threatening stalker, meeting audience needs for psychological thrills, female-in-peril scenarios, and the exploration of trust betrayed in domestic settings.</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -50884,6 +55032,19 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="W494" t="inlineStr">
+        <is>
+          <t># The Pillow Book: Viewer Desires and Needs Met
+**The Pillow Book** (1996) satisfies viewers seeking:
+- **Visual/aesthetic pleasure** through stunning cinematography, calligraphy as art, and innovative split-screen compositions
+- **Intellectual stimulation** via intertextual references to Sei Shōnagon's classical text and exploration of East-West cultural dialogue
+- **Sensual/erotic content** presented artistically through the fusion of bodies, writing, and sexuality
+- **Narrative complexity** with non-linear storytelling and layered themes of identity, revenge, and artistic expression
+- **Experimental cinema** that challenges conventional filmmaking through mixed media and formal innovation
+- **Cultural exploration** of Japanese traditions, calligraphy, and contemporary cross-cultural relationships
+The film appeals to art-house audiences desiring sophisticated, visually driven cinema that combines eroticism with philosophical depth.</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -50988,6 +55149,11 @@
           <t>2026-02-02</t>
         </is>
       </c>
+      <c r="W495" t="inlineStr">
+        <is>
+          <t>"The President's Cake" is a 2012 Serbian documentary that meets viewers' desires for political satire and social commentary. The film examines power, corruption, and absurdity in politics through the story of a massive cake baked for a president's birthday celebration. It satisfies audiences seeking critical perspectives on political excess, dark humor about authoritarian leadership, and reflection on the disconnect between political elites and ordinary citizens. The documentary appeals to those interested in Balkan politics, post-communist societies, and films that use symbolic imagery to critique power structures.</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -51090,6 +55256,11 @@
       <c r="V496" t="inlineStr">
         <is>
           <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="W496" t="inlineStr">
+        <is>
+          <t>"The President's Cake" is a 2012 Serbian documentary that meets viewers' desires for political satire and social commentary. It examines the absurdities of political power and corruption through the metaphor of an elaborate cake made for a president's birthday, satisfying audiences interested in dark humor, critique of authoritarian leadership, and exploration of how ordinary citizens navigate oppressive political systems. The film appeals to those seeking thought-provoking commentary on power dynamics and the tragicomic aspects of life under dictatorship.</t>
         </is>
       </c>
     </row>
@@ -51174,6 +55345,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W497" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "The QR Code of Frankeasy" in my knowledge base. This title doesn't appear to be a widely known or documented film, so I cannot provide details about what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -51278,6 +55454,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W498" t="inlineStr">
+        <is>
+          <t># The Raid: Viewer Desires Met
+**The Raid** satisfies audiences seeking:
+- **Intense action and adrenaline**: Relentless, expertly choreographed martial arts combat with minimal downtime
+- **Visceral physicality**: Authentic Indonesian pencak silat fighting style showcasing raw, brutal hand-to-hand combat
+- **Simplicity and clarity**: Straightforward survival plot (SWAT team trapped in building) without complex narrative distractions
+- **Underdog heroism**: A relatable protagonist fighting against overwhelming odds
+- **Visual spectacle**: Innovative fight choreography and cinematography that pushes action cinema boundaries
+- **Escapism through pure genre filmmaking**: Delivers exactly what it promises—unapologetic, stripped-down action entertainment
+The film appeals primarily to action enthusiasts wanting technically superior fight sequences and viewers who appreciate martial arts cinema at its most kinetic and uncompromising.</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -51382,6 +55571,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W499" t="inlineStr">
+        <is>
+          <t># The Raid 2: Meeting Viewer Desires
+**The Raid 2** satisfies viewers seeking:
+- **Intense action and choreography**: Delivers elaborate, visceral martial arts sequences and fight scenes that push physical boundaries
+- **Visual spectacle**: Offers stunning cinematography with creative camera work during extended action set pieces
+- **Adrenaline and excitement**: Provides non-stop thrills through brutal, high-energy combat
+- **Escapism**: Immerses audiences in a stylized crime underworld far removed from everyday life
+- **Technical craftsmanship**: Showcases exceptional stunt coordination and practical effects that action enthusiasts appreciate
+- **Narrative expansion**: Builds a more complex story than its predecessor with crime drama elements, appealing to those wanting depth alongside action
+- **Cathartic violence**: Channels aggression through justified protagonist violence against clearly villainous antagonists
+The film primarily appeals to action genre fans craving expertly executed fight choreography and uncompromising intensity.</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -51484,6 +55687,13 @@
       <c r="V500" t="inlineStr">
         <is>
           <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="W500" t="inlineStr">
+        <is>
+          <t># The Reckless Moment: Viewer Desires and Needs
+**The Reckless Moment** (1949) meets several key viewer desires:
+**Suspense and tension**: The film satisfies audiences seeking psychological thriller elements through its noir plotting about a mother covering up a death and being blackmailed. **Moral complexity**: Viewers interested in ethical ambiguity are drawn to the protagonist's descent into criminal behavior for protective, maternal reasons. **Forbidden romance**: The unexpected relationship between the blackmailer and the desperate housewife provides transgressive romantic tension. **Female agency**: The film appeals to those wanting to see a resourceful woman protagonist actively problem-solving under extreme pressure, unusual for 1940s cinema. **Class and social critique**: It explores the fragility of middle-class respectability and the lengths people go to maintain appearances, satisfying viewers interested in social commentary. **Emotional catharsis**: The film provides release through its depiction of maternal sacrifice and the tragedy of decent people trapped by circumstances.</t>
         </is>
       </c>
     </row>
@@ -51578,6 +55788,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W501" t="inlineStr">
+        <is>
+          <t>I don't have reliable information about a film called "The Reconquest" to provide an accurate summary of what viewer desires or needs it meets. There are multiple films with similar titles from different time periods and countries, so without more specific details, I cannot determine which film you're referring to or accurately describe its appeal to audiences.</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -51682,6 +55897,17 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W502" t="inlineStr">
+        <is>
+          <t># Summary
+**The Red Spectacles** meets viewer desires for:
+- **Surreal, atmospheric cinema** - Its dreamlike narrative and dystopian noir aesthetic appeal to fans of experimental, art-house filmmaking
+- **Cult film appreciation** - As an obscure Japanese live-action debut from anime director Mamoru Oshii, it attracts collectors of unique genre cinema
+- **Genre blending** - Combines sci-fi, noir, and dark comedy for viewers seeking unconventional storytelling
+- **Visual style over narrative clarity** - Satisfies those who prioritize mood, symbolism, and cinematic technique over straightforward plots
+- **Intellectual engagement** - The ambiguous, puzzle-like structure rewards analytical viewers who enjoy interpreting layered meanings</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -51790,6 +56016,13 @@
           <t>2026-02-20</t>
         </is>
       </c>
+      <c r="W503" t="inlineStr">
+        <is>
+          <t># The Secret Agent (1996)
+The film meets viewers' desires for:
+**Psychological tension and moral complexity** - It explores the inner conflicts of characters caught between duty, ideology, and personal loyalty in a morally ambiguous world of espionage and anarchism. **Period drama atmosphere** - The late Victorian London setting satisfies audiences interested in historical intrigue and the aesthetic of turn-of-the-century Britain. **Intellectual stimulation** - Based on Joseph Conrad's novel, it appeals to viewers seeking literary adaptation with themes of political extremism, terrorism, and the corrupting nature of surveillance. **Character-driven narrative** - The focus on intimate relationships, particularly the marriage at the story's center, attracts those interested in human drama over action spectacle. **Social commentary** - It addresses timeless concerns about political violence, radicalization, and the exploitation of vulnerable individuals for ideological purposes.</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -51898,6 +56131,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W504" t="inlineStr">
+        <is>
+          <t># The Secret Agent: Viewer Desires and Needs Met
+**The Secret Agent** (1996, directed by Christopher Hampton) meets several viewer desires:
+**Intellectual engagement** - The adaptation of Joseph Conrad's novel offers psychological complexity and explores themes of political extremism, terrorism, moral ambiguity, and the corruption of idealism. **Period drama appeal** - The late Victorian London setting satisfies viewers who enjoy atmospheric historical dramas with detailed costumes and production design. **Character study** - The film provides deep character exploration, particularly of Verloc and his wife Winnie, appealing to those interested in psychological realism and tragic human relationships. **Political relevance** - It addresses timeless questions about anarchism, state surveillance, and the manipulation of vulnerable individuals for political ends, resonating with viewers interested in socially relevant themes. **Literary prestige** - As a Conrad adaptation with strong performances, it appeals to audiences seeking sophisticated, literary-based cinema rather than mainstream entertainment.</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -52006,6 +56246,20 @@
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="W505" t="inlineStr">
+        <is>
+          <t># The Secret Agent: Viewer Desires Met
+**The Secret Agent** (1996, directed by Christopher Hampton) satisfies viewers seeking:
+- **Psychological complexity**: Deep exploration of moral ambiguity, betrayal, and human weakness in espionage contexts
+- **Period drama atmosphere**: Rich Victorian London setting with atmospheric cinematography and authentic production design
+- **Literary adaptation**: Faithful rendering of Joseph Conrad's classic novel for literature enthusiasts
+- **Character-driven narrative**: Focus on flawed, morally compromised individuals rather than action-hero archetypes
+- **Political intrigue**: Examination of anarchism, terrorism, and governmental manipulation
+- **Tragic drama**: Emotional depth through family dysfunction and devastating consequences of choices
+- **Intellectual stimulation**: Themes exploring alienation, exploitation, and the dehumanizing effects of political extremism
+The film appeals to audiences who prefer thoughtful, somber dramas over escapist entertainment.</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -52114,6 +56368,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W506" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires The Secret Agent Meets
+**The Secret Agent** (1996, directed by Christopher Hampton) satisfies several viewer desires:
+- **Psychological complexity**: Viewers seeking morally ambiguous characters and exploration of human weakness, betrayal, and desperation
+- **Period drama atmosphere**: Those who appreciate late Victorian-era settings with authentic historical detail
+- **Literary adaptation appeal**: Fans of Joseph Conrad's work or prestige adaptations of classic literature
+- **Suspense and intrigue**: Interest in espionage, anarchist plots, and political thriller elements
+- **Dark, tragic storytelling**: Viewers drawn to bleak, fatalistic narratives that examine human cruelty and societal decay
+- **Character-driven drama**: Those who prefer intimate human stories over action, focusing on domestic life entangled with dangerous political forces
+The film appeals to audiences seeking intellectually challenging, atmospheric period dramas with tragic depth rather than conventional entertainment.</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -52222,6 +56489,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W507" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by The Shawshank Redemption
+**The Shawshank Redemption** fulfills several core viewer desires:
+- **Hope and resilience**: The film provides inspiration through Andy's unwavering determination despite seemingly hopeless circumstances
+- **Justice and redemption**: Viewers experience satisfaction when corruption is exposed and the innocent protagonist ultimately triumphs
+- **Friendship and loyalty**: The deep bond between Andy and Red offers emotional warmth and demonstrates the power of human connection
+- **Escape and freedom**: The film satisfies desires for liberation, both literally through Andy's escape and metaphorically through personal transformation
+- **Meaning and purpose**: It explores how individuals can maintain dignity and find purpose even in oppressive situations
+- **Catharsis**: The story's emotional journey and ultimate triumph provide a deeply satisfying release
+- **Inspiration**: Viewers leave feeling motivated to persist through their own challenges and maintain hope</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -52322,6 +56602,18 @@
           <t>2026-02-21</t>
         </is>
       </c>
+      <c r="W508" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "The Silence"
+*The Silence* (assuming the 2019 horror-thriller) meets viewers' desires for:
+- **Suspense and tension** through a post-apocalyptic survival scenario
+- **Horror entertainment** featuring creature-based threats
+- **Family drama** exploring protective parental bonds under extreme circumstances
+- **Escapist thrills** in a high-stakes, life-or-death situation
+- **Accessibility representation** through a deaf protagonist, offering inclusive storytelling
+The film appeals to audiences seeking intense, creature-feature horror combined with family dynamics and survival themes.</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -52430,6 +56722,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W509" t="inlineStr">
+        <is>
+          <t># The Silence of the Lambs: Viewer Desires Met
+**The Silence of the Lambs** satisfies multiple viewer needs:
+**Psychological stimulation** - The intelligent cat-and-mouse dynamic between Clarice and Hannibal engages viewers intellectually through complex mind games and psychological depth. **Suspense and thrill-seeking** - The film delivers intense tension through the serial killer hunt, creating fear and excitement in a controlled environment. **Problem-solving satisfaction** - Audiences follow the investigative process, piecing together clues alongside Clarice to catch Buffalo Bill. **Character identification** - Clarice serves as a relatable underdog hero—a vulnerable yet determined woman navigating a male-dominated field, allowing viewers (especially women) to experience vicarious empowerment. **Fascination with the taboo** - Hannibal Lecter provides safe exploration of darkness, evil, and cannibalism from a distance. **Moral complexity** - The film explores gray areas where a monster becomes a mentor, satisfying desire for sophisticated storytelling beyond simple good vs. evil. **Catharsis** - The resolution provides emotional</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -52530,6 +56829,12 @@
           <t>2026-02-25</t>
         </is>
       </c>
+      <c r="W510" t="inlineStr">
+        <is>
+          <t>**The Song of Styrene** (1958), Alain Resnais' short documentary about plastic manufacturing, meets viewer desires for:
+**Aesthetic pleasure** - The film transforms industrial processes into visually stunning poetry through color, composition, and rhythm, satisfying those seeking beauty in unexpected places. **Intellectual stimulation** - It challenges viewers to reconsider mundane materials philosophically, accompanied by Raymond Queneau's sophisticated verse that traces plastic back to its molecular origins. **Artistic innovation** - The film appeals to cinephiles interested in experimental documentary form, blending industrial film conventions with avant-garde techniques. **Meditative experience** - Its hypnotic pacing and abstract imagery provide a contemplative viewing experience that elevates the ordinary to the transcendent.</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -52626,6 +56931,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W511" t="inlineStr">
+        <is>
+          <t># The Spellbound Summary
+**The Spellbound** (assuming you mean Hitchcock's 1945 film "Spellbound") meets viewers' desires for:
+- **Psychological intrigue and mystery** - The film explores amnesia, hidden identity, and psychoanalysis, satisfying curiosity about the human mind
+- **Romantic tension** - Features a compelling love story between a psychiatrist and her patient
+- **Suspense and thriller elements** - Classic Hitchcock tension keeps audiences engaged through murder mystery plotting
+- **Visual spectacle** - Salvador Dalí's surreal dream sequences provide artistic, memorable imagery
+- **Intellectual stimulation** - Explores Freudian psychology and dream interpretation, popular topics in 1940s culture
+- **Escapism** - Offers departure from post-WWII reality through glamorous settings and sophisticated storytelling
+The film satisfies the need for entertainment that combines emotional engagement, mental stimulation, and visual artistry.</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -52734,6 +57052,12 @@
           <t>2026-02-06</t>
         </is>
       </c>
+      <c r="W512" t="inlineStr">
+        <is>
+          <t># Summary
+*The SpongeBob Movie: Search for SquarePants* meets viewer desires for nostalgic comfort, lighthearted escapism, and family-friendly entertainment. It appeals to fans seeking colorful animation, absurdist humor, and the familiar dynamics of beloved characters. The film satisfies needs for optimism, simple moral lessons about friendship and perseverance, and content that can be enjoyed across generations without controversial themes.</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -52838,6 +57162,18 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W513" t="inlineStr">
+        <is>
+          <t># The Spook Who Sat by the Door: Viewer Desires Met
+The film meets viewers' desires for:
+1. **Political commentary and social critique** - It addresses systemic racism and the failures of token integration in American institutions
+2. **Empowerment narrative** - Provides a story of resistance and agency for Black audiences during the civil rights era
+3. **Subversive entertainment** - Offers a counter-narrative to mainstream Hollywood depictions of Black characters and revolutionary action
+4. **Intellectual engagement** - Presents complex themes about assimilation, revolution, and institutional power that invite critical thinking
+5. **Cathartic expression** - Channels frustration with inequality and oppression into a dramatized form of revolutionary fantasy
+The film particularly resonated with audiences seeking authentic representations of Black political consciousness and alternatives to passive acceptance of the status quo.</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -52942,6 +57278,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="W514" t="inlineStr">
+        <is>
+          <t># The Spook Who Sat by the Door - Viewer Desires Met
+**The Spook Who Sat by the Door** (1973) meets viewer desires for:
+- **Revolutionary/resistance narratives** - Appeals to audiences seeking stories about fighting systemic oppression and racial injustice
+- **Black empowerment fantasy** - Provides wish-fulfillment for viewers desiring to see African Americans taking direct action against institutional racism
+- **Political thriller elements** - Satisfies those interested in espionage, infiltration tactics, and strategic rebellion
+- **Social commentary** - Engages viewers seeking critique of tokenism, CIA operations, and 1970s racial politics
+- **Subversive/underground cinema** - Appeals to audiences attracted to controversial, politically charged films that challenge the status quo
+- **Black Cinema movement representation** - Meets the need for authentic African American perspectives during the Blaxploitation era, while transcending the genre's typical limitations
+The film particularly resonated with viewers frustrated by slow progress in civil rights and those seeking more radical visions of social change.</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -53046,6 +57395,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W515" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "The Spousals of God" in my knowledge base. This title doesn't match any widely known or documented film I'm aware of. It's possible this is an obscure, regional, or very recent production, or perhaps the title is slightly different than what you've provided. Without reliable information about this specific film, I cannot accurately describe what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -53150,6 +57504,19 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="W516" t="inlineStr">
+        <is>
+          <t># Summary
+**The State I Am In** (Die Innere Sicherheit, 2000) meets viewers' desires for:
+- **Psychological realism** - An intimate portrayal of a teenage girl's identity crisis while living underground with fugitive ex-radical parents
+- **Political thriller elements** - Tension from the family's constant flight and risk of capture
+- **Coming-of-age drama** - The universal adolescent struggle for independence and normalcy, heightened by extreme circumstances
+- **Moral complexity** - Exploration of idealism, sacrifice, and the human cost of political commitment
+- **Authenticity** - A grounded, unglamorous depiction of life on the run that avoids action-movie clichés
+- **Emotional depth** - The conflict between family loyalty and individual desire for a normal life
+The film appeals to audiences seeking thoughtful, character-driven cinema that examines how political extremism affects personal relationships and individual development.</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -53250,6 +57617,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W517" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "The Stolen Painting" in my knowledge base. Without knowing the specific film you're referring to (as there could be multiple films with similar titles), I cannot provide an accurate summary of what viewer desires or needs it meets. If you could provide additional details such as the year of release, director, or country of origin, I might be able to help identify the correct film.</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -53358,6 +57730,13 @@
           <t>2026-02-06</t>
         </is>
       </c>
+      <c r="W518" t="inlineStr">
+        <is>
+          <t># Viewer Desires and Needs Met by "The Straight Story"
+**The Straight Story** fulfills several key viewer desires:
+**Emotional connection and humanity** - The film satisfies the need for authentic, heartfelt storytelling about reconciliation, family bonds, and human resilience. **Simplicity and contemplation** - It meets the desire for slow-paced, meditative cinema that allows reflection on life's journey and aging with dignity. **Inspiration and hope** - Viewers seeking uplifting narratives find satisfaction in Alvin's determination and the kindness of strangers he encounters. **Nostalgia and Americana** - The film appeals to those longing for traditional values, rural American landscapes, and a gentler era. **Authenticity** - Based on a true story, it satisfies the desire for genuine, unpretentious storytelling without manipulation or spectacle.</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -53454,6 +57833,13 @@
           <t>2026-02-08</t>
         </is>
       </c>
+      <c r="W519" t="inlineStr">
+        <is>
+          <t># The Stranger and the Fog: Viewer Desires and Needs Met
+**The Stranger and the Fog** (1974) fulfills several key viewer desires:
+**Philosophical contemplation**: The film satisfies viewers seeking deep existential questions about identity, belonging, and the nature of good and evil through its allegorical narrative. **Visual artistry**: It meets the need for aesthetic experience through Bahram Beyzai's stunning cinematography of the Iranian coastal landscape and atmospheric fog imagery. **Cultural exploration**: The film provides insight into Iranian village life, traditions, and folklore, appealing to viewers interested in non-Western cinema and anthropological perspectives. **Moral complexity**: It satisfies those who prefer ambiguous, thought-provoking narratives over simple good-versus-evil stories, as the mysterious stranger's true nature remains uncertain. **Emotional resonance**: The film addresses universal themes of community, fear of the outsider, and human vulnerability that create empathetic connections with viewers seeking meaningful emotional experiences.</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -53558,6 +57944,18 @@
           <t>2026-02-02</t>
         </is>
       </c>
+      <c r="W520" t="inlineStr">
+        <is>
+          <t># The Student Nurses (1970)
+The film met viewer desires for:
+- **Exploitation content** - Sexual titillation and nudity marketed under the guise of a medical drama
+- **Voyeuristic fantasy** - Access to intimate hospital/nursing scenarios with attractive young women
+- **Counterculture appeal** - Featured topical 1970s issues like abortion, drugs, and anti-establishment themes
+- **Escapist entertainment** - Low-budget, easy-to-consume B-movie that didn't require serious engagement
+- **Taboo subjects** - Explored forbidden topics (sexuality, medical ethics) in a permissive format typical of Roger Corman's New World Pictures exploitation films
+The film primarily catered to male audiences seeking softcore content within a thin narrative framework.</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -53662,6 +58060,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W521" t="inlineStr">
+        <is>
+          <t># The Super Mario Bros. Movie - Viewer Desires Met
+**The Super Mario Bros. Movie** satisfies several key viewer desires:
+- **Nostalgia**: Appeals to fans who grew up playing the iconic video games, featuring familiar characters, music, and references
+- **Family entertainment**: Provides accessible, colorful fun suitable for all ages
+- **Visual spectacle**: Delivers vibrant animation and action sequences that entertain through pure visual excitement
+- **Escapism**: Offers a lighthearted adventure into a fantastical world
+- **Franchise connection**: Gives fans a chance to see beloved gaming characters in a cinematic format
+- **Humor and simplicity**: Provides easy-to-follow comedy without demanding heavy emotional investment
+The film primarily serves as cheerful, nostalgic entertainment rather than deep storytelling.</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -53770,6 +58181,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W522" t="inlineStr">
+        <is>
+          <t>"The Testament of Ann Lee" meets viewers' desires for contemplative, experimental cinema that explores themes of spirituality, religious ecstasy, and feminine mysticism. The film appeals to audiences interested in avant-garde visual poetry, historical religious movements (specifically the Shakers and their founder Ann Lee), and meditative, non-narrative filmmaking that prioritizes atmosphere, ritual, and symbolic imagery over conventional storytelling. It satisfies needs for artistic challenging content and deep reflection on faith, community, and transcendence.</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -53878,6 +58294,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W523" t="inlineStr">
+        <is>
+          <t>"The Testament of Ann Lee" meets viewers' desires for experimental and avant-garde cinema, offering a meditative exploration of spiritual themes, historical reflection on the Shaker religious community, and artistic cinematography. The film appeals to those seeking contemplative, non-narrative visual poetry that challenges conventional storytelling, providing an aesthetic and philosophical experience rather than traditional entertainment.</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -53986,6 +58407,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W524" t="inlineStr">
+        <is>
+          <t>"The Testament of Ann Lee" meets viewers' desires for experimental and avant-garde cinema, offering a meditative exploration of Shaker spirituality, religious devotion, and ascetic life. The film appeals to those interested in historical religious movements, minimalist aesthetics, and contemplative storytelling that challenges conventional narrative structure. It satisfies audiences seeking intellectually stimulating, art-house cinema that prioritizes atmosphere, ritual, and philosophical inquiry over traditional plot-driven entertainment.</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -54086,6 +58512,18 @@
           <t>2026-02-06</t>
         </is>
       </c>
+      <c r="W525" t="inlineStr">
+        <is>
+          <t># Summary
+**The Third Generation** (1979), directed by Rainer Werner Fassbinder, meets viewer desires for intellectual stimulation and political commentary through its satirical examination of radical terrorism in 1970s Germany. The film appeals to audiences seeking:
+- **Complex political critique** of left-wing extremism and state manipulation
+- **Experimental narrative structure** with fragmented, challenging storytelling
+- **Dark satire** that exposes the absurdity of revolutionary posturing
+- **Auteur cinema** from a renowned New German Cinema director
+- **Social commentary** on ideological emptiness and generational disillusionment
+The film satisfies those interested in provocative, unconventional cinema that questions both revolutionary movements and the systems they oppose, while offering Fassbinder's characteristic blend of alienation effects and biting social analysis.</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -54190,6 +58628,19 @@
           <t>2026-02-08</t>
         </is>
       </c>
+      <c r="W526" t="inlineStr">
+        <is>
+          <t># The Turin Horse: Viewer Needs Met
+**The Turin Horse** satisfies viewers seeking:
+- **Contemplative, meditative cinema** that rewards patience and philosophical reflection
+- **Artistic minimalism** through stark black-and-white cinematography and deliberate pacing
+- **Existential exploration** of despair, routine, and humanity's relationship with meaninglessness
+- **Auteur filmmaking** showcasing Béla Tarr's uncompromising vision and signature long-take style
+- **Immersive atmospheric experience** emphasizing mood and emotion over traditional narrative
+- **Intellectually challenging content** that provokes discussion about nihilism, apocalypse, and human endurance
+The film appeals to art-house audiences who value cinema as a medium for aesthetic experimentation and profound, if bleak, philosophical inquiry.</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -54298,6 +58749,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W527" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires/Needs Met by The Umbrellas of Cherbourg
+**The Umbrellas of Cherbourg** satisfies viewers' desires for:
+- **Aesthetic escapism** through its vibrant Technicolor cinematography and visually stylized world
+- **Emotional catharsis** by exploring universal themes of love, loss, and life's compromises
+- **Musical/artistic innovation** with its entirely sung-through dialogue format
+- **Nostalgic romanticism** while simultaneously offering mature, realistic perspectives on how relationships evolve
+- **Bittersweet emotional complexity** that validates the feeling that life doesn't always follow fairy-tale endings
+- **Sensory pleasure** through Michel Legrand's lush score and Jacques Demy's meticulous production design
+- **Recognition of authentic human experience** in choosing practical stability over passionate but uncertain love
+The film uniquely combines romantic idealism with pragmatic realism, appealing to those seeking both beauty and emotional truth.</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -54402,6 +58867,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W528" t="inlineStr">
+        <is>
+          <t>"The Voice of Hind Rajab" meets viewers' needs for bearing witness to human tragedy, seeking truth and accountability in conflict zones, and understanding the humanitarian impact of war. The film addresses desires for documentary evidence of civilian suffering, particularly children's experiences in Gaza, and fulfills needs for emotional connection to distant conflicts, advocacy for victims, and criticism of international responses to humanitarian crises. It appeals to those seeking alternative narratives to mainstream media coverage and wanting to honor victims' stories.</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -54506,6 +58976,12 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W529" t="inlineStr">
+        <is>
+          <t># Summary
+*The Voice of Hind Rajab* meets viewers' needs for bearing witness to humanitarian crises, particularly the Gaza conflict. It satisfies desires for truth-telling and documentary evidence of civilian suffering during war, provides a platform for marginalized voices (specifically Palestinian experiences), and fulfills needs for emotional connection to distant tragedies. The film appeals to viewers seeking social justice content, those wanting to understand the human cost of conflict beyond statistics, and audiences looking to engage with activism-oriented media that challenges dominant narratives about the Israeli-Palestinian situation.</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -54610,6 +59086,12 @@
           <t>2026-02-04</t>
         </is>
       </c>
+      <c r="W530" t="inlineStr">
+        <is>
+          <t># Summary
+"The Voice of Hind Rajab" meets viewers' needs for bearing witness to human tragedy, seeking truth and accountability in conflict situations, and understanding the human cost of war. The film addresses desires for documentary evidence of atrocities, advocacy for victims (particularly children), and raising awareness about the Israeli-Palestinian conflict. It serves audiences looking for counter-narratives to mainstream media coverage, those seeking to honor victims' stories, and viewers motivated by social justice concerns and the documentation of potential war crimes.</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -54714,6 +59196,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W531" t="inlineStr">
+        <is>
+          <t>"The Voice of Hind Rajab" meets viewers' desires for documentary truth-telling and bearing witness to human tragedy. The film addresses needs for understanding the Gaza conflict's human cost, particularly regarding civilian casualties and children's suffering. It satisfies desires for advocacy journalism that amplifies marginalized voices, documents potential war crimes, and challenges mainstream media narratives. The film also appeals to viewers seeking emotional connection to humanitarian crises and those wanting to engage with social justice issues through cinema.</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -54818,6 +59305,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W532" t="inlineStr">
+        <is>
+          <t>"The Voice of Hind Rajab" meets viewers' needs for bearing witness to humanitarian crises, seeking accountability for civilian casualties in conflict zones, and understanding personal stories behind news headlines. The film appeals to those desiring documentary evidence of war's impact on children and families, as well as audiences looking for films that amplify marginalized voices and document alleged human rights violations during the Israel-Gaza conflict.</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -54922,6 +59414,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W533" t="inlineStr">
+        <is>
+          <t>"The Voice of Hind Rajab" meets viewers' desires for social justice awareness, human rights documentation, and bearing witness to conflict victims' stories. The film appeals to those seeking to understand the Palestinian experience, particularly the human cost of war on children and civilians. It satisfies needs for emotional connection to humanitarian crises, accountability journalism, and amplifying marginalized voices that might otherwise go unheard in mainstream media coverage.</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -55026,6 +59523,19 @@
           <t>2026-02-06</t>
         </is>
       </c>
+      <c r="W534" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by "The Wedding Banquet"
+**The Wedding Banquet** satisfies viewers seeking:
+1. **Cross-cultural understanding** - exploring tensions between traditional Chinese and Western/LGBTQ+ values
+2. **Representation** - portraying LGBTQ+ relationships and Asian-American experiences in mainstream cinema
+3. **Family comedy-drama** - combining humor with emotional depth around universal themes of family acceptance
+4. **Social commentary** - examining immigration, identity, generational conflict, and the pressure to conform to cultural expectations
+5. **Feel-good resolution** - offering hope for reconciliation between seemingly incompatible values and family acceptance despite differences
+6. **Relatable conflict** - depicting the struggle of balancing personal authenticity with family obligations
+The film appeals to both LGBTQ+ audiences seeking validation and broader audiences interested in stories about cultural clash, family dynamics, and the immigrant experience.</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -55130,6 +59640,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W535" t="inlineStr">
+        <is>
+          <t># The Whale: Viewer Needs Met
+**The Whale** fulfills several key viewer desires:
+**Emotional catharsis** - The film provides a deeply moving experience that allows audiences to process grief, regret, and redemption through the protagonist's journey. **Empathy and understanding** - It meets the need to see marginalized experiences (obesity, LGBTQ+ themes, religious trauma) portrayed with dignity and complexity rather than stereotypes. **Powerful performances** - Viewers seeking exceptional acting are rewarded with Brendan Fraser's transformative, award-winning performance. **Themes of redemption** - The film satisfies those looking for stories about second chances, forgiveness, and finding meaning even in despair. **Honest representation** - It appeals to audiences tired of sanitized narratives, offering unflinching authenticity about physical and emotional suffering. **Human connection** - The story addresses universal desires for reconciliation, acceptance, and the hope that love can transcend past mistakes.</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -55234,6 +59751,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W536" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by *The Wind Rises*
+*The Wind Rises* fulfills several key viewer desires:
+**Aesthetic Beauty** - Miyazaki's stunning animation and dreamlike sequences satisfy the craving for visual artistry and craftsmanship. **Biographical Inspiration** - The film meets the desire to witness a passionate individual pursuing their dreams against obstacles, following aircraft designer Jiro Horikoshi's life. **Emotional Depth** - The romantic relationship and themes of mortality provide emotional resonance and catharsis. **Intellectual Engagement** - Complex moral questions about creating beauty for destructive purposes offer thoughtful viewers ethical dilemmas to contemplate. **Nostalgic Escapism** - The historical setting of 1920s-1940s Japan provides escape to a visually romanticized past. **Artistic Farewell** - For Miyazaki fans, it satisfies the desire to experience the master animator's final work and mature thematic statement.</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -55342,6 +59866,12 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W537" t="inlineStr">
+        <is>
+          <t># Summary
+*The Witch* meets viewer desires for psychological horror, atmospheric dread, and historical authenticity. It appeals to audiences seeking intelligent, slow-burn terror over jump scares, offering a meticulously crafted period piece that explores themes of religious extremism, paranoia, and family disintegration. The film satisfies needs for ambiguity and interpretive depth, leaving viewers unsettled through its bleak portrayal of Puritan life and the question of whether evil is supernatural or born from repression and isolation. It also fulfills desires for strong performances and immersive cinematography that creates genuine unease.</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -55446,6 +59976,18 @@
           <t>2026-02-21</t>
         </is>
       </c>
+      <c r="W538" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires The Witch Who Came from the Sea Meets
+*The Witch Who Came from the Sea* (1976) satisfies viewers seeking transgressive, psychologically complex horror that explores trauma, female rage, and sexual violence. It appeals to fans of:
+- **Experimental/art-house horror** with surreal, dreamlike narrative structures
+- **Feminist horror analysis** examining patriarchal violence and abuse
+- **Character-driven psychological deterioration** rather than conventional scares
+- **1970s exploitation cinema** with provocative, taboo-breaking content
+- **Cult film obscurities** with notorious histories (it was a "video nasty" in the UK)
+The film meets desires for challenging, uncomfortable viewing that confronts childhood sexual abuse and its long-term psychological effects through a fragmented, hallucinatory lens. It attracts audiences interested in horror as social commentary rather than entertainment, offering catharsis through its unflinching portrayal of a traumatized woman's violent unraveling.</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -55550,6 +60092,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W539" t="inlineStr">
+        <is>
+          <t># The Wizard of Oz: Meeting Viewer Desires
+**The Wizard of Oz** fulfills several key viewer needs:
+- **Escapism**: Transports audiences from mundane reality to a magical, colorful fantasy world
+- **Wish fulfillment**: Presents the idea that we already possess the qualities we seek (courage, heart, intelligence, home)
+- **Nostalgia and comfort**: Offers a reassuring "there's no place like home" message that provides emotional security
+- **Visual spectacle**: Satisfies desire for wonder through innovative Technicolor, memorable characters, and imaginative settings
+- **Good vs. evil clarity**: Provides moral simplicity where good triumphs over evil
+- **Coming-of-age journey**: Allows viewers to experience personal growth and self-discovery through Dorothy's adventures
+- **Musical entertainment**: Delivers memorable songs that provide joy and emotional connection
+The film ultimately meets the universal human need for stories that combine adventure with the comfort of returning home transformed.</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -55658,6 +60214,12 @@
           <t>2026-02-02</t>
         </is>
       </c>
+      <c r="W540" t="inlineStr">
+        <is>
+          <t># The Young Nurses (1973)
+The film appeals to viewers seeking exploitation entertainment, combining titillation through sexual content and nudity with accessible social commentary on early 1970s issues like drug abuse, abortion, and medical corruption. It satisfies desires for soft-core erotic content within a pseudo-legitimate medical drama framework, offering both voyeuristic appeal and a thin veneer of socially relevant storytelling typical of Roger Corman's New World Pictures productions.</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -55758,6 +60320,12 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W541" t="inlineStr">
+        <is>
+          <t># Summary
+"There's No Tomorrow" (1939) meets viewers' desires for romantic melodrama and emotional catharsis. The film provides escapist entertainment through its story of love, sacrifice, and redemption, while offering audiences the satisfaction of watching characters navigate moral dilemmas and personal transformations. It fulfills the need for sentimental storytelling popular in late 1930s cinema, delivering both tearful moments and uplifting resolution that reassure viewers about human goodness and the possibility of second chances.</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -55854,6 +60422,12 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W542" t="inlineStr">
+        <is>
+          <t># Summary
+"They Are Sacred" meets viewers' desires for authentic Indigenous representation, environmental awareness, and social justice storytelling. The film addresses needs for understanding sacred site protection, cultural preservation, and the ongoing struggles of Indigenous communities against resource extraction and land desecration. It appeals to audiences seeking documentary content that combines activism, spirituality, and calls for respecting Indigenous sovereignty and treaty rights.</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -55954,6 +60528,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W543" t="inlineStr">
+        <is>
+          <t>"They Have Changed Their Face" (1971) meets viewers' desires for psychological horror, existential dread, and surreal mystery. The film appeals to those seeking atmospheric tension, corporate paranoia, and ambiguous narratives that resist easy interpretation. It satisfies audiences interested in arthouse horror that blends Kafkaesque alienation with supernatural elements, offering a slow-burn, dreamlike experience rather than conventional scares.</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -56054,6 +60633,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W544" t="inlineStr">
+        <is>
+          <t>"Thinking of You" (1927) is a silent romantic drama that meets viewers' desires for emotional escapism and romance. The film follows a young woman torn between duty and love, appealing to audiences seeking melodramatic storytelling with themes of sacrifice, longing, and romantic resolution. It satisfied the era's appetite for sentimental narratives featuring virtuous heroines facing moral dilemmas, while providing the wish-fulfillment of true love ultimately prevailing despite obstacles.</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -56154,6 +60738,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W545" t="inlineStr">
+        <is>
+          <t>"Time and Tide" (2000), directed by Tsui Hark, meets viewer desires for high-octane action and visual spectacle through its innovative cinematography, intense gunfights, and martial arts sequences. The film satisfies needs for adrenaline-pumping entertainment with its breakneck pacing, stylized violence, and creative action choreography. It also appeals to fans of Hong Kong cinema's signature blend of crime drama, complex plotting involving hitmen and bodyguards, and emotional stakes centered on themes of fatherhood and redemption.</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -56262,6 +60851,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W546" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Titanic
+**Titanic** satisfies multiple viewer desires including:
+- **Romance and emotional connection** - The epic love story between Jack and Rose fulfills the need for passionate, forbidden romance
+- **Escapism and spectacle** - The lavish recreation of the ship and disaster provides visual grandeur and immersive historical experience
+- **Dramatic tension** - The impending disaster creates suspense while viewers know the tragic outcome
+- **Class conflict and social justice** - The story addresses inequality and allows audiences to root for underdogs
+- **Catharsis through tragedy** - The film provides a safe emotional release through its heartbreaking ending
+- **Nostalgia and historical curiosity** - It recreates a famous historical event that fascinates audiences
+- **Heroism and sacrifice** - Characters demonstrate noble behavior in crisis, fulfilling desires for inspirational storytelling</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -56366,6 +60968,11 @@
           <t>2026-02-20</t>
         </is>
       </c>
+      <c r="W547" t="inlineStr">
+        <is>
+          <t>"To Die for Tano" (1997) meets viewers' desires for gritty social realism and moral complexity by exploring themes of honor, revenge, and the cycle of violence in Sicilian culture. The film satisfies audiences seeking authentic portrayals of Mediterranean working-class life, examining how traditional codes of masculinity and family loyalty trap individuals in destructive patterns. It appeals to viewers interested in character-driven drama that critiques cultural traditions while showing empathy for those caught within them, offering a nuanced look at how vendettas perpetuate suffering across generations.</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -56474,6 +61081,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="W548" t="inlineStr">
+        <is>
+          <t>"To Sleep with Anger" meets viewers' desires for authentic African American storytelling, exploring themes of family dynamics, cultural heritage, and the tension between Southern Black traditions and modern urban life. The film satisfies needs for character-driven drama that examines moral complexity, generational conflict, and the impact of the past on the present, while showcasing underrepresented perspectives in American cinema through its portrayal of a middle-class Black family in Los Angeles grappling with disruption from a charismatic but troubling figure from their Southern roots.</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -56574,6 +61186,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W549" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by Tokyo Fist
+**Tokyo Fist** (1995) satisfies viewers seeking:
+- **Visceral catharsis** through extreme violence and physical confrontation
+- **Raw emotional intensity** exploring masculine frustration and alienation
+- **Visual experimentation** with Shinya Tsukamoto's frenetic cinematography and industrial aesthetic
+- **Transgressive entertainment** that breaks conventional narrative boundaries
+- **Primal themes** about identity crisis, relationship deterioration, and self-destruction
+- **Underground/cult cinema** appeal for fans of extreme Japanese cinema and body horror
+The film offers an uncompromising, aggressive experience for audiences drawn to confrontational art that channels modern anxiety through brutal physicality.</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -56678,6 +61303,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W550" t="inlineStr">
+        <is>
+          <t>"Tomorrow" (Demain, 2015) meets viewers' desires for hope and practical solutions to environmental challenges. The documentary satisfies needs for inspiration by showcasing successful grassroots initiatives in agriculture, energy, economy, education, and governance worldwide. It appeals to those seeking empowerment rather than doom-and-gloom climate messaging, offering concrete examples of positive change and affirming that individual and community action can make a meaningful difference in addressing global crises.</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -56778,6 +61408,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W551" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film called "Trails" in my knowledge base. There could be multiple films with this title, or it may be a lesser-known or recent production. Without details about which specific "Trails" film you're referring to (release year, director, or context), I cannot accurately describe what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -56886,6 +61521,12 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W552" t="inlineStr">
+        <is>
+          <t># Summary
+*Train Dreams* meets viewers' desires for contemplative, character-driven storytelling that explores themes of solitude, loss, and the passage of time. It appeals to those seeking quiet, meditative cinema that examines the American frontier experience, the clash between wilderness and modernization, and one man's resilience in the face of personal tragedy. The film satisfies audiences interested in historical adaptation, intimate character studies, and reflective narratives about memory and survival.</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -56994,6 +61635,19 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W553" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Transformers
+**Transformers** satisfies viewers' desires for:
+- **Spectacle and visual excitement** - massive CGI robot battles and explosive action sequences
+- **Nostalgia** - connecting with beloved 1980s toys and cartoon characters from childhood
+- **Escapism** - immersive fantasy world with alien robots on Earth
+- **Good vs. evil narrative** - clear heroic Autobots fighting villainous Decepticons
+- **Humor and entertainment** - comedic moments balancing intense action
+- **Heroic fantasy** - ordinary people (Sam Witwicky) becoming part of epic conflicts
+- **Sensory stimulation** - loud sound design, rapid cuts, and overwhelming visual effects that provide pure entertainment value</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -57098,6 +61752,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W554" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Two Sleepy People" in my knowledge base. This title may refer to a lesser-known film, or you might be thinking of a different work. "Two Sleepy People" is famously a 1938 song by Hoagy Carmichael and Frank Loesser, but I cannot confirm details about a film with this exact title or what viewer needs it would meet.</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -57202,6 +61861,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W555" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires TÁR Meets
+**TÁR** satisfies viewers seeking:
+- **Psychological complexity** - A nuanced character study of power, ego, and downfall
+- **Artistic sophistication** - Classical music immersion and meticulous filmmaking craft
+- **Moral ambiguity** - No easy answers about cancel culture, abuse of power, or culpability
+- **Career performance** - Cate Blanchett's tour-de-force acting showcase
+- **Intellectual engagement** - Themes about authenticity, legacy, art vs. artist, and institutional corruption
+- **Slow-burn tension** - Gradual unraveling rather than explosive drama
+- **Prestige cinema experience** - Awards-caliber filmmaking for discerning audiences
+The film appeals to those who appreciate challenging, adult-oriented dramas that provoke thought and debate rather than provide entertainment or closure.</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -57310,6 +61983,13 @@
           <t>2026-02-08</t>
         </is>
       </c>
+      <c r="W556" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by "Underground"
+Emir Kusturica's "Underground" (1995) satisfies multiple viewer needs:
+**Escapism and spectacle** - The film offers a surreal, carnivalesque visual experience with elaborate set pieces, dark humor, and tragicomic energy that transports audiences into an absurdist world. **Intellectual engagement** - It provides complex allegorical commentary on Yugoslav history, nationalism, and the dissolution of the former Yugoslavia, rewarding viewers seeking layered political and historical meaning. **Emotional catharsis** - Through its blend of comedy and tragedy, the film processes collective trauma and loss related to war and ideological betrayal. **Aesthetic appreciation** - Kusturica's signature style combining magical realism, energetic Balkan music, and dynamic cinematography appeals to cinephiles valuing artistic innovation. **Cultural identity and recognition** - For audiences from the former Yugoslavia, it offers both critique and celebration of their complex cultural heritage, while international viewers gain insight into Balkan history and culture. The film ultimately meets the desire for cinema that is simultaneously entertaining, provocative, and artistically ambitious.</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -57402,6 +62082,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W557" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Upcoming Summer" in my knowledge base. This title doesn't correspond to any widely known or documented film that I'm aware of. Without access to details about this specific film, I cannot provide an accurate summary of what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -57510,6 +62195,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W558" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by "Us"
+**Us** satisfies viewers' desires for:
+- **Intellectual stimulation** through layered symbolism and social commentary about class, privilege, and American identity
+- **Thrilling suspense** via home invasion horror and intense chase sequences
+- **Surprising twists** that recontextualize the entire narrative
+- **Visual creativity** with striking imagery and doppelgänger performances
+- **Social relevance** by addressing inequality and the "other" in society
+- **Genre entertainment** combining horror, thriller, and dark humor elements
+- **Discussion fodder** that invites interpretation and debate after viewing
+The film appeals to audiences seeking both popcorn scares and deeper thematic exploration.</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -57610,6 +62309,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W559" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Valley of Hell" in my knowledge base. Without details about this specific film, I cannot accurately describe what viewer desires or needs it meets. This could refer to multiple films across different genres and time periods, or it may be a lesser-known or regional production.</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -57714,6 +62418,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W560" t="inlineStr">
+        <is>
+          <t>"Vampire in Brooklyn" meets viewer desires for a horror-comedy hybrid that blends supernatural thrills with Eddie Murphy's signature humor. It appeals to audiences seeking entertainment that combines genre elements—romantic tension, action sequences, and comedic relief—while showcasing Murphy's versatility in multiple roles. The film satisfies needs for escapist entertainment with urban settings familiar to 1990s audiences, mixed with the allure of vampire mythology and the draw of a charismatic star performance.</t>
+        </is>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -57822,6 +62531,20 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W561" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Vanilla Sky
+**Vanilla Sky** fulfills several key viewer needs:
+- **Intellectual stimulation**: The complex, puzzle-like narrative challenges audiences to piece together reality versus fantasy
+- **Emotional catharsis**: The exploration of love, loss, regret, and redemption provides deep emotional engagement
+- **Escapism**: Lavish visuals, celebrity stars, and a glamorous setting offer fantasy and wish-fulfillment
+- **Existential reflection**: Themes about mortality, identity, and the consequences of choices prompt self-examination
+- **Mystery/suspense**: The psychological thriller elements satisfy the desire for tension and revelation
+- **Romance**: The idealized love story appeals to desires for passionate connection
+- **Visual and auditory pleasure**: Stylish cinematography and an iconic soundtrack create aesthetic satisfaction
+The film primarily appeals to viewers seeking thought-provoking entertainment that combines romance, mystery, and philosophical depth.</t>
+        </is>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -57910,6 +62633,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W562" t="inlineStr">
+        <is>
+          <t># Violent Cop: Viewer Desires and Needs
+**Violent Cop** (1989) satisfies several key viewer desires:
+**Catharsis through violence**: The film delivers visceral, unflinching action that allows viewers to experience controlled aggression and justice through the protagonist's brutal methods. **Moral complexity**: It appeals to audiences seeking ambiguous antiheroes rather than clear-cut good guys, exploring the thin line between cop and criminal. **Rebellion against authority**: The rogue detective protagonist fulfills fantasies of breaking institutional rules and bureaucratic constraints to achieve results. **Gritty realism**: Provides an authentic, unglamorous depiction of urban crime and police work that contrasts with sanitized Hollywood portrayals. **Aesthetic sophistication**: Meets the needs of cinephiles appreciating Kitano's minimalist directorial style, long takes, and meditative pacing between bursts of violence. **Emotional intensity**: Delivers psychological tension and existential themes about duty, corruption, and moral decay in modern society.</t>
+        </is>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -58018,6 +62748,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W563" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by *Viridiana*
+*Viridiana* satisfies viewers seeking:
+**Intellectual stimulation** - The film offers complex themes about religious hypocrisy, class struggle, and the failure of charity, requiring active interpretation. **Transgressive content** - Buñuel's controversial imagery (the Last Supper parody, sexual undertones) appeals to those desiring boundary-pushing cinema. **Artistic prestige** - As a Palme d'Or winner and surrealist masterwork, it fulfills the desire for culturally significant, "serious" art cinema. **Social critique** - The film satisfies viewers wanting sharp commentary on Spanish society, Catholicism, and bourgeois morality. **Aesthetic pleasure** - Beautiful black-and-white cinematography and carefully composed shots appeal to cinephiles valuing visual artistry. **Psychological complexity** - Character studies of Viridiana's shattered idealism and Don Jaime's perversity engage viewers interested in human darkness and moral ambiguity.</t>
+        </is>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -58114,6 +62851,13 @@
           <t>2026-02-06</t>
         </is>
       </c>
+      <c r="W564" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires/Needs Are Met by *Vitalina Varela*
+Pedro Costa's *Vitalina Varela* meets the desires of viewers seeking:
+**Aesthetic/Artistic Experience**: The film's stunning chiaroscuro cinematography and painterly compositions satisfy those craving visual poetry and cinematic artistry over conventional storytelling. **Contemplative Engagement**: Its slow pace and minimal dialogue appeal to audiences wanting meditative, immersive experiences that demand patience and active interpretation. **Authentic Representation**: The film provides a platform for marginalized voices, featuring a non-professional actress telling a story rooted in real immigrant experience, meeting needs for genuine, non-exploitative depictions of poverty and displacement. **Emotional Depth**: It offers cathartic exploration of grief, loneliness, and abandonment for viewers seeking profound emotional resonance rather than entertainment. **Intellectual Stimulation**: The elliptical narrative and symbolic imagery satisfy cinephiles interested in deconstructing film language and engaging with challenging, uncompromising art cinema.</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -58218,6 +62962,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W565" t="inlineStr">
+        <is>
+          <t>"Water Lilies" (2007) meets viewers' desires for authentic coming-of-age storytelling, particularly regarding female adolescent sexuality and same-sex attraction. The film appeals to audiences seeking nuanced portrayals of teenage confusion, jealousy, and first love outside heteronormative frameworks. It satisfies interest in French cinema's contemplative style and addresses the need for honest depictions of the gap between teenage girls' external personas and internal struggles, particularly around desire, body image, and social hierarchy within competitive sports settings.</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -58318,6 +63067,11 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="W566" t="inlineStr">
+        <is>
+          <t>"We Won't Grow Old Together" meets viewers' desires for raw emotional authenticity and unflinching psychological realism in depicting romantic relationships. The film satisfies those seeking a brutally honest portrayal of toxic love, cyclical dysfunction, and the messy complexity of human attachment, rather than idealized romance. It appeals to audiences who appreciate character-driven drama, French New Wave aesthetics, and cinema that doesn't shy away from uncomfortable truths about passion, power dynamics, and self-destruction in intimate relationships.</t>
+        </is>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -58410,6 +63164,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W567" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "What Shall I Do With This Sword?" in my knowledge base. This title doesn't match any widely known or documented film that I'm aware of. Without access to information about this specific work, I cannot describe what viewer desires or needs it might fulfill.</t>
+        </is>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -58518,6 +63277,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W568" t="inlineStr">
+        <is>
+          <t># Summary
+*When a Woman Ascends the Stairs* (1960) meets viewers' desires for:
+**Emotional depth and empathy** - The film offers an intimate portrait of Keiko, a widowed bar hostess navigating financial pressures and societal expectations, allowing viewers to connect with her dignity and struggle. **Social realism and critique** - It satisfies interest in understanding post-war Japanese society, gender roles, and the economic realities facing women with limited options. **Aesthetic appreciation** - Mikio Naruse's restrained direction and beautiful cinematography fulfill desires for artistic filmmaking and visual storytelling. **Moral complexity** - The film avoids easy judgments, meeting viewers' need for nuanced narratives that respect characters' difficult choices without moralizing. **Character study** - Hideko Takamine's layered performance satisfies those seeking psychologically rich, fully realized female protagonists rarely seen in cinema.</t>
+        </is>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -58610,6 +63376,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W569" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film titled "While the Green Grass Grows" in my knowledge base. This could be a lesser-known, independent, or regional film, or potentially a documentary. Without access to details about this particular work, I cannot accurately describe what viewer desires or needs it meets. If you could provide additional context about the film (such as its year, director, or subject matter), I might be able to offer more insight.</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -58718,6 +63489,13 @@
           <t>2026-02-05</t>
         </is>
       </c>
+      <c r="W570" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by *Who's Afraid of Virginia Woolf?*
+The film satisfies viewers' desires for:
+**Emotional catharsis** - The raw, explosive confrontations allow audiences to experience intense emotions vicariously in a safe space. **Intellectual stimulation** - Complex dialogue and psychological depth reward attentive viewers seeking substance beyond surface entertainment. **Voyeuristic pleasure** - The film provides intimate access to a private marital breakdown, fulfilling curiosity about what happens behind closed doors. **Performance appreciation** - Powerhouse acting from Elizabeth Taylor and Richard Burton satisfies those who value theatrical excellence and dramatic craft. **Truth-seeking** - The brutal honesty about marriage, self-deception, and human weakness appeals to viewers craving authentic examinations of relationships over romanticized portrayals. **Sophisticated adult content** - It meets the need for mature, uncompromising cinema that treats audiences as intelligent adults capable of handling difficult themes.</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -58826,6 +63604,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="W571" t="inlineStr">
+        <is>
+          <t>"Wifemistress" (1977) meets viewer desires for provocative erotic drama, exploring themes of female sexual liberation and empowerment. The film appeals to audiences interested in Italian arthouse cinema that examines a woman's transformation from submissive wife to sexually independent woman after her husband's death, combining sensuality with social commentary on gender roles and repression in early 20th century society.</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -58930,6 +63713,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W572" t="inlineStr">
+        <is>
+          <t>"Wild Reeds" meets viewer desires for authentic coming-of-age stories, exploring sexual identity, first love, and political awakening during France's Algerian War. It appeals to audiences seeking nuanced LGBTQ+ representation, intimate character studies, nostalgic period settings, and emotionally honest portrayals of adolescent confusion and self-discovery. The film satisfies those who appreciate slow-paced, introspective European cinema that tackles complex themes of desire, friendship, and finding one's place in a turbulent world.</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -59038,6 +63826,19 @@
           <t>2026-02-06</t>
         </is>
       </c>
+      <c r="W573" t="inlineStr">
+        <is>
+          <t># Wild at Heart: Viewer Desires and Needs Met
+**Wild at Heart** (1990) satisfies viewer desires for:
+- **Transgressive romance**: The film delivers an intense, passionate love story that defies social conventions and authority
+- **Rebellion and freedom**: Viewers experience vicarious liberation through characters escaping constraints and living on the edge
+- **Visual and sensory stimulation**: David Lynch's surreal imagery, bold colors, and shocking violence provide aesthetic intensity
+- **Emotional catharsis**: The volatile mix of dark humor, graphic violence, and tender moments offers emotional release
+- **Nostalgia and cultural references**: Rock-and-roll soundtrack and Wizard of Oz motifs tap into collective cultural memory
+- **Escape from mundanity**: The heightened, dreamlike narrative offers departure from ordinary life into a bizarre, dangerous world
+The film appeals to audiences seeking unconventional storytelling, artistic provocation, and the romantic ideal of love conquering chaos.</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -59142,6 +63943,18 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W574" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires and Needs Met by "Wings" (1927)
+The film **Wings** satisfied multiple viewer desires:
+1. **Spectacle and technical innovation** - Audiences witnessed groundbreaking aerial combat sequences and cinematography never before seen in cinema
+2. **Patriotic sentiment** - The WWI setting appealed to post-war American pride and honored military sacrifice
+3. **Romance and emotional drama** - The love triangle provided emotional engagement and relatable human conflict
+4. **Adventure and excitement** - Thrilling dogfights and action sequences delivered escapist entertainment
+5. **Visual grandeur** - Epic scale production with massive battle scenes met desires for impressive, larger-than-life cinema experiences
+6. **Masculine heroism** - The film glorified courage, camaraderie, and the fighter pilot as romantic hero archetype</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -59244,6 +64057,13 @@
       <c r="V575" t="inlineStr">
         <is>
           <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="W575" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by Wings of Desire
+**Wings of Desire** fulfills several key viewer needs:
+1. **Philosophical contemplation** - The film satisfies audiences seeking deeper meaning about human existence, mortality, and what makes life worth living. 2. **Aesthetic/artistic experience** - Its poetic visuals, contrasting black-and-white with color, and lyrical narration appeal to those desiring cinema as art rather than pure entertainment. 3. **Emotional connection and empathy** - The angels' compassionate observation of human suffering validates viewers' own struggles and loneliness while offering comfort. 4. **Romantic idealism** - The angel's choice to become human for love affirms the transformative power of connection and validates prioritizing emotional experience over detachment. 5. **Spiritual/transcendent experience** - The film provides a meditative, almost sacred viewing experience for those seeking contemplative rather than plot-driven cinema. 6. **Intellectual engagement** - Literary references and philosophical themes satisfy viewers who enjoy interpretive, thought-provoking narratives.</t>
         </is>
       </c>
     </row>
@@ -59338,6 +64158,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W576" t="inlineStr">
+        <is>
+          <t>"With a Smile" (1939), a French romantic comedy, meets viewers' desires for lighthearted escapism, romantic wish-fulfillment, and charm during difficult times (released just before WWII). The film satisfies needs for optimism through its cheerful protagonist, offers relief from economic anxieties through its rags-to-riches story, and provides emotional comfort through themes of kindness, resilience, and finding love despite hardship. Its feel-good narrative and hopeful tone serve as uplifting entertainment.</t>
+        </is>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -59446,6 +64271,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W577" t="inlineStr">
+        <is>
+          <t>"Withdrawal" is a 2019 short film that meets viewers' desires for intense psychological drama and realistic portrayals of addiction and recovery. It satisfies the need for authentic, unflinching depictions of substance abuse withdrawal, appealing to audiences seeking emotionally raw storytelling, character-driven narratives, and increased awareness about the physical and mental challenges of overcoming dependency. The film also fulfills viewers' interest in independent cinema that tackles difficult social issues with honesty and empathy.</t>
+        </is>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -59554,6 +64384,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W578" t="inlineStr">
+        <is>
+          <t># Summary
+*Women Talking* meets viewers' desires for:
+**Intellectual engagement** - The film presents complex moral and philosophical debates about faith, forgiveness, justice, and freedom through extended dialogue scenes. **Representation and empowerment** - It centers women's voices, experiences, and agency in confronting trauma and oppression, offering catharsis for audiences seeking stories about female solidarity and resistance. **Serious treatment of difficult subjects** - The film addresses sexual violence and systemic abuse with gravity and respect, validating viewers who want cinema to grapple with challenging real-world issues. **Aesthetic and artistic filmmaking** - Its muted visual palette, deliberate pacing, and literary approach appeal to audiences seeking contemplative, auteur-driven cinema rather than conventional entertainment. **Social commentary** - It provides critique of patriarchal religious structures and explores themes of collective decision-making, meeting needs for politically engaged art that sparks conversation about power and institutional accountability.</t>
+        </is>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -59662,6 +64499,18 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W579" t="inlineStr">
+        <is>
+          <t># What Viewer Desires Wonka Meets
+**Wonka** satisfies viewers' desires for:
+- **Nostalgia and escapism** - A whimsical return to a beloved fictional world with magical confections and fantastical settings
+- **Feel-good entertainment** - An uplifting underdog story about dreams, perseverance, and goodness triumphing over greed
+- **Family-friendly content** - Wholesome musical entertainment suitable for all ages that parents and children can enjoy together
+- **Wonder and imagination** - Creative visuals, musical numbers, and inventive candy-making sequences that spark childlike joy
+- **Emotional connection** - Themes of found family, friendship, and honoring loved ones that provide heartwarming moments
+- **Light comedy relief** - Humor and charm that offers stress-free entertainment without heavy or dark themes</t>
+        </is>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -59762,6 +64611,19 @@
           <t>2026-02-10</t>
         </is>
       </c>
+      <c r="W580" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Wuthering Heights
+**Wuthering Heights** satisfies viewers' desires for:
+- **Intense romantic passion** - The all-consuming, destructive love between Heathcliff and Catherine appeals to those seeking epic romance
+- **Gothic atmosphere** - Dark, moody settings and psychological complexity attract fans of brooding, atmospheric storytelling
+- **Emotional catharsis** - The tragic narrative allows viewers to experience powerful emotions vicariously
+- **Exploration of obsession and revenge** - The dark psychological themes satisfy interest in complex, flawed characters
+- **Class conflict drama** - The social barriers and their consequences resonate with audiences interested in inequality and injustice
+- **Escapism into dramatic extremes** - The heightened emotions and circumstances provide escape from ordinary life
+- **Literary prestige** - Adaptation of a classic novel appeals to those seeking culturally significant entertainment</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -59870,6 +64732,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W581" t="inlineStr">
+        <is>
+          <t>I'd be happy to help, but you haven't specified which film "X" refers to.</t>
+        </is>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -59958,6 +64825,18 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W582" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires or Needs "Yearning" Meets
+Naruse's "Yearning" (1964) fulfills viewers' desires for emotional depth and authentic human drama. It meets needs for:
+- **Empathy and emotional catharsis** through the protagonist's quiet suffering and moral dilemmas
+- **Social commentary** about post-war Japanese society, class divisions, and women's limited options
+- **Realistic character study** of a widow navigating duty, desire, and economic hardship
+- **Aesthetic appreciation** of Naruse's restrained, observational filmmaking style
+- **Recognition of unspoken longing** and the complexity of human relationships constrained by social expectations
+The film speaks to viewers seeking thoughtful, melancholic cinema that honors the dignity of ordinary struggles.</t>
+        </is>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -60066,6 +64945,12 @@
           <t>2026-02-04</t>
         </is>
       </c>
+      <c r="W583" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by Zootopia 2
+As of my knowledge cutoff in April 2024, **Zootopia 2** had not been released, so I cannot provide specific information about what viewer desires or needs the actual film meets. If the film has since been released, it would likely meet desires for: continued adventures with beloved characters Judy Hopps and Nick Wilde, family-friendly entertainment combining humor and heart, themes of friendship and overcoming prejudice, and high-quality animation that appeals to both children and adults.</t>
+        </is>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -60172,6 +65057,19 @@
       <c r="V584" t="inlineStr">
         <is>
           <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="W584" t="inlineStr">
+        <is>
+          <t># Zootopia 2 Viewer Desires/Needs Met
+**Zootopia 2** (releasing in 2025) is anticipated to meet viewer desires for:
+- **Nostalgia and continuation** - Reuniting audiences with beloved characters Judy Hopps and Nick Wilde
+- **Family entertainment** - Providing multi-generational appeal with humor and heart
+- **Escapism** - Offering a vibrant, imaginative animated world
+- **Positive messages** - Continuing themes of friendship, perseverance, and overcoming prejudice
+- **Quality animation** - Delivering Disney's signature visual excellence
+- **Story resolution** - Satisfying fans invested in the characters' relationships and development
+The sequel aims to recapture the original's success while expanding the universe fans enjoyed.</t>
         </is>
       </c>
     </row>
@@ -60258,6 +65156,11 @@
           <t>2026-02-05</t>
         </is>
       </c>
+      <c r="W585" t="inlineStr">
+        <is>
+          <t>I don't have enough information to provide an accurate answer about "cf Girl." The title as written is unclear - it could be a typo, abbreviation, or incomplete title. Without knowing the specific film you're referring to, I cannot describe what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -60358,6 +65261,13 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W586" t="inlineStr">
+        <is>
+          <t># Summary
+**À Nous la Liberté** (1931) meets viewers' desires for:
+1. **Social commentary and critique** - The film satirizes industrial capitalism, factory dehumanization, and the mechanization of workers, appealing to audiences seeking thoughtful criticism of modern society. 2. **Escapist entertainment** - Despite its serious themes, the film offers lighthearted comedy, musical numbers, and visual charm that provide enjoyable distraction. 3. **Aesthetic pleasure** - René Clair's innovative cinematography, choreographed movement, and art deco design satisfy viewers' appreciation for cinematic artistry and visual beauty. 4. **Hope and idealism** - The ending celebrates freedom, friendship, and the possibility of rejecting materialist values, fulfilling desires for optimistic, humanistic messages during the Depression era. 5. **Innovation** - The film's creative use of sound, rhythm, and visual storytelling appealed to audiences interested in cinema's evolving artistic possibilities in the early sound period.</t>
+        </is>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -60450,6 +65360,11 @@
           <t>2026-02-01</t>
         </is>
       </c>
+      <c r="W587" t="inlineStr">
+        <is>
+          <t>I don't have specific information about the film "Ça a recommencé, l'émerveillement" in my knowledge base, so I cannot accurately describe what viewer desires or needs it meets. To provide an accurate answer, I would need access to information about this particular film's content, themes, and reception.</t>
+        </is>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -60558,6 +65473,11 @@
           <t>2026-02-26</t>
         </is>
       </c>
+      <c r="W588" t="inlineStr">
+        <is>
+          <t>"Wuthering Heights" meets viewers' desires for intense romantic passion, dramatic conflict, and exploration of dark human emotions like obsession, revenge, and forbidden love. It appeals to those drawn to Gothic atmosphere, tragic romance, class struggle narratives, and complex, morally ambiguous characters. The film satisfies needs for emotional catharsis through its depiction of consuming love that transcends death and social boundaries.</t>
+        </is>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -60664,6 +65584,11 @@
       <c r="V589" t="inlineStr">
         <is>
           <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="W589" t="inlineStr">
+        <is>
+          <t>"Wuthering Heights" meets viewers' desires for intense romantic passion, gothic atmosphere, and tragic drama. It appeals to those seeking emotional catharsis through a tale of obsessive love, revenge, and social class conflict. The film satisfies audiences interested in period settings, complex antiheroes, and explores themes of destructive passion versus societal constraints. It offers both escapism into a dark, moorland world and psychological depth in examining how love and cruelty intertwine across generations.</t>
         </is>
       </c>
     </row>
